--- a/output/Financial Statement AAPL/Analysis Work.xlsx
+++ b/output/Financial Statement AAPL/Analysis Work.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements /output/Financial Statement AAPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E37FDCD-372A-5940-B5D4-B01B2738666D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB8B91A-3544-D24C-93E7-928AE7436648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="500" windowWidth="27640" windowHeight="15300" xr2:uid="{123E7126-618F-554B-9C59-0DEE9560D86E}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="27640" windowHeight="15300" activeTab="1" xr2:uid="{123E7126-618F-554B-9C59-0DEE9560D86E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="financing" sheetId="5" r:id="rId2"/>
-    <sheet name="investing" sheetId="4" r:id="rId3"/>
-    <sheet name="ebita calcs" sheetId="3" r:id="rId4"/>
-    <sheet name="cashflow from operating" sheetId="2" r:id="rId5"/>
+    <sheet name="cash" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId2"/>
+    <sheet name="financing" sheetId="6" r:id="rId3"/>
+    <sheet name="investing" sheetId="4" r:id="rId4"/>
+    <sheet name="ebita calcs" sheetId="3" r:id="rId5"/>
+    <sheet name="cashflow from operating" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,27 +39,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={4236A315-8E53-224F-9E90-0FDF32EC9B22}</author>
-  </authors>
-  <commentList>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{4236A315-8E53-224F-9E90-0FDF32EC9B22}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Does not add up on this line but not because of me
-</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>net income</t>
   </si>
@@ -153,9 +135,6 @@
     <t>payments for strategic investments</t>
   </si>
   <si>
-    <t>financing activities:</t>
-  </si>
-  <si>
     <t>cash used in investing activities</t>
   </si>
   <si>
@@ -217,13 +196,136 @@
   </si>
   <si>
     <t xml:space="preserve">cash in cash </t>
+  </si>
+  <si>
+    <t>proceeds from repurchase agreement</t>
+  </si>
+  <si>
+    <t>proceeds from repurchase agreements</t>
+  </si>
+  <si>
+    <t>repayments of commercial paper, net</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Year Ended 2016</t>
+  </si>
+  <si>
+    <t>Q1 2017 (2016)</t>
+  </si>
+  <si>
+    <t>Q2 2017</t>
+  </si>
+  <si>
+    <t>Q3 2017</t>
+  </si>
+  <si>
+    <t>Year Ended 2017</t>
+  </si>
+  <si>
+    <t>Q1 2018 (2017)</t>
+  </si>
+  <si>
+    <t>Q2 2018</t>
+  </si>
+  <si>
+    <t>Q3 2018</t>
+  </si>
+  <si>
+    <t>Year Ended 2018</t>
+  </si>
+  <si>
+    <t>Q1 2019 (2018)</t>
+  </si>
+  <si>
+    <t>Q2 2019</t>
+  </si>
+  <si>
+    <t>Q3 2019</t>
+  </si>
+  <si>
+    <t>Year Ended 2019</t>
+  </si>
+  <si>
+    <t>Q1 2020 (2019)</t>
+  </si>
+  <si>
+    <t>Q2 2020</t>
+  </si>
+  <si>
+    <t>Q3 2020</t>
+  </si>
+  <si>
+    <t>Year Ended 2020</t>
+  </si>
+  <si>
+    <t>Q1 2021 (2020)</t>
+  </si>
+  <si>
+    <t>Q2 2021</t>
+  </si>
+  <si>
+    <t>Q3 2021</t>
+  </si>
+  <si>
+    <t>Year Ended 2021</t>
+  </si>
+  <si>
+    <t>Q1 2022 (2021)</t>
+  </si>
+  <si>
+    <t>Q2 2022</t>
+  </si>
+  <si>
+    <t>Q3 2022</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>iPad</t>
+  </si>
+  <si>
+    <t>Wearables, Home and Accessories</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Total net sales</t>
+  </si>
+  <si>
+    <t>Other Products</t>
+  </si>
+  <si>
+    <t>cost of sales</t>
+  </si>
+  <si>
+    <t>Q4 2017</t>
+  </si>
+  <si>
+    <t>Q4 2018</t>
+  </si>
+  <si>
+    <t>Q4 2019</t>
+  </si>
+  <si>
+    <t>Q4 2020</t>
+  </si>
+  <si>
+    <t>Q4 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,10 +348,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,10 +383,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,9 +407,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Susser, Julia Evelyn" id="{871890B9-6F62-EC47-948E-A8012B663B64}" userId="S::jsusser@upenn.edu::79735ddf-3127-4d34-ba00-ea33b434ad28" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,21 +705,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B22" dT="2022-08-01T12:03:40.35" personId="{871890B9-6F62-EC47-948E-A8012B663B64}" id="{4236A315-8E53-224F-9E90-0FDF32EC9B22}">
-    <text xml:space="preserve">Does not add up on this line but not because of me
-</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93756361-4A88-6C4A-BF49-DE9E443BAE55}">
-  <dimension ref="A3:AC28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93756361-4A88-6C4A-BF49-DE9E443BAE55}">
+  <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,6 +718,77 @@
     <col min="1" max="1" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
@@ -1269,7 +1442,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>-3334</v>
@@ -1358,7 +1531,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>-17</v>
@@ -1536,7 +1709,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <f>SUM(B13:B15)</f>
@@ -1653,7 +1826,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>-3130</v>
@@ -1665,10 +1838,10 @@
         <v>-3365</v>
       </c>
       <c r="E18">
-        <v>22268</v>
+        <v>-3270</v>
       </c>
       <c r="F18">
-        <v>12769</v>
+        <v>-12769</v>
       </c>
       <c r="G18">
         <v>-3339</v>
@@ -1680,10 +1853,10 @@
         <v>-3653</v>
       </c>
       <c r="J18">
-        <v>23894</v>
+        <v>-3530</v>
       </c>
       <c r="K18">
-        <v>13712</v>
+        <v>-13712</v>
       </c>
       <c r="L18">
         <v>-3568</v>
@@ -1695,10 +1868,10 @@
         <v>-3629</v>
       </c>
       <c r="O18">
-        <v>24759</v>
+        <v>-3479</v>
       </c>
       <c r="P18">
-        <v>14119</v>
+        <v>-14119</v>
       </c>
       <c r="Q18">
         <v>-3539</v>
@@ -1742,96 +1915,96 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19">
-        <v>-629</v>
+        <v>-11302</v>
       </c>
       <c r="C19">
-        <v>114</v>
+        <v>-7000</v>
       </c>
       <c r="D19">
-        <v>-857</v>
+        <v>-7641</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>-7649</v>
       </c>
       <c r="F19">
-        <v>-1319</v>
+        <v>-33592</v>
       </c>
       <c r="G19">
-        <v>-1038</v>
+        <v>-11133</v>
       </c>
       <c r="H19">
-        <v>175</v>
+        <v>-22581</v>
       </c>
       <c r="I19">
-        <v>-1076</v>
+        <v>-21859</v>
       </c>
       <c r="J19">
-        <v>81</v>
+        <v>-19023</v>
       </c>
       <c r="K19">
-        <v>-1858</v>
+        <v>-74596</v>
       </c>
       <c r="L19">
-        <v>-1318</v>
+        <v>-10114</v>
       </c>
       <c r="M19">
-        <v>281</v>
+        <v>-23421</v>
       </c>
       <c r="N19">
-        <v>-1198</v>
+        <v>-18153</v>
       </c>
       <c r="O19">
-        <v>199</v>
+        <v>-17245</v>
       </c>
       <c r="P19">
-        <v>-2036</v>
+        <v>-68933</v>
       </c>
       <c r="Q19">
-        <v>-1377</v>
+        <v>-22083</v>
       </c>
       <c r="R19">
-        <v>241</v>
+        <v>-18333</v>
       </c>
       <c r="S19">
-        <v>-1668</v>
+        <v>-17559</v>
       </c>
       <c r="T19">
-        <v>50</v>
+        <v>-17137</v>
       </c>
       <c r="U19">
-        <v>-2754</v>
+        <v>-75112</v>
       </c>
       <c r="V19">
-        <v>-2861</v>
+        <v>-27636</v>
       </c>
       <c r="W19">
-        <v>262</v>
+        <v>-18286</v>
       </c>
       <c r="X19">
-        <v>-2695</v>
+        <v>-25595</v>
       </c>
       <c r="Y19">
-        <v>-157</v>
+        <v>-19905</v>
       </c>
       <c r="Z19">
-        <v>-5451</v>
+        <v>-91422</v>
       </c>
       <c r="AA19">
-        <v>-2888</v>
+        <v>-23366</v>
       </c>
       <c r="AB19">
-        <v>-330</v>
+        <v>-22961</v>
       </c>
       <c r="AC19">
-        <v>-2697</v>
+        <v>-24562</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1923,93 +2096,93 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>-8288</v>
+        <v>2385</v>
       </c>
       <c r="C21">
-        <v>-7620</v>
+        <v>-506</v>
       </c>
       <c r="D21">
-        <v>-4797</v>
+        <v>1987</v>
       </c>
       <c r="E21">
-        <v>-7716</v>
+        <v>-14</v>
       </c>
       <c r="F21">
-        <v>-28421</v>
+        <v>3852</v>
       </c>
       <c r="G21">
-        <v>-10093</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>-22757</v>
+        <v>-1</v>
       </c>
       <c r="I21">
-        <v>-20794</v>
+        <v>-11</v>
       </c>
       <c r="J21">
-        <v>-19131</v>
+        <v>-27</v>
       </c>
       <c r="K21">
-        <v>-72775</v>
+        <v>-37</v>
       </c>
       <c r="L21">
-        <v>-8790</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>-23795</v>
+        <v>-93</v>
       </c>
       <c r="N21">
-        <v>-16951</v>
+        <v>-2022</v>
       </c>
       <c r="O21">
-        <v>-23443</v>
+        <v>-3973</v>
       </c>
       <c r="P21">
-        <v>-72979</v>
+        <v>-6082</v>
       </c>
       <c r="Q21">
-        <v>-21701</v>
+        <v>-995</v>
       </c>
       <c r="R21">
-        <v>-16112</v>
+        <v>5018</v>
       </c>
       <c r="S21">
-        <v>-17447</v>
+        <v>1053</v>
       </c>
       <c r="T21">
-        <v>-17224</v>
+        <v>-6165</v>
       </c>
       <c r="U21">
-        <v>-72484</v>
+        <v>-1089</v>
       </c>
       <c r="V21">
-        <v>-24775</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>-18564</v>
+        <v>-16</v>
       </c>
       <c r="X21">
-        <v>-19934</v>
+        <v>2966</v>
       </c>
       <c r="Y21">
-        <v>-21805</v>
+        <v>-2057</v>
       </c>
       <c r="Z21">
-        <v>-85078</v>
+        <v>893</v>
       </c>
       <c r="AA21">
-        <v>-21539</v>
+        <v>-1061</v>
       </c>
       <c r="AB21">
-        <v>-20676</v>
+        <v>1955</v>
       </c>
       <c r="AC21">
-        <v>-17937</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>-12047</v>
@@ -2098,7 +2271,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <f>B11+B16+B22</f>
@@ -2165,7 +2338,7 @@
         <v>-8559</v>
       </c>
       <c r="R24">
-        <f>R11+R16+R22</f>
+        <f t="shared" si="23"/>
         <v>1384</v>
       </c>
       <c r="S24">
@@ -2215,7 +2388,7 @@
     </row>
     <row r="26" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>20484</v>
@@ -2304,7 +2477,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>16371</v>
@@ -2393,7 +2566,7 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <f>B27-B26</f>
@@ -2510,1813 +2683,689 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442BD448-7EEC-D547-9CDF-BB47572425EA}">
-  <dimension ref="A3:AR27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AFA04D-6188-7B4F-B13E-BAA68BF03D45}">
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.1640625" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="2">
-        <v>-3130</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-3004</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-3365</v>
-      </c>
-      <c r="E5" s="2">
-        <v>22268</v>
-      </c>
-      <c r="F5" s="2">
-        <v>12769</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-3339</v>
-      </c>
-      <c r="H5" s="2">
-        <v>-3190</v>
-      </c>
-      <c r="I5" s="2">
-        <v>-3653</v>
-      </c>
-      <c r="J5" s="2">
-        <v>23894</v>
-      </c>
-      <c r="K5" s="2">
-        <v>13712</v>
-      </c>
-      <c r="L5" s="2">
-        <v>-3568</v>
-      </c>
-      <c r="M5" s="2">
-        <v>-3443</v>
-      </c>
-      <c r="N5" s="2">
-        <v>-3629</v>
-      </c>
-      <c r="O5" s="2">
-        <v>24759</v>
-      </c>
-      <c r="P5" s="2">
-        <v>14119</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>-3539</v>
-      </c>
-      <c r="R5" s="2">
-        <v>-3375</v>
-      </c>
-      <c r="S5" s="2">
-        <v>-3656</v>
-      </c>
-      <c r="T5" s="2">
-        <v>-3511</v>
-      </c>
-      <c r="U5" s="2">
-        <v>-14081</v>
-      </c>
-      <c r="V5" s="2">
-        <v>-3613</v>
-      </c>
-      <c r="W5" s="2">
-        <v>-3447</v>
-      </c>
-      <c r="X5" s="2">
-        <v>-3767</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>-3640</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>-14467</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>-3732</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>-3595</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>-3811</v>
-      </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
-        <v>273</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>281</v>
-      </c>
-      <c r="F7" s="2">
-        <v>555</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>327</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>341</v>
-      </c>
-      <c r="K7" s="2">
-        <v>669</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>390</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>390</v>
-      </c>
-      <c r="P7" s="2">
-        <v>781</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2">
-        <v>428</v>
-      </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2">
-        <v>450</v>
-      </c>
-      <c r="U7" s="2">
-        <v>880</v>
-      </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2">
-        <v>561</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>544</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>1105</v>
-      </c>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-629</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-159</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-858</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-228</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-1874</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-1038</v>
-      </c>
-      <c r="H8" s="2">
-        <v>-152</v>
-      </c>
-      <c r="I8" s="2">
-        <v>-1077</v>
-      </c>
-      <c r="J8" s="2">
-        <v>-260</v>
-      </c>
-      <c r="K8" s="2">
-        <v>-2527</v>
-      </c>
-      <c r="L8" s="2">
-        <v>-1318</v>
-      </c>
-      <c r="M8" s="2">
-        <v>-109</v>
-      </c>
-      <c r="N8" s="2">
-        <v>-1199</v>
-      </c>
-      <c r="O8" s="2">
-        <v>-191</v>
-      </c>
-      <c r="P8" s="2">
-        <v>-2817</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>-1379</v>
-      </c>
-      <c r="R8" s="2">
-        <v>-187</v>
-      </c>
-      <c r="S8" s="2">
-        <v>-1668</v>
-      </c>
-      <c r="T8" s="2">
-        <v>-400</v>
-      </c>
-      <c r="U8" s="2">
-        <v>-3634</v>
-      </c>
-      <c r="V8" s="2">
-        <v>-2861</v>
-      </c>
-      <c r="W8" s="2">
-        <v>-299</v>
-      </c>
-      <c r="X8" s="2">
-        <v>-2695</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>-701</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>-6556</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>-2888</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>-330</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>-2697</v>
-      </c>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2">
-        <v>10975</v>
-      </c>
-      <c r="D10" s="2">
-        <v>10750</v>
-      </c>
-      <c r="E10" s="2">
-        <v>6937</v>
-      </c>
-      <c r="F10" s="2">
-        <v>28662</v>
-      </c>
-      <c r="G10" s="2">
-        <v>6969</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <v>6969</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2">
-        <v>6963</v>
-      </c>
-      <c r="P10" s="2">
-        <v>6963</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>2210</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2">
-        <v>8425</v>
-      </c>
-      <c r="T10" s="2">
-        <v>5456</v>
-      </c>
-      <c r="U10" s="2">
-        <v>16091</v>
-      </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2">
-        <v>13923</v>
-      </c>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>6470</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>20393</v>
-      </c>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>-3500</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
-        <v>-3500</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>-500</v>
-      </c>
-      <c r="I11" s="2">
-        <v>-6000</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2">
-        <v>-6500</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2">
-        <v>-2500</v>
-      </c>
-      <c r="N11" s="2">
-        <v>-3000</v>
-      </c>
-      <c r="O11" s="2">
-        <v>-3305</v>
-      </c>
-      <c r="P11" s="2">
-        <v>-8805</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="R11" s="2">
-        <v>-4250</v>
-      </c>
-      <c r="S11" s="2">
-        <v>-7379</v>
-      </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2">
-        <v>-12629</v>
-      </c>
-      <c r="V11" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="W11" s="2">
-        <v>-3500</v>
-      </c>
-      <c r="X11" s="2">
-        <v>-3000</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>-1250</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>-8750</v>
-      </c>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2">
-        <v>-3750</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>-3000</v>
-      </c>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
-      <c r="AM12" s="2"/>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="2"/>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-10851</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-7161</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-7093</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-7795</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-32900</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-10095</v>
-      </c>
-      <c r="H13" s="2">
-        <v>-22756</v>
-      </c>
-      <c r="I13" s="2">
-        <v>-20783</v>
-      </c>
-      <c r="J13" s="2">
-        <v>-19104</v>
-      </c>
-      <c r="K13" s="2">
-        <v>-72738</v>
-      </c>
-      <c r="L13" s="2">
-        <v>-8796</v>
-      </c>
-      <c r="M13" s="2">
-        <v>-23702</v>
-      </c>
-      <c r="N13" s="2">
-        <v>-16955</v>
-      </c>
-      <c r="O13" s="2">
-        <v>-17444</v>
-      </c>
-      <c r="P13" s="2">
-        <v>-66897</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>-20706</v>
-      </c>
-      <c r="R13" s="2">
-        <v>-18574</v>
-      </c>
-      <c r="S13" s="2">
-        <v>-15891</v>
-      </c>
-      <c r="T13" s="2">
-        <v>-17187</v>
-      </c>
-      <c r="U13" s="2">
-        <v>-72358</v>
-      </c>
-      <c r="V13" s="2">
-        <v>-24775</v>
-      </c>
-      <c r="W13" s="2">
-        <v>-18548</v>
-      </c>
-      <c r="X13" s="2">
-        <v>-22900</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>-19748</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>-85971</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>-20478</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>-22631</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>-21865</v>
-      </c>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2">
-        <v>178</v>
-      </c>
-      <c r="C14" s="2">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2">
-        <v>309</v>
-      </c>
-      <c r="E14" s="2">
-        <v>93</v>
-      </c>
-      <c r="F14" s="2">
-        <v>627</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2">
-        <v>-5977</v>
-      </c>
-      <c r="P15" s="2">
-        <v>-5977</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>-979</v>
-      </c>
-      <c r="R15" s="2">
-        <v>2497</v>
-      </c>
-      <c r="S15" s="2">
-        <v>-1487</v>
-      </c>
-      <c r="T15" s="2">
-        <v>-31</v>
-      </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2">
-        <v>22</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2">
-        <v>3000</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>-2000</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>1022</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>1999</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>3971</v>
-      </c>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2385</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-506</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1987</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-14</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3852</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2</v>
-      </c>
-      <c r="H16" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>-11</v>
-      </c>
-      <c r="J16" s="2">
-        <v>-27</v>
-      </c>
-      <c r="K16" s="2">
-        <v>-37</v>
-      </c>
-      <c r="L16" s="2">
-        <v>6</v>
-      </c>
-      <c r="M16" s="2">
-        <v>-6</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2">
-        <v>-87</v>
-      </c>
-      <c r="N17" s="2">
-        <v>4</v>
-      </c>
-      <c r="O17" s="2">
-        <v>-22</v>
-      </c>
-      <c r="P17" s="2">
-        <v>-105</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>-16</v>
-      </c>
-      <c r="R17" s="2">
-        <v>-35</v>
-      </c>
-      <c r="S17" s="2">
-        <v>-69</v>
-      </c>
-      <c r="T17" s="2">
-        <v>-6</v>
-      </c>
-      <c r="U17" s="2">
-        <v>-126</v>
-      </c>
-      <c r="V17" s="2">
-        <v>-22</v>
-      </c>
-      <c r="W17" s="2">
-        <v>-16</v>
-      </c>
-      <c r="X17" s="2">
-        <v>-34</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>-57</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>-129</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>-61</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>-44</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>-43</v>
-      </c>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2"/>
-      <c r="AP17" s="2"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
-      <c r="AP18" s="2"/>
-      <c r="AQ18" s="2"/>
-      <c r="AR18" s="2"/>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="2">
-        <v>-12047</v>
-      </c>
-      <c r="C19" s="2">
-        <v>465</v>
-      </c>
-      <c r="D19" s="2">
-        <v>-1769</v>
-      </c>
-      <c r="E19" s="2">
-        <v>-3996</v>
-      </c>
-      <c r="F19" s="2">
-        <v>-17347</v>
-      </c>
-      <c r="G19" s="2">
-        <v>-7501</v>
-      </c>
-      <c r="H19" s="2">
-        <v>-26272</v>
-      </c>
-      <c r="I19" s="2">
-        <v>-31523</v>
-      </c>
-      <c r="J19" s="2">
-        <v>-22580</v>
-      </c>
-      <c r="K19" s="2">
-        <v>-87876</v>
-      </c>
-      <c r="L19" s="2">
-        <v>-13676</v>
-      </c>
-      <c r="M19" s="2">
-        <v>-29457</v>
-      </c>
-      <c r="N19" s="2">
-        <v>-26804</v>
-      </c>
-      <c r="O19" s="2">
-        <v>-21039</v>
-      </c>
-      <c r="P19" s="2">
-        <v>-90976</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>-25407</v>
-      </c>
-      <c r="R19" s="2">
-        <v>-20940</v>
-      </c>
-      <c r="S19" s="2">
-        <v>-19116</v>
-      </c>
-      <c r="T19" s="2">
-        <v>-21357</v>
-      </c>
-      <c r="U19" s="2">
-        <v>-86820</v>
-      </c>
-      <c r="V19" s="2">
-        <v>-32249</v>
-      </c>
-      <c r="W19" s="2">
-        <v>-11326</v>
-      </c>
-      <c r="X19" s="2">
-        <v>-29396</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>-20382</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>-93353</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>-28159</v>
-      </c>
-      <c r="AB19" s="2">
-        <v>-28351</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>-27445</v>
-      </c>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="2">
-        <v>-3130</v>
-      </c>
-      <c r="C22" s="2">
-        <v>-3004</v>
-      </c>
-      <c r="D22" s="2">
-        <v>-3365</v>
-      </c>
-      <c r="E22" s="2">
-        <v>22268</v>
-      </c>
-      <c r="F22" s="2">
-        <v>12769</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-3339</v>
-      </c>
-      <c r="H22" s="2">
-        <v>-3190</v>
-      </c>
-      <c r="I22" s="2">
-        <v>-3653</v>
-      </c>
-      <c r="J22" s="2">
-        <v>23894</v>
-      </c>
-      <c r="K22" s="2">
-        <v>13712</v>
-      </c>
-      <c r="L22" s="2">
-        <v>-3568</v>
-      </c>
-      <c r="M22" s="2">
-        <v>-3443</v>
-      </c>
-      <c r="N22" s="2">
-        <v>-3629</v>
-      </c>
-      <c r="O22" s="2">
-        <v>24759</v>
-      </c>
-      <c r="P22" s="2">
-        <v>14119</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>-3539</v>
-      </c>
-      <c r="R22" s="2">
-        <v>-3375</v>
-      </c>
-      <c r="S22" s="2">
-        <v>-3656</v>
-      </c>
-      <c r="T22" s="2">
-        <v>-3511</v>
-      </c>
-      <c r="U22" s="2">
-        <v>-14081</v>
-      </c>
-      <c r="V22" s="2">
-        <v>-3613</v>
-      </c>
-      <c r="W22" s="2">
-        <v>-3447</v>
-      </c>
-      <c r="X22" s="2">
-        <v>-3767</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>-3640</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>-14467</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>-3732</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>-3595</v>
-      </c>
-      <c r="AC22" s="2">
-        <v>-3811</v>
-      </c>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="2"/>
-      <c r="AQ22" s="2"/>
-      <c r="AR22" s="2"/>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23">
-        <f>SUM(B7:B8)</f>
-        <v>-629</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:O23" si="0">SUM(C7:C8)</f>
-        <v>114</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>-857</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>-1319</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>-1038</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>-1076</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="4">
+        <v>136700</v>
+      </c>
+      <c r="C2" s="4">
+        <v>33249</v>
+      </c>
+      <c r="D2" s="4">
+        <v>24846</v>
+      </c>
+      <c r="E2" s="4">
+        <v>116473</v>
+      </c>
+      <c r="F2" s="4">
+        <v>141319</v>
+      </c>
+      <c r="G2" s="4">
+        <v>38032</v>
+      </c>
+      <c r="H2" s="4">
+        <v>29906</v>
+      </c>
+      <c r="I2" s="4">
+        <v>136793</v>
+      </c>
+      <c r="J2" s="4">
+        <v>166699</v>
+      </c>
+      <c r="K2" s="4">
+        <v>31051</v>
+      </c>
+      <c r="L2" s="4">
+        <v>25986</v>
+      </c>
+      <c r="M2" s="4">
+        <v>116395</v>
+      </c>
+      <c r="N2" s="4">
+        <v>142381</v>
+      </c>
+      <c r="O2" s="4">
+        <v>28962</v>
+      </c>
+      <c r="P2" s="4">
+        <v>26418</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>111363</v>
+      </c>
+      <c r="R2" s="4">
+        <v>137781</v>
+      </c>
+      <c r="S2" s="4">
+        <v>47938</v>
+      </c>
+      <c r="T2" s="4">
+        <v>39570</v>
+      </c>
+      <c r="U2" s="4">
+        <v>152403</v>
+      </c>
+      <c r="V2" s="4">
+        <v>191973</v>
+      </c>
+      <c r="W2" s="4">
+        <v>50570</v>
+      </c>
+      <c r="X2" s="4">
+        <v>40665</v>
+      </c>
+      <c r="Y2" s="4"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>-1858</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>-1318</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="0"/>
-        <v>281</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="0"/>
-        <v>-1198</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="0"/>
-        <v>199</v>
-      </c>
-      <c r="P23">
-        <f t="shared" ref="P23:AC23" si="1">SUM(P7:P8)</f>
-        <v>-2036</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="1"/>
-        <v>-1377</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="1"/>
-        <v>241</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="1"/>
-        <v>-1668</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="1"/>
-        <v>-2754</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="1"/>
-        <v>-2861</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="1"/>
-        <v>262</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="1"/>
-        <v>-2695</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="1"/>
-        <v>-157</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="1"/>
-        <v>-5451</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="1"/>
-        <v>-2888</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="1"/>
-        <v>-330</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="1"/>
-        <v>-2697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24">
-        <f>SUM(B10:B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:O24" si="2">SUM(C10:C11)</f>
-        <v>10975</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>7250</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="2"/>
-        <v>6937</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
-        <v>25162</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>6969</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
-        <v>-500</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
-        <v>-6000</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
-        <v>469</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
-        <v>-2500</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="2"/>
-        <v>-3000</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="2"/>
-        <v>3658</v>
-      </c>
-      <c r="P24">
-        <f t="shared" ref="P24:AC24" si="3">SUM(P10:P11)</f>
-        <v>-1842</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="3"/>
-        <v>1210</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="3"/>
-        <v>-4250</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="3"/>
-        <v>1046</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="3"/>
-        <v>5456</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="3"/>
-        <v>3462</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="3"/>
-        <v>-1000</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="3"/>
-        <v>10423</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="3"/>
-        <v>-3000</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="3"/>
-        <v>5220</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="3"/>
-        <v>11643</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="3"/>
-        <v>-3750</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="3"/>
-        <v>-3000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25">
-        <f>SUM(B13:B17)</f>
-        <v>-8288</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ref="C25:O25" si="4">SUM(C13:C17)</f>
-        <v>-7620</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="4"/>
-        <v>-4797</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="4"/>
-        <v>-7716</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="4"/>
-        <v>-28421</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
-        <v>-10093</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="4"/>
-        <v>-22757</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="4"/>
-        <v>-20794</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="4"/>
-        <v>-19131</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="4"/>
-        <v>-72775</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="4"/>
-        <v>-8790</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="4"/>
-        <v>-23795</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="4"/>
-        <v>-16951</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="4"/>
-        <v>-23443</v>
-      </c>
-      <c r="P25">
-        <f t="shared" ref="P25:AC25" si="5">SUM(P13:P17)</f>
-        <v>-72979</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="5"/>
-        <v>-21701</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="5"/>
-        <v>-16112</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="5"/>
-        <v>-17447</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="5"/>
-        <v>-17224</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="5"/>
-        <v>-72484</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="5"/>
-        <v>-24775</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="5"/>
-        <v>-18564</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="5"/>
-        <v>-19934</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="5"/>
-        <v>-21805</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="5"/>
-        <v>-85078</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="5"/>
-        <v>-21539</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="5"/>
-        <v>-20676</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="5"/>
-        <v>-17937</v>
-      </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="2">
-        <v>-12047</v>
-      </c>
-      <c r="C27" s="2">
-        <v>465</v>
-      </c>
-      <c r="D27" s="2">
-        <v>-1769</v>
-      </c>
-      <c r="E27" s="2">
-        <v>-3996</v>
-      </c>
-      <c r="F27" s="2">
-        <v>-17347</v>
-      </c>
-      <c r="G27" s="2">
-        <v>-7501</v>
-      </c>
-      <c r="H27" s="2">
-        <v>-26272</v>
-      </c>
-      <c r="I27" s="2">
-        <v>-31523</v>
-      </c>
-      <c r="J27" s="2">
-        <v>-22580</v>
-      </c>
-      <c r="K27" s="2">
-        <v>-87876</v>
-      </c>
-      <c r="L27" s="2">
-        <v>-13676</v>
-      </c>
-      <c r="M27" s="2">
-        <v>-29457</v>
-      </c>
-      <c r="N27" s="2">
-        <v>-26804</v>
-      </c>
-      <c r="O27" s="2">
-        <v>-21039</v>
-      </c>
-      <c r="P27" s="2">
-        <v>-90976</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>-25407</v>
-      </c>
-      <c r="R27" s="2">
-        <v>-20940</v>
-      </c>
-      <c r="S27" s="2">
-        <v>-19116</v>
-      </c>
-      <c r="T27" s="2">
-        <v>-21357</v>
-      </c>
-      <c r="U27" s="2">
-        <v>-86820</v>
-      </c>
-      <c r="V27" s="2">
-        <v>-32249</v>
-      </c>
-      <c r="W27" s="2">
-        <v>-11326</v>
-      </c>
-      <c r="X27" s="2">
-        <v>-29396</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>-20382</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>-93353</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>-28159</v>
-      </c>
-      <c r="AB27" s="2">
-        <v>-28351</v>
-      </c>
-      <c r="AC27" s="2">
-        <v>-27445</v>
-      </c>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AQ27" s="2"/>
-      <c r="AR27" s="2"/>
+      <c r="B3" s="4">
+        <v>22831</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5844</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5592</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20258</v>
+      </c>
+      <c r="F3" s="4">
+        <v>25850</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5848</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5330</v>
+      </c>
+      <c r="I3" s="4">
+        <v>20154</v>
+      </c>
+      <c r="J3" s="4">
+        <v>25484</v>
+      </c>
+      <c r="K3" s="4">
+        <v>5513</v>
+      </c>
+      <c r="L3" s="4">
+        <v>5820</v>
+      </c>
+      <c r="M3" s="4">
+        <v>19920</v>
+      </c>
+      <c r="N3" s="4">
+        <v>25740</v>
+      </c>
+      <c r="O3" s="4">
+        <v>5351</v>
+      </c>
+      <c r="P3" s="4">
+        <v>7079</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>21543</v>
+      </c>
+      <c r="R3" s="4">
+        <v>28622</v>
+      </c>
+      <c r="S3" s="4">
+        <v>9102</v>
+      </c>
+      <c r="T3" s="4">
+        <v>8235</v>
+      </c>
+      <c r="U3" s="4">
+        <v>26955</v>
+      </c>
+      <c r="V3" s="4">
+        <v>35190</v>
+      </c>
+      <c r="W3" s="4">
+        <v>10435</v>
+      </c>
+      <c r="X3" s="4">
+        <v>7382</v>
+      </c>
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20628</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3889</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4969</v>
+      </c>
+      <c r="E4" s="4">
+        <v>14253</v>
+      </c>
+      <c r="F4" s="4">
+        <v>19222</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4113</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4741</v>
+      </c>
+      <c r="I4" s="4">
+        <v>14064</v>
+      </c>
+      <c r="J4" s="4">
+        <v>18805</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4872</v>
+      </c>
+      <c r="L4" s="4">
+        <v>5023</v>
+      </c>
+      <c r="M4" s="4">
+        <v>16257</v>
+      </c>
+      <c r="N4" s="4">
+        <v>21280</v>
+      </c>
+      <c r="O4" s="4">
+        <v>4368</v>
+      </c>
+      <c r="P4" s="4">
+        <v>6582</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>17142</v>
+      </c>
+      <c r="R4" s="4">
+        <v>23724</v>
+      </c>
+      <c r="S4" s="4">
+        <v>7807</v>
+      </c>
+      <c r="T4" s="4">
+        <v>7368</v>
+      </c>
+      <c r="U4" s="4">
+        <v>24494</v>
+      </c>
+      <c r="V4" s="4">
+        <v>31862</v>
+      </c>
+      <c r="W4" s="4">
+        <v>7646</v>
+      </c>
+      <c r="X4" s="4">
+        <v>7224</v>
+      </c>
+      <c r="Y4" s="4"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>5129</v>
+      </c>
+      <c r="J5" s="4">
+        <v>5525</v>
+      </c>
+      <c r="K5" s="4">
+        <v>18957</v>
+      </c>
+      <c r="L5" s="4">
+        <v>24482</v>
+      </c>
+      <c r="M5" s="4">
+        <v>6284</v>
+      </c>
+      <c r="N5" s="4">
+        <v>6450</v>
+      </c>
+      <c r="O5" s="4">
+        <v>24170</v>
+      </c>
+      <c r="P5" s="4">
+        <v>30620</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>7836</v>
+      </c>
+      <c r="R5" s="4">
+        <v>8775</v>
+      </c>
+      <c r="S5" s="4">
+        <v>29592</v>
+      </c>
+      <c r="T5" s="4">
+        <v>38367</v>
+      </c>
+      <c r="U5" s="4">
+        <v>8806</v>
+      </c>
+      <c r="V5" s="4">
+        <v>8084</v>
+      </c>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="4">
+        <v>24348</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7041</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7266</v>
+      </c>
+      <c r="E6" s="4">
+        <v>22714</v>
+      </c>
+      <c r="F6" s="4">
+        <v>29980</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9190</v>
+      </c>
+      <c r="H6" s="4">
+        <v>9548</v>
+      </c>
+      <c r="I6" s="4">
+        <v>27642</v>
+      </c>
+      <c r="J6" s="4">
+        <v>37190</v>
+      </c>
+      <c r="K6" s="4">
+        <v>11450</v>
+      </c>
+      <c r="L6" s="4">
+        <v>11455</v>
+      </c>
+      <c r="M6" s="4">
+        <v>34836</v>
+      </c>
+      <c r="N6" s="4">
+        <v>46291</v>
+      </c>
+      <c r="O6" s="4">
+        <v>13348</v>
+      </c>
+      <c r="P6" s="4">
+        <v>13156</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>40612</v>
+      </c>
+      <c r="R6" s="4">
+        <v>53768</v>
+      </c>
+      <c r="S6" s="4">
+        <v>16901</v>
+      </c>
+      <c r="T6" s="4">
+        <v>17486</v>
+      </c>
+      <c r="U6" s="4">
+        <v>50939</v>
+      </c>
+      <c r="V6" s="4">
+        <v>68425</v>
+      </c>
+      <c r="W6" s="4">
+        <v>19821</v>
+      </c>
+      <c r="X6" s="4">
+        <v>19604</v>
+      </c>
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="4">
+        <v>215639</v>
+      </c>
+      <c r="C7" s="4">
+        <v>52896</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45408</v>
+      </c>
+      <c r="E7" s="4">
+        <v>183826</v>
+      </c>
+      <c r="F7" s="4">
+        <v>229234</v>
+      </c>
+      <c r="G7" s="4">
+        <v>61137</v>
+      </c>
+      <c r="H7" s="4">
+        <v>53265</v>
+      </c>
+      <c r="I7" s="4">
+        <v>212330</v>
+      </c>
+      <c r="J7" s="4">
+        <v>265595</v>
+      </c>
+      <c r="K7" s="4">
+        <v>58015</v>
+      </c>
+      <c r="L7" s="4">
+        <v>53809</v>
+      </c>
+      <c r="M7" s="4">
+        <v>206365</v>
+      </c>
+      <c r="N7" s="4">
+        <v>260174</v>
+      </c>
+      <c r="O7" s="4">
+        <v>58313</v>
+      </c>
+      <c r="P7" s="4">
+        <v>59685</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>214830</v>
+      </c>
+      <c r="R7" s="4">
+        <v>274515</v>
+      </c>
+      <c r="S7" s="4">
+        <v>89584</v>
+      </c>
+      <c r="T7" s="4">
+        <v>81434</v>
+      </c>
+      <c r="U7" s="4">
+        <v>284383</v>
+      </c>
+      <c r="V7" s="4">
+        <v>365817</v>
+      </c>
+      <c r="W7" s="4">
+        <v>97278</v>
+      </c>
+      <c r="X7" s="4">
+        <v>82959</v>
+      </c>
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="4">
+        <v>11132</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2873</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2735</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10128</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12863</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3954</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3740</v>
+      </c>
+      <c r="I8" s="4">
+        <v>13677</v>
+      </c>
+      <c r="J8" s="4">
+        <v>17417</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="2">
+        <v>48175</v>
+      </c>
+      <c r="C12" s="2">
+        <v>32305</v>
+      </c>
+      <c r="D12" s="2">
+        <v>27920</v>
+      </c>
+      <c r="E12" s="2">
+        <v>113128</v>
+      </c>
+      <c r="F12" s="2">
+        <v>141048</v>
+      </c>
+      <c r="G12" s="2">
+        <v>54381</v>
+      </c>
+      <c r="H12" s="2">
+        <v>37715</v>
+      </c>
+      <c r="I12" s="2">
+        <v>32844</v>
+      </c>
+      <c r="J12" s="2">
+        <v>130912</v>
+      </c>
+      <c r="K12" s="2">
+        <v>163756</v>
+      </c>
+      <c r="L12" s="2">
+        <v>52279</v>
+      </c>
+      <c r="M12" s="2">
+        <v>36194</v>
+      </c>
+      <c r="N12" s="2">
+        <v>33582</v>
+      </c>
+      <c r="O12" s="2">
+        <v>128200</v>
+      </c>
+      <c r="P12" s="2">
+        <v>161782</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>56602</v>
+      </c>
+      <c r="R12" s="2">
+        <v>35943</v>
+      </c>
+      <c r="S12" s="2">
+        <v>37005</v>
+      </c>
+      <c r="T12" s="2">
+        <v>132554</v>
+      </c>
+      <c r="U12" s="2">
+        <v>169559</v>
+      </c>
+      <c r="V12" s="2">
+        <v>67111</v>
+      </c>
+      <c r="W12" s="2">
+        <v>51505</v>
+      </c>
+      <c r="X12" s="2">
+        <v>46179</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>166802</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>212981</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>69702</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>54719</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>47074</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4324,6 +3373,1342 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69B4165-121E-654F-8D43-3A620B4D69B3}">
+  <dimension ref="A4:AC31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>-3130</v>
+      </c>
+      <c r="C4">
+        <v>-3004</v>
+      </c>
+      <c r="D4">
+        <v>-3365</v>
+      </c>
+      <c r="E4">
+        <v>-3270</v>
+      </c>
+      <c r="F4">
+        <v>-12769</v>
+      </c>
+      <c r="G4">
+        <v>-3339</v>
+      </c>
+      <c r="H4">
+        <v>-3190</v>
+      </c>
+      <c r="I4">
+        <v>-3653</v>
+      </c>
+      <c r="J4">
+        <v>-3530</v>
+      </c>
+      <c r="K4">
+        <v>-13712</v>
+      </c>
+      <c r="L4">
+        <v>-3568</v>
+      </c>
+      <c r="M4">
+        <v>-3443</v>
+      </c>
+      <c r="N4">
+        <v>-3629</v>
+      </c>
+      <c r="O4">
+        <v>-3479</v>
+      </c>
+      <c r="P4">
+        <v>-14119</v>
+      </c>
+      <c r="Q4">
+        <v>-3539</v>
+      </c>
+      <c r="R4">
+        <v>-3375</v>
+      </c>
+      <c r="S4">
+        <v>-3656</v>
+      </c>
+      <c r="T4">
+        <v>-3511</v>
+      </c>
+      <c r="U4">
+        <v>-14081</v>
+      </c>
+      <c r="V4">
+        <v>-3613</v>
+      </c>
+      <c r="W4">
+        <v>-3447</v>
+      </c>
+      <c r="X4">
+        <v>-3767</v>
+      </c>
+      <c r="Y4">
+        <v>-3640</v>
+      </c>
+      <c r="Z4">
+        <v>-14467</v>
+      </c>
+      <c r="AA4">
+        <v>-3732</v>
+      </c>
+      <c r="AB4">
+        <v>-3595</v>
+      </c>
+      <c r="AC4">
+        <v>-3811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>-629</v>
+      </c>
+      <c r="C6">
+        <v>-159</v>
+      </c>
+      <c r="D6">
+        <v>-858</v>
+      </c>
+      <c r="E6">
+        <v>-228</v>
+      </c>
+      <c r="F6">
+        <v>-1874</v>
+      </c>
+      <c r="G6">
+        <v>-1038</v>
+      </c>
+      <c r="H6">
+        <v>-152</v>
+      </c>
+      <c r="I6">
+        <v>-1077</v>
+      </c>
+      <c r="J6">
+        <v>-260</v>
+      </c>
+      <c r="K6">
+        <v>-2527</v>
+      </c>
+      <c r="L6">
+        <v>-1318</v>
+      </c>
+      <c r="M6">
+        <v>-109</v>
+      </c>
+      <c r="N6">
+        <v>-1199</v>
+      </c>
+      <c r="O6">
+        <v>-191</v>
+      </c>
+      <c r="P6">
+        <v>-2817</v>
+      </c>
+      <c r="Q6">
+        <v>-1379</v>
+      </c>
+      <c r="R6">
+        <v>-187</v>
+      </c>
+      <c r="S6">
+        <v>-1668</v>
+      </c>
+      <c r="T6">
+        <v>-400</v>
+      </c>
+      <c r="U6">
+        <v>-3634</v>
+      </c>
+      <c r="V6">
+        <v>-2861</v>
+      </c>
+      <c r="W6">
+        <v>-299</v>
+      </c>
+      <c r="X6">
+        <v>-2695</v>
+      </c>
+      <c r="Y6">
+        <v>-701</v>
+      </c>
+      <c r="Z6">
+        <v>-6556</v>
+      </c>
+      <c r="AA6">
+        <v>-2888</v>
+      </c>
+      <c r="AB6">
+        <v>-330</v>
+      </c>
+      <c r="AC6">
+        <v>-2697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>273</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>281</v>
+      </c>
+      <c r="F7">
+        <v>555</v>
+      </c>
+      <c r="H7">
+        <v>327</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>341</v>
+      </c>
+      <c r="K7">
+        <v>669</v>
+      </c>
+      <c r="M7">
+        <v>390</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>390</v>
+      </c>
+      <c r="P7">
+        <v>781</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>428</v>
+      </c>
+      <c r="T7">
+        <v>450</v>
+      </c>
+      <c r="U7">
+        <v>880</v>
+      </c>
+      <c r="W7">
+        <v>561</v>
+      </c>
+      <c r="Y7">
+        <v>544</v>
+      </c>
+      <c r="Z7">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>178</v>
+      </c>
+      <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>309</v>
+      </c>
+      <c r="E8">
+        <v>93</v>
+      </c>
+      <c r="F8">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>-10851</v>
+      </c>
+      <c r="C9">
+        <v>-7161</v>
+      </c>
+      <c r="D9">
+        <v>-7093</v>
+      </c>
+      <c r="E9">
+        <v>-7795</v>
+      </c>
+      <c r="F9">
+        <v>-32900</v>
+      </c>
+      <c r="G9">
+        <v>-10095</v>
+      </c>
+      <c r="H9">
+        <v>-22756</v>
+      </c>
+      <c r="I9">
+        <v>-20783</v>
+      </c>
+      <c r="J9">
+        <v>-19104</v>
+      </c>
+      <c r="K9">
+        <v>-72738</v>
+      </c>
+      <c r="L9">
+        <v>-8796</v>
+      </c>
+      <c r="M9">
+        <v>-23702</v>
+      </c>
+      <c r="N9">
+        <v>-16955</v>
+      </c>
+      <c r="O9">
+        <v>-17444</v>
+      </c>
+      <c r="P9">
+        <v>-66897</v>
+      </c>
+      <c r="Q9">
+        <v>-20706</v>
+      </c>
+      <c r="R9">
+        <v>-18574</v>
+      </c>
+      <c r="S9">
+        <v>-15891</v>
+      </c>
+      <c r="T9">
+        <v>-17187</v>
+      </c>
+      <c r="U9">
+        <v>-72358</v>
+      </c>
+      <c r="V9">
+        <v>-24775</v>
+      </c>
+      <c r="W9">
+        <v>-18548</v>
+      </c>
+      <c r="X9">
+        <v>-22900</v>
+      </c>
+      <c r="Y9">
+        <v>-19748</v>
+      </c>
+      <c r="Z9">
+        <v>-85971</v>
+      </c>
+      <c r="AA9">
+        <v>-20478</v>
+      </c>
+      <c r="AB9">
+        <v>-22631</v>
+      </c>
+      <c r="AC9">
+        <v>-21865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>10975</v>
+      </c>
+      <c r="D12">
+        <v>10750</v>
+      </c>
+      <c r="E12">
+        <v>6937</v>
+      </c>
+      <c r="F12">
+        <v>28662</v>
+      </c>
+      <c r="G12">
+        <v>6969</v>
+      </c>
+      <c r="K12">
+        <v>6969</v>
+      </c>
+      <c r="O12">
+        <v>6963</v>
+      </c>
+      <c r="P12">
+        <v>6963</v>
+      </c>
+      <c r="Q12">
+        <v>2210</v>
+      </c>
+      <c r="S12">
+        <v>8425</v>
+      </c>
+      <c r="T12">
+        <v>5456</v>
+      </c>
+      <c r="U12">
+        <v>16091</v>
+      </c>
+      <c r="W12">
+        <v>13923</v>
+      </c>
+      <c r="Y12">
+        <v>6470</v>
+      </c>
+      <c r="Z12">
+        <v>20393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>-3500</v>
+      </c>
+      <c r="F13">
+        <v>-3500</v>
+      </c>
+      <c r="H13">
+        <v>-500</v>
+      </c>
+      <c r="I13">
+        <v>-6000</v>
+      </c>
+      <c r="K13">
+        <v>-6500</v>
+      </c>
+      <c r="M13">
+        <v>-2500</v>
+      </c>
+      <c r="N13">
+        <v>-3000</v>
+      </c>
+      <c r="O13">
+        <v>-3305</v>
+      </c>
+      <c r="P13">
+        <v>-8805</v>
+      </c>
+      <c r="Q13">
+        <v>-1000</v>
+      </c>
+      <c r="R13">
+        <v>-4250</v>
+      </c>
+      <c r="S13">
+        <v>-7379</v>
+      </c>
+      <c r="U13">
+        <v>-12629</v>
+      </c>
+      <c r="V13">
+        <v>-1000</v>
+      </c>
+      <c r="W13">
+        <v>-3500</v>
+      </c>
+      <c r="X13">
+        <v>-3000</v>
+      </c>
+      <c r="Y13">
+        <v>-1250</v>
+      </c>
+      <c r="Z13">
+        <v>-8750</v>
+      </c>
+      <c r="AB13">
+        <v>-3750</v>
+      </c>
+      <c r="AC13">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16">
+        <v>-5977</v>
+      </c>
+      <c r="P16">
+        <v>-5977</v>
+      </c>
+      <c r="Q16">
+        <v>-979</v>
+      </c>
+      <c r="R16">
+        <v>2497</v>
+      </c>
+      <c r="S16">
+        <v>-1487</v>
+      </c>
+      <c r="T16">
+        <v>-31</v>
+      </c>
+      <c r="V16">
+        <v>22</v>
+      </c>
+      <c r="X16">
+        <v>3000</v>
+      </c>
+      <c r="Y16">
+        <v>-2000</v>
+      </c>
+      <c r="Z16">
+        <v>1022</v>
+      </c>
+      <c r="AA16">
+        <v>-1000</v>
+      </c>
+      <c r="AB16">
+        <v>1999</v>
+      </c>
+      <c r="AC16">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>2385</v>
+      </c>
+      <c r="C17">
+        <v>-506</v>
+      </c>
+      <c r="D17">
+        <v>1987</v>
+      </c>
+      <c r="E17">
+        <v>-14</v>
+      </c>
+      <c r="F17">
+        <v>3852</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <v>-11</v>
+      </c>
+      <c r="J17">
+        <v>-27</v>
+      </c>
+      <c r="K17">
+        <v>-37</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>-87</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>-22</v>
+      </c>
+      <c r="P18">
+        <v>-105</v>
+      </c>
+      <c r="Q18">
+        <v>-16</v>
+      </c>
+      <c r="R18">
+        <v>-35</v>
+      </c>
+      <c r="S18">
+        <v>-69</v>
+      </c>
+      <c r="T18">
+        <v>-6</v>
+      </c>
+      <c r="U18">
+        <v>-126</v>
+      </c>
+      <c r="V18">
+        <v>-22</v>
+      </c>
+      <c r="W18">
+        <v>-16</v>
+      </c>
+      <c r="X18">
+        <v>-34</v>
+      </c>
+      <c r="Y18">
+        <v>-57</v>
+      </c>
+      <c r="Z18">
+        <v>-129</v>
+      </c>
+      <c r="AA18">
+        <v>-61</v>
+      </c>
+      <c r="AB18">
+        <v>-44</v>
+      </c>
+      <c r="AC18">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R19">
+        <v>2556</v>
+      </c>
+      <c r="S19">
+        <v>-2556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="S20">
+        <v>5165</v>
+      </c>
+      <c r="T20">
+        <v>-5165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21">
+        <v>-2026</v>
+      </c>
+      <c r="O21">
+        <v>2026</v>
+      </c>
+      <c r="T21">
+        <v>-963</v>
+      </c>
+      <c r="U21">
+        <v>-963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>-12047</v>
+      </c>
+      <c r="C23">
+        <v>465</v>
+      </c>
+      <c r="D23">
+        <v>-1769</v>
+      </c>
+      <c r="E23">
+        <v>-3996</v>
+      </c>
+      <c r="F23">
+        <v>-17347</v>
+      </c>
+      <c r="G23">
+        <v>-7501</v>
+      </c>
+      <c r="H23">
+        <v>-26272</v>
+      </c>
+      <c r="I23">
+        <v>-31523</v>
+      </c>
+      <c r="J23">
+        <v>-22580</v>
+      </c>
+      <c r="K23">
+        <v>-87876</v>
+      </c>
+      <c r="L23">
+        <v>-13676</v>
+      </c>
+      <c r="M23">
+        <v>-29457</v>
+      </c>
+      <c r="N23">
+        <v>-26804</v>
+      </c>
+      <c r="O23">
+        <v>-21039</v>
+      </c>
+      <c r="P23">
+        <v>-90976</v>
+      </c>
+      <c r="Q23">
+        <v>-25407</v>
+      </c>
+      <c r="R23">
+        <v>-20940</v>
+      </c>
+      <c r="S23">
+        <v>-19116</v>
+      </c>
+      <c r="T23">
+        <v>-21357</v>
+      </c>
+      <c r="U23">
+        <v>-86820</v>
+      </c>
+      <c r="V23">
+        <v>-32249</v>
+      </c>
+      <c r="W23">
+        <v>-11326</v>
+      </c>
+      <c r="X23">
+        <v>-29396</v>
+      </c>
+      <c r="Y23">
+        <v>-20382</v>
+      </c>
+      <c r="Z23">
+        <v>-93353</v>
+      </c>
+      <c r="AA23">
+        <v>-28159</v>
+      </c>
+      <c r="AB23">
+        <v>-28351</v>
+      </c>
+      <c r="AC23">
+        <v>-27445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <f>B4</f>
+        <v>-3130</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:O26" si="0">C4</f>
+        <v>-3004</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-3365</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>-3270</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-12769</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>-3339</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>-3190</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>-3653</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>-3530</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>-13712</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>-3568</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>-3443</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>-3629</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>-3479</v>
+      </c>
+      <c r="P26">
+        <f>P4</f>
+        <v>-14119</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:AC26" si="1">Q4</f>
+        <v>-3539</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>-3375</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>-3656</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>-3511</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>-14081</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>-3613</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="1"/>
+        <v>-3447</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="1"/>
+        <v>-3767</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="1"/>
+        <v>-3640</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="1"/>
+        <v>-14467</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="1"/>
+        <v>-3732</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="1"/>
+        <v>-3595</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="1"/>
+        <v>-3811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <f>SUM(B6:B9)</f>
+        <v>-11302</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:O27" si="2">SUM(C6:C9)</f>
+        <v>-7000</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>-7641</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>-7649</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>-33592</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>-11133</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>-22581</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>-21859</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>-19023</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>-74596</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>-10114</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>-23421</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>-18153</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>-17245</v>
+      </c>
+      <c r="P27">
+        <f>SUM(P6:P9)</f>
+        <v>-68933</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ref="Q27:AC27" si="3">SUM(Q6:Q9)</f>
+        <v>-22083</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>-18333</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>-17559</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>-17137</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="3"/>
+        <v>-75112</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="3"/>
+        <v>-27636</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="3"/>
+        <v>-18286</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="3"/>
+        <v>-25595</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="3"/>
+        <v>-19905</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="3"/>
+        <v>-91422</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="3"/>
+        <v>-23366</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="3"/>
+        <v>-22961</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="3"/>
+        <v>-24562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <f>SUM(B12:B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:O28" si="4">SUM(C12:C13)</f>
+        <v>10975</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>7250</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>6937</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>25162</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>6969</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>-500</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>-6000</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>469</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>-2500</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>-3000</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>3658</v>
+      </c>
+      <c r="P28">
+        <f>SUM(P12:P13)</f>
+        <v>-1842</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ref="Q28:AC28" si="5">SUM(Q12:Q13)</f>
+        <v>1210</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="5"/>
+        <v>-4250</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="5"/>
+        <v>1046</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="5"/>
+        <v>5456</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="5"/>
+        <v>3462</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="5"/>
+        <v>-1000</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="5"/>
+        <v>10423</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="5"/>
+        <v>-3000</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="5"/>
+        <v>5220</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="5"/>
+        <v>11643</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="5"/>
+        <v>-3750</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="5"/>
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B16:B21)</f>
+        <v>2385</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:O29" si="6">SUM(C16:C21)</f>
+        <v>-506</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="6"/>
+        <v>1987</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>-14</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="6"/>
+        <v>3852</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>-11</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>-27</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>-37</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>-93</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>-2022</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="6"/>
+        <v>-3973</v>
+      </c>
+      <c r="P29">
+        <f>SUM(P16:P21)</f>
+        <v>-6082</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ref="Q29:AC29" si="7">SUM(Q16:Q21)</f>
+        <v>-995</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="7"/>
+        <v>5018</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="7"/>
+        <v>1053</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="7"/>
+        <v>-6165</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="7"/>
+        <v>-1089</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="7"/>
+        <v>-16</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="7"/>
+        <v>2966</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="7"/>
+        <v>-2057</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="7"/>
+        <v>893</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="7"/>
+        <v>-1061</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="7"/>
+        <v>1955</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="7"/>
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <f>SUM(B26:B29)</f>
+        <v>-12047</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:O31" si="8">SUM(C26:C29)</f>
+        <v>465</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="8"/>
+        <v>-1769</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="8"/>
+        <v>-3996</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="8"/>
+        <v>-17347</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="8"/>
+        <v>-7501</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="8"/>
+        <v>-26272</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="8"/>
+        <v>-31523</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="8"/>
+        <v>-22580</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="8"/>
+        <v>-87876</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="8"/>
+        <v>-13676</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="8"/>
+        <v>-29457</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="8"/>
+        <v>-26804</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>-21039</v>
+      </c>
+      <c r="P31">
+        <f>SUM(P26:P29)</f>
+        <v>-90976</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31:AC31" si="9">SUM(Q26:Q29)</f>
+        <v>-25407</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="9"/>
+        <v>-20940</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="9"/>
+        <v>-19116</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="9"/>
+        <v>-21357</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="9"/>
+        <v>-86820</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="9"/>
+        <v>-32249</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="9"/>
+        <v>-11326</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="9"/>
+        <v>-29396</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="9"/>
+        <v>-20382</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="9"/>
+        <v>-93353</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="9"/>
+        <v>-28159</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="9"/>
+        <v>-28351</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="9"/>
+        <v>-27445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1181C3F2-4096-B043-BB23-1F0DFF9CC014}">
   <dimension ref="A2:AR23"/>
   <sheetViews>
@@ -5061,7 +5446,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>-19122</v>
@@ -5150,7 +5535,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>-3334</v>
@@ -5239,118 +5624,118 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <f>SUM(B5:B6)</f>
+        <f t="shared" ref="B22:AC22" si="0">SUM(B5:B6)</f>
         <v>-17</v>
       </c>
       <c r="C22">
-        <f>SUM(C5:C6)</f>
+        <f t="shared" si="0"/>
         <v>-50</v>
       </c>
       <c r="D22">
-        <f>SUM(D5:D6)</f>
+        <f t="shared" si="0"/>
         <v>-181</v>
       </c>
       <c r="E22">
-        <f>SUM(E5:E6)</f>
+        <f t="shared" si="0"/>
         <v>-81</v>
       </c>
       <c r="F22">
-        <f>SUM(F5:F6)</f>
+        <f t="shared" si="0"/>
         <v>-329</v>
       </c>
       <c r="G22">
-        <f>SUM(G5:G6)</f>
+        <f t="shared" si="0"/>
         <v>-173</v>
       </c>
       <c r="H22">
-        <f>SUM(H5:H6)</f>
+        <f t="shared" si="0"/>
         <v>-132</v>
       </c>
       <c r="I22">
-        <f>SUM(I5:I6)</f>
+        <f t="shared" si="0"/>
         <v>-126</v>
       </c>
       <c r="J22">
-        <f>SUM(J5:J6)</f>
+        <f t="shared" si="0"/>
         <v>-290</v>
       </c>
       <c r="K22">
-        <f>SUM(K5:K6)</f>
+        <f t="shared" si="0"/>
         <v>-721</v>
       </c>
       <c r="L22">
-        <f>SUM(L5:L6)</f>
+        <f t="shared" si="0"/>
         <v>-167</v>
       </c>
       <c r="M22">
-        <f>SUM(M5:M6)</f>
+        <f t="shared" si="0"/>
         <v>-124</v>
       </c>
       <c r="N22">
-        <f>SUM(N5:N6)</f>
+        <f t="shared" si="0"/>
         <v>-320</v>
       </c>
       <c r="O22">
-        <f>SUM(O5:O6)</f>
+        <f t="shared" si="0"/>
         <v>-13</v>
       </c>
       <c r="P22">
-        <f>SUM(P5:P6)</f>
+        <f t="shared" si="0"/>
         <v>-624</v>
       </c>
       <c r="Q22">
-        <f>SUM(Q5:Q6)</f>
+        <f t="shared" si="0"/>
         <v>-958</v>
       </c>
       <c r="R22">
-        <f>SUM(R5:R6)</f>
+        <f t="shared" si="0"/>
         <v>-176</v>
       </c>
       <c r="S22">
-        <f>SUM(S5:S6)</f>
+        <f t="shared" si="0"/>
         <v>-339</v>
       </c>
       <c r="T22">
-        <f>SUM(T5:T6)</f>
+        <f t="shared" si="0"/>
         <v>-51</v>
       </c>
       <c r="U22">
-        <f>SUM(U5:U6)</f>
+        <f t="shared" si="0"/>
         <v>-1524</v>
       </c>
       <c r="V22">
-        <f>SUM(V5:V6)</f>
+        <f t="shared" si="0"/>
         <v>-9</v>
       </c>
       <c r="W22">
-        <f>SUM(W5:W6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X22">
-        <f>SUM(X5:X6)</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="Y22">
-        <f>SUM(Y5:Y6)</f>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
       <c r="Z22">
-        <f>SUM(Z5:Z6)</f>
+        <f t="shared" si="0"/>
         <v>-33</v>
       </c>
       <c r="AA22">
-        <f>SUM(AA5:AA6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB22">
-        <f>SUM(AB5:AB6)</f>
+        <f t="shared" si="0"/>
         <v>-167</v>
       </c>
       <c r="AC22">
-        <f>SUM(AC5:AC6)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -5359,115 +5744,115 @@
         <v>9</v>
       </c>
       <c r="B23">
-        <f>SUM(B8:B16)</f>
+        <f t="shared" ref="B23:AC23" si="1">SUM(B8:B16)</f>
         <v>-15771</v>
       </c>
       <c r="C23">
-        <f>SUM(C8:C16)</f>
+        <f t="shared" si="1"/>
         <v>-11177</v>
       </c>
       <c r="D23">
-        <f>SUM(D8:D16)</f>
+        <f t="shared" si="1"/>
         <v>-722</v>
       </c>
       <c r="E23">
-        <f>SUM(E8:E16)</f>
+        <f t="shared" si="1"/>
         <v>-5996</v>
       </c>
       <c r="F23">
-        <f>SUM(F8:F16)</f>
+        <f t="shared" si="1"/>
         <v>-33666</v>
       </c>
       <c r="G23">
-        <f>SUM(G8:G16)</f>
+        <f t="shared" si="1"/>
         <v>-10607</v>
       </c>
       <c r="H23">
-        <f>SUM(H8:H16)</f>
+        <f t="shared" si="1"/>
         <v>33037</v>
       </c>
       <c r="I23">
-        <f>SUM(I8:I16)</f>
+        <f t="shared" si="1"/>
         <v>7340</v>
       </c>
       <c r="J23">
-        <f>SUM(J8:J16)</f>
+        <f t="shared" si="1"/>
         <v>330</v>
       </c>
       <c r="K23">
-        <f>SUM(K8:K16)</f>
+        <f t="shared" si="1"/>
         <v>30100</v>
       </c>
       <c r="L23">
-        <f>SUM(L8:L16)</f>
+        <f t="shared" si="1"/>
         <v>9366</v>
       </c>
       <c r="M23">
-        <f>SUM(M8:M16)</f>
+        <f t="shared" si="1"/>
         <v>15835</v>
       </c>
       <c r="N23">
-        <f>SUM(N8:N16)</f>
+        <f t="shared" si="1"/>
         <v>29822</v>
       </c>
       <c r="O23">
-        <f>SUM(O8:O16)</f>
+        <f t="shared" si="1"/>
         <v>1992</v>
       </c>
       <c r="P23">
-        <f>SUM(P8:P16)</f>
+        <f t="shared" si="1"/>
         <v>57015</v>
       </c>
       <c r="Q23">
-        <f>SUM(Q8:Q16)</f>
+        <f t="shared" si="1"/>
         <v>-10603</v>
       </c>
       <c r="R23">
-        <f>SUM(R8:R16)</f>
+        <f t="shared" si="1"/>
         <v>11042</v>
       </c>
       <c r="S23">
-        <f>SUM(S8:S16)</f>
+        <f t="shared" si="1"/>
         <v>-3261</v>
       </c>
       <c r="T23">
-        <f>SUM(T8:T16)</f>
+        <f t="shared" si="1"/>
         <v>7366</v>
       </c>
       <c r="U23">
-        <f>SUM(U8:U16)</f>
+        <f t="shared" si="1"/>
         <v>4544</v>
       </c>
       <c r="V23">
-        <f>SUM(V8:V16)</f>
+        <f t="shared" si="1"/>
         <v>-5075</v>
       </c>
       <c r="W23">
-        <f>SUM(W8:W16)</f>
+        <f t="shared" si="1"/>
         <v>-8099</v>
       </c>
       <c r="X23">
-        <f>SUM(X8:X16)</f>
+        <f t="shared" si="1"/>
         <v>5669</v>
       </c>
       <c r="Y23">
-        <f>SUM(Y8:Y16)</f>
+        <f t="shared" si="1"/>
         <v>4078</v>
       </c>
       <c r="Z23">
-        <f>SUM(Z8:Z16)</f>
+        <f t="shared" si="1"/>
         <v>-3427</v>
       </c>
       <c r="AA23">
-        <f>SUM(AA8:AA16)</f>
+        <f t="shared" si="1"/>
         <v>-13303</v>
       </c>
       <c r="AB23">
-        <f>SUM(AB8:AB16)</f>
+        <f t="shared" si="1"/>
         <v>-6584</v>
       </c>
       <c r="AC23">
-        <f>SUM(AC8:AC16)</f>
+        <f t="shared" si="1"/>
         <v>6338</v>
       </c>
     </row>
@@ -5479,7 +5864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C498A421-4AF8-E44C-A349-483ABBEC5908}">
   <dimension ref="A3:AC9"/>
   <sheetViews>
@@ -5850,115 +6235,115 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <f>B3+SUM(B5:B7)</f>
+        <f t="shared" ref="B9:AC9" si="0">B3+SUM(B5:B7)</f>
         <v>24885</v>
       </c>
       <c r="C9">
-        <f>C3+SUM(C5:C7)</f>
+        <f t="shared" si="0"/>
         <v>17239</v>
       </c>
       <c r="D9">
-        <f>D3+SUM(D5:D7)</f>
+        <f t="shared" si="0"/>
         <v>14394</v>
       </c>
       <c r="E9">
-        <f>E3+SUM(E5:E7)</f>
+        <f t="shared" si="0"/>
         <v>44593</v>
       </c>
       <c r="F9">
-        <f>F3+SUM(F5:F7)</f>
+        <f t="shared" si="0"/>
         <v>72191</v>
       </c>
       <c r="G9">
-        <f>G3+SUM(G5:G7)</f>
+        <f t="shared" si="0"/>
         <v>26984</v>
       </c>
       <c r="H9">
-        <f>H3+SUM(H5:H7)</f>
+        <f t="shared" si="0"/>
         <v>20083</v>
       </c>
       <c r="I9">
-        <f>I3+SUM(I5:I7)</f>
+        <f t="shared" si="0"/>
         <v>17427</v>
       </c>
       <c r="J9">
-        <f>J3+SUM(J5:J7)</f>
+        <f t="shared" si="0"/>
         <v>53266</v>
       </c>
       <c r="K9">
-        <f>K3+SUM(K5:K7)</f>
+        <f t="shared" si="0"/>
         <v>83873</v>
       </c>
       <c r="L9">
-        <f>L3+SUM(L5:L7)</f>
+        <f t="shared" si="0"/>
         <v>29112</v>
       </c>
       <c r="M9">
-        <f>M3+SUM(M5:M7)</f>
+        <f t="shared" si="0"/>
         <v>20108</v>
       </c>
       <c r="N9">
-        <f>N3+SUM(N5:N7)</f>
+        <f t="shared" si="0"/>
         <v>16076</v>
       </c>
       <c r="O9">
-        <f>O3+SUM(O5:O7)</f>
+        <f t="shared" si="0"/>
         <v>52719</v>
       </c>
       <c r="P9">
-        <f>P3+SUM(P5:P7)</f>
+        <f t="shared" si="0"/>
         <v>86489</v>
       </c>
       <c r="Q9">
-        <f>Q3+SUM(Q5:Q7)</f>
+        <f t="shared" si="0"/>
         <v>30216</v>
       </c>
       <c r="R9">
-        <f>R3+SUM(R5:R7)</f>
+        <f t="shared" si="0"/>
         <v>18065</v>
       </c>
       <c r="S9">
-        <f>S3+SUM(S5:S7)</f>
+        <f t="shared" si="0"/>
         <v>15496</v>
       </c>
       <c r="T9">
-        <f>T3+SUM(T5:T7)</f>
+        <f t="shared" si="0"/>
         <v>50678</v>
       </c>
       <c r="U9">
-        <f>U3+SUM(U5:U7)</f>
+        <f t="shared" si="0"/>
         <v>80970</v>
       </c>
       <c r="V9">
-        <f>V3+SUM(V5:V7)</f>
+        <f t="shared" si="0"/>
         <v>33827</v>
       </c>
       <c r="W9">
-        <f>W3+SUM(W5:W7)</f>
+        <f t="shared" si="0"/>
         <v>35624</v>
       </c>
       <c r="X9">
-        <f>X3+SUM(X5:X7)</f>
+        <f t="shared" si="0"/>
         <v>33379</v>
       </c>
       <c r="Y9">
-        <f>Y3+SUM(Y5:Y7)</f>
+        <f t="shared" si="0"/>
         <v>83591</v>
       </c>
       <c r="Z9">
-        <f>Z3+SUM(Z5:Z7)</f>
+        <f t="shared" si="0"/>
         <v>134036</v>
       </c>
       <c r="AA9">
-        <f>AA3+SUM(AA5:AA7)</f>
+        <f t="shared" si="0"/>
         <v>43093</v>
       </c>
       <c r="AB9">
-        <f>AB3+SUM(AB5:AB7)</f>
+        <f t="shared" si="0"/>
         <v>32688</v>
       </c>
       <c r="AC9">
-        <f>AC3+SUM(AC5:AC7)</f>
+        <f t="shared" si="0"/>
         <v>25701</v>
       </c>
     </row>
@@ -5967,7 +6352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3601F0E0-8B0E-B34A-817A-FDCD2FF6117E}">
   <dimension ref="A3:AC22"/>
   <sheetViews>

--- a/output/Financial Statement AAPL/Analysis Work.xlsx
+++ b/output/Financial Statement AAPL/Analysis Work.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements /output/Financial Statement AAPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061B9EF3-9711-C643-A11D-8753A9AA259B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F639B067-A9C9-004A-B4C8-3118F0DE106A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="19520" windowHeight="15800" xr2:uid="{123E7126-618F-554B-9C59-0DEE9560D86E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26900" windowHeight="15800" activeTab="1" xr2:uid="{123E7126-618F-554B-9C59-0DEE9560D86E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="9" r:id="rId1"/>
-    <sheet name="Debt 10K 2021" sheetId="15" r:id="rId2"/>
-    <sheet name="CashOpx" sheetId="10" r:id="rId3"/>
-    <sheet name="by segment" sheetId="7" r:id="rId4"/>
-    <sheet name="financing" sheetId="6" r:id="rId5"/>
-    <sheet name="investing" sheetId="4" r:id="rId6"/>
-    <sheet name="cashflow from operating" sheetId="2" r:id="rId7"/>
-    <sheet name="calculate up" sheetId="14" r:id="rId8"/>
-    <sheet name="trial 1-ebitda to delta cash" sheetId="1" r:id="rId9"/>
+    <sheet name="analysis" sheetId="16" r:id="rId2"/>
+    <sheet name="Debt 10K 2021" sheetId="15" r:id="rId3"/>
+    <sheet name="CashOpx" sheetId="10" r:id="rId4"/>
+    <sheet name="by segment" sheetId="7" r:id="rId5"/>
+    <sheet name="financing" sheetId="6" r:id="rId6"/>
+    <sheet name="investing" sheetId="4" r:id="rId7"/>
+    <sheet name="cashflow from operating" sheetId="2" r:id="rId8"/>
+    <sheet name="calculate up" sheetId="14" r:id="rId9"/>
+    <sheet name="trial 1-ebitda to delta cash" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="173">
   <si>
     <t>net income</t>
   </si>
@@ -569,10 +570,19 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Stock Price</t>
+    <t>shares</t>
   </si>
   <si>
-    <t>diluted</t>
+    <t>price, $/sh</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>LTV</t>
+  </si>
+  <si>
+    <t>LTM</t>
   </si>
 </sst>
 </file>
@@ -583,7 +593,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -645,6 +655,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -701,7 +717,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -761,6 +777,8 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1092,21 +1110,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02F85C5-892A-5140-9EB7-0209B904B415}">
-  <dimension ref="A1:AR64"/>
+  <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomRight" activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="30" max="30" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>83</v>
@@ -1192,8 +1211,11 @@
       <c r="AC1" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD1" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>71</v>
       </c>
@@ -1281,8 +1303,12 @@
       <c r="AC2" s="5">
         <v>40665</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD2">
+        <f>AC2+AB2+AA2+Y2</f>
+        <v>315266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -1370,8 +1396,12 @@
       <c r="AC3" s="5">
         <v>7382</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD66" si="0">AC3+AB3+AA3+Y3</f>
+        <v>55624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -1459,8 +1489,12 @@
       <c r="AC4" s="5">
         <v>7224</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>46612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -1548,8 +1582,12 @@
       <c r="AC5" s="5">
         <v>8084</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>61183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -1637,8 +1675,12 @@
       <c r="AC6" s="5">
         <v>19604</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>109880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>89</v>
       </c>
@@ -1647,115 +1689,119 @@
         <v>78351</v>
       </c>
       <c r="C7" s="14">
-        <f t="shared" ref="C7:AC7" si="0">SUM(C2:C6)</f>
+        <f t="shared" ref="C7:AC7" si="1">SUM(C2:C6)</f>
         <v>52896</v>
       </c>
       <c r="D7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45408</v>
       </c>
       <c r="E7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>183826</v>
       </c>
       <c r="F7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>229234</v>
       </c>
       <c r="G7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88293</v>
       </c>
       <c r="H7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61137</v>
       </c>
       <c r="I7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53265</v>
       </c>
       <c r="J7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>212330</v>
       </c>
       <c r="K7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>265595</v>
       </c>
       <c r="L7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84310</v>
       </c>
       <c r="M7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58015</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53809</v>
       </c>
       <c r="O7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>206365</v>
       </c>
       <c r="P7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>260174</v>
       </c>
       <c r="Q7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91819</v>
       </c>
       <c r="R7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58313</v>
       </c>
       <c r="S7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59685</v>
       </c>
       <c r="T7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>214830</v>
       </c>
       <c r="U7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>274515</v>
       </c>
       <c r="V7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111439</v>
       </c>
       <c r="W7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89584</v>
       </c>
       <c r="X7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81434</v>
       </c>
       <c r="Y7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>284383</v>
       </c>
       <c r="Z7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>365817</v>
       </c>
       <c r="AA7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>123945</v>
       </c>
       <c r="AB7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97278</v>
       </c>
       <c r="AC7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82959</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="10">
+        <f t="shared" si="0"/>
+        <v>588565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>90</v>
       </c>
@@ -1843,8 +1889,12 @@
       <c r="AC9">
         <v>47074</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>338297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>91</v>
       </c>
@@ -1932,8 +1982,12 @@
       <c r="AC10" s="10">
         <v>35885</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10">
+        <f t="shared" si="0"/>
+        <v>250268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -2021,8 +2075,12 @@
       <c r="AC11">
         <v>9994</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD11">
+        <f t="shared" si="0"/>
+        <v>59592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>119</v>
       </c>
@@ -2031,115 +2089,119 @@
         <v>27167</v>
       </c>
       <c r="C12" s="10">
-        <f t="shared" ref="C12:AC12" si="1">C10+C11</f>
+        <f t="shared" ref="C12:AC12" si="2">C10+C11</f>
         <v>25340</v>
       </c>
       <c r="D12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22394</v>
       </c>
       <c r="E12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90541</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107616</v>
       </c>
       <c r="G12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39561</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28485</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26237</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103129</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123882</v>
       </c>
       <c r="L12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37881</v>
       </c>
       <c r="M12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27565</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26344</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102205</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122114</v>
       </c>
       <c r="Q12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42398</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29383</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29563</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109410</v>
       </c>
       <c r="U12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>133371</v>
       </c>
       <c r="V12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52501</v>
       </c>
       <c r="W12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46366</v>
       </c>
       <c r="X12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43795</v>
       </c>
       <c r="Y12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>147365</v>
       </c>
       <c r="Z12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>185697</v>
       </c>
       <c r="AA12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64054</v>
       </c>
       <c r="AB12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52562</v>
       </c>
       <c r="AC12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45879</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12">
+        <f t="shared" si="0"/>
+        <v>309860</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -2229,8 +2291,12 @@
       <c r="AC16">
         <v>82959</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AD16">
+        <f t="shared" si="0"/>
+        <v>588565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -2318,8 +2384,12 @@
       <c r="AC17">
         <v>47074</v>
       </c>
-    </row>
-    <row r="18" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD17">
+        <f t="shared" si="0"/>
+        <v>338297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>91</v>
       </c>
@@ -2409,8 +2479,12 @@
       <c r="AC18" s="10">
         <v>35885</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AD18" s="10">
+        <f t="shared" si="0"/>
+        <v>250268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -2498,8 +2572,12 @@
       <c r="AC19">
         <v>12809</v>
       </c>
-    </row>
-    <row r="20" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD19">
+        <f t="shared" si="0"/>
+        <v>70902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>102</v>
       </c>
@@ -2508,95 +2586,95 @@
         <v>23359</v>
       </c>
       <c r="C20" s="10">
-        <f t="shared" ref="C20:AC20" si="2">C22-C21</f>
+        <f t="shared" ref="C20:AC20" si="3">C22-C21</f>
         <v>14097</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10768</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50576</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61344</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26274</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15894</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12612</v>
       </c>
       <c r="J20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58286</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70898</v>
       </c>
       <c r="L20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23346</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13415</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11544</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52386</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63930</v>
       </c>
       <c r="Q20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25569</v>
       </c>
       <c r="R20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12853</v>
       </c>
       <c r="S20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13091</v>
       </c>
       <c r="T20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53197</v>
       </c>
       <c r="U20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66288</v>
       </c>
       <c r="V20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33534</v>
       </c>
       <c r="W20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27503</v>
       </c>
       <c r="X20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24126</v>
       </c>
       <c r="Y20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84823</v>
       </c>
       <c r="Z20" s="10">
@@ -2604,19 +2682,23 @@
         <v>108949</v>
       </c>
       <c r="AA20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41488</v>
       </c>
       <c r="AB20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29979</v>
       </c>
       <c r="AC20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23076</v>
       </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AD20" s="10">
+        <f t="shared" si="0"/>
+        <v>179366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -2704,44 +2786,12 @@
       <c r="AC21">
         <v>2805</v>
       </c>
-      <c r="AG21">
-        <v>5319</v>
-      </c>
-      <c r="AH21">
-        <v>7673</v>
-      </c>
-      <c r="AI21">
-        <v>5484</v>
-      </c>
-      <c r="AJ21">
-        <v>8149</v>
-      </c>
-      <c r="AK21">
-        <v>6435</v>
-      </c>
-      <c r="AL21">
-        <v>9368</v>
-      </c>
-      <c r="AM21">
-        <v>5602</v>
-      </c>
-      <c r="AN21">
-        <v>8354</v>
-      </c>
-      <c r="AO21">
-        <v>5463</v>
-      </c>
-      <c r="AP21">
-        <v>8295</v>
-      </c>
-      <c r="AQ21">
-        <v>5434</v>
-      </c>
-      <c r="AR21">
-        <v>8239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD21">
+        <f t="shared" si="0"/>
+        <v>11228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>92</v>
       </c>
@@ -2831,8 +2881,12 @@
       <c r="AC22" s="10">
         <v>25881</v>
       </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AD22" s="10">
+        <f t="shared" si="0"/>
+        <v>190594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -2920,8 +2974,12 @@
       <c r="AC23">
         <v>-10</v>
       </c>
-    </row>
-    <row r="24" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD23">
+        <f t="shared" si="0"/>
+        <v>-82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>119</v>
       </c>
@@ -2934,91 +2992,91 @@
         <v>17016</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" ref="D24:AC24" si="3">D32-SUM(D25:D31)</f>
+        <f t="shared" ref="D24:AC24" si="4">D32-SUM(D25:D31)</f>
         <v>13662</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26345</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74246</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29775</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18907</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15949</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28486</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83806</v>
       </c>
       <c r="L24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27301</v>
       </c>
       <c r="M24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16833</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14844</v>
       </c>
       <c r="O24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25479</v>
       </c>
       <c r="P24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78284</v>
       </c>
       <c r="Q24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28734</v>
       </c>
       <c r="R24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18477</v>
       </c>
       <c r="S24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18498</v>
       </c>
       <c r="T24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18006</v>
       </c>
       <c r="U24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78147</v>
       </c>
       <c r="V24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36245</v>
       </c>
       <c r="W24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30808</v>
       </c>
       <c r="X24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27201</v>
       </c>
       <c r="Y24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35442</v>
       </c>
       <c r="Z24" s="10">
@@ -3026,19 +3084,23 @@
         <v>120491</v>
       </c>
       <c r="AA24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43938</v>
       </c>
       <c r="AB24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32876</v>
       </c>
       <c r="AC24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25871</v>
       </c>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AD24" s="10">
+        <f t="shared" si="0"/>
+        <v>138127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>104</v>
       </c>
@@ -3126,8 +3188,12 @@
       <c r="AC25">
         <v>-3111</v>
       </c>
-    </row>
-    <row r="26" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD25">
+        <f t="shared" si="0"/>
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>124</v>
       </c>
@@ -3215,8 +3281,12 @@
       <c r="AC26" s="13">
         <v>2088</v>
       </c>
-    </row>
-    <row r="27" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD26">
+        <f t="shared" si="0"/>
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>105</v>
       </c>
@@ -3304,8 +3374,12 @@
       <c r="AC27" s="9">
         <v>-2102</v>
       </c>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AD27">
+        <f t="shared" si="0"/>
+        <v>-10642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -3393,8 +3467,12 @@
       <c r="AC28">
         <v>-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AD28">
+        <f t="shared" si="0"/>
+        <v>-189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -3482,8 +3560,12 @@
       <c r="AC29">
         <v>6953</v>
       </c>
-    </row>
-    <row r="30" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD29">
+        <f t="shared" si="0"/>
+        <v>-8014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>123</v>
       </c>
@@ -3571,8 +3653,12 @@
       <c r="AC30" s="9">
         <v>-615</v>
       </c>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AD30">
+        <f t="shared" si="0"/>
+        <v>-1457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>107</v>
       </c>
@@ -3660,8 +3746,12 @@
       <c r="AC31">
         <v>-1956</v>
       </c>
-    </row>
-    <row r="32" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD31">
+        <f t="shared" si="0"/>
+        <v>-28547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>108</v>
       </c>
@@ -3670,115 +3760,119 @@
         <v>7934</v>
       </c>
       <c r="C32" s="10">
-        <f t="shared" ref="C32:AC32" si="4">C37-SUM(C33:C36)</f>
+        <f t="shared" ref="C32:AC32" si="5">C37-SUM(C33:C36)</f>
         <v>-1679</v>
       </c>
       <c r="D32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5183</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5714</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17152</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14703</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43840</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18435</v>
       </c>
       <c r="J32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16522</v>
       </c>
       <c r="K32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93500</v>
       </c>
       <c r="L32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32534</v>
       </c>
       <c r="M32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24503</v>
       </c>
       <c r="N32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39138</v>
       </c>
       <c r="O32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19112</v>
       </c>
       <c r="P32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115287</v>
       </c>
       <c r="Q32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16848</v>
       </c>
       <c r="R32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24880</v>
       </c>
       <c r="S32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13715</v>
       </c>
       <c r="T32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20942</v>
       </c>
       <c r="U32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76385</v>
       </c>
       <c r="V32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30179</v>
       </c>
       <c r="W32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13613</v>
       </c>
       <c r="X32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24666</v>
       </c>
       <c r="Y32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21035</v>
       </c>
       <c r="Z32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89493</v>
       </c>
       <c r="AA32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30860</v>
       </c>
       <c r="AB32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18901</v>
       </c>
       <c r="AC32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27126</v>
       </c>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AD32" s="10">
+        <f t="shared" si="0"/>
+        <v>97922</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -3866,8 +3960,12 @@
       <c r="AC33">
         <v>-3811</v>
       </c>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AD33">
+        <f t="shared" si="0"/>
+        <v>-14778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -3955,8 +4053,12 @@
       <c r="AC34">
         <v>-24562</v>
       </c>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AD34">
+        <f t="shared" si="0"/>
+        <v>-90794</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -4044,97 +4146,105 @@
       <c r="AC35">
         <v>971</v>
       </c>
-    </row>
-    <row r="36" spans="1:44" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="AD35">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="9">
         <v>0</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="9">
         <v>0</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="9">
         <v>0</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="9">
         <v>0</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="9">
         <v>0</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="9">
         <v>0</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="9">
         <v>0</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="9">
         <v>0</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="9">
         <v>0</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="9">
         <v>0</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="9">
         <v>0</v>
       </c>
-      <c r="M36" s="19">
+      <c r="M36" s="9">
         <v>-87</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N36" s="9">
         <v>4</v>
       </c>
-      <c r="O36" s="19">
+      <c r="O36" s="9">
         <v>-22</v>
       </c>
-      <c r="P36" s="19">
+      <c r="P36" s="9">
         <v>-105</v>
       </c>
-      <c r="Q36" s="19">
+      <c r="Q36" s="9">
         <v>-16</v>
       </c>
-      <c r="R36" s="19">
+      <c r="R36" s="9">
         <v>-35</v>
       </c>
-      <c r="S36" s="19">
+      <c r="S36" s="9">
         <v>-69</v>
       </c>
-      <c r="T36" s="19">
+      <c r="T36" s="9">
         <v>-6</v>
       </c>
-      <c r="U36" s="19">
+      <c r="U36" s="9">
         <v>-126</v>
       </c>
-      <c r="V36" s="19">
+      <c r="V36" s="9">
         <v>-22</v>
       </c>
-      <c r="W36" s="19">
+      <c r="W36" s="9">
         <v>-16</v>
       </c>
-      <c r="X36" s="19">
+      <c r="X36" s="9">
         <v>-34</v>
       </c>
-      <c r="Y36" s="19">
+      <c r="Y36" s="9">
         <v>-57</v>
       </c>
-      <c r="Z36" s="19">
+      <c r="Z36" s="9">
         <v>-129</v>
       </c>
-      <c r="AA36" s="19">
+      <c r="AA36" s="9">
         <v>-61</v>
       </c>
-      <c r="AB36" s="19">
+      <c r="AB36" s="9">
         <v>-44</v>
       </c>
-      <c r="AC36" s="19">
+      <c r="AC36" s="9">
         <v>-43</v>
       </c>
-    </row>
-    <row r="37" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD36">
+        <f t="shared" si="0"/>
+        <v>-205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>112</v>
       </c>
@@ -4222,44 +4332,12 @@
       <c r="AC37" s="10">
         <v>-319</v>
       </c>
-      <c r="AG37" s="10">
-        <v>-5327</v>
-      </c>
-      <c r="AH37" s="10">
-        <v>-1913</v>
-      </c>
-      <c r="AI37" s="10">
-        <v>24770</v>
-      </c>
-      <c r="AJ37" s="10">
-        <v>11682</v>
-      </c>
-      <c r="AK37" s="10">
-        <v>13904</v>
-      </c>
-      <c r="AL37" s="10">
-        <v>26238</v>
-      </c>
-      <c r="AM37" s="10">
-        <v>-7175</v>
-      </c>
-      <c r="AN37" s="10">
-        <v>-15185</v>
-      </c>
-      <c r="AO37" s="10">
-        <v>217</v>
-      </c>
-      <c r="AP37" s="10">
-        <v>-4513</v>
-      </c>
-      <c r="AQ37" s="10">
-        <v>-6749</v>
-      </c>
-      <c r="AR37" s="10">
-        <v>-7068</v>
-      </c>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AD37" s="10">
+        <f t="shared" si="0"/>
+        <v>-6415</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -4347,8 +4425,12 @@
       <c r="AC43">
         <v>27502</v>
       </c>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AD43">
+        <f t="shared" si="0"/>
+        <v>127659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>137</v>
       </c>
@@ -4436,8 +4518,12 @@
       <c r="AC44">
         <v>151806</v>
       </c>
-    </row>
-    <row r="46" spans="1:44" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD44">
+        <f t="shared" si="0"/>
+        <v>637491</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>139</v>
       </c>
@@ -4455,8 +4541,9 @@
       <c r="G46" s="20"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
-    </row>
-    <row r="47" spans="1:44" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD46"/>
+    </row>
+    <row r="47" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>140</v>
       </c>
@@ -4477,8 +4564,9 @@
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
-    </row>
-    <row r="48" spans="1:44" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD47"/>
+    </row>
+    <row r="48" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>143</v>
       </c>
@@ -4498,8 +4586,9 @@
       <c r="I48" s="24"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
-    </row>
-    <row r="49" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD48"/>
+    </row>
+    <row r="49" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="29"/>
       <c r="C49" s="31"/>
@@ -4509,8 +4598,9 @@
       <c r="G49" s="20"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
-    </row>
-    <row r="50" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD49"/>
+    </row>
+    <row r="50" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>146</v>
       </c>
@@ -4522,8 +4612,9 @@
       <c r="G50" s="20"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
-    </row>
-    <row r="51" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD50"/>
+    </row>
+    <row r="51" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>147</v>
       </c>
@@ -4544,8 +4635,9 @@
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
-    </row>
-    <row r="52" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD51"/>
+    </row>
+    <row r="52" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="29"/>
       <c r="C52" s="31"/>
@@ -4555,8 +4647,9 @@
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
-    </row>
-    <row r="53" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD52"/>
+    </row>
+    <row r="53" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>150</v>
       </c>
@@ -4568,8 +4661,9 @@
       <c r="G53" s="20"/>
       <c r="H53" s="25"/>
       <c r="I53" s="20"/>
-    </row>
-    <row r="54" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD53"/>
+    </row>
+    <row r="54" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>151</v>
       </c>
@@ -4590,8 +4684,9 @@
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
-    </row>
-    <row r="55" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD54"/>
+    </row>
+    <row r="55" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>154</v>
       </c>
@@ -4608,8 +4703,9 @@
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
-    </row>
-    <row r="56" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD55"/>
+    </row>
+    <row r="56" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20"/>
       <c r="B56" s="29"/>
       <c r="C56" s="30"/>
@@ -4621,8 +4717,9 @@
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
-    </row>
-    <row r="57" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD56"/>
+    </row>
+    <row r="57" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
       <c r="B57" s="29"/>
       <c r="C57" s="30"/>
@@ -4634,10 +4731,11 @@
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD57"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B59">
         <v>5327995</v>
@@ -4723,97 +4821,103 @@
       <c r="AC59">
         <v>16262203</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>168</v>
-      </c>
-      <c r="B60">
+      <c r="AD59">
+        <v>16262203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="36">
         <v>28.219999313354489</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="36">
         <v>42.642501831054688</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="36">
         <v>35.220001220703118</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="36">
         <v>36.455001831054688</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="36">
         <v>37.637500762939453</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="36">
         <v>37.637500762939453</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="36">
         <v>39.292499542236328</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="36">
         <v>43.192501068115227</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="36">
         <v>45.542499542236328</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="36">
         <v>55.197498321533203</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="36">
         <v>55.197498321533203</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="36">
         <v>72.477500915527344</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="36">
         <v>47.185001373291023</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="36">
         <v>49.645000457763672</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="36">
         <v>54.419998168945312</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="36">
         <v>54.419998168945312</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="36">
         <v>136.69000244140619</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="36">
         <v>61.380001068115227</v>
       </c>
-      <c r="T60">
+      <c r="T60" s="36">
         <v>90.014999389648438</v>
       </c>
-      <c r="U60">
+      <c r="U60" s="36">
         <v>108.2200012207031</v>
       </c>
-      <c r="V60">
+      <c r="V60" s="36">
         <v>108.2200012207031</v>
       </c>
-      <c r="W60">
+      <c r="W60" s="36">
         <v>180.33000183105469</v>
       </c>
-      <c r="X60">
+      <c r="X60" s="36">
         <v>120.5899963378906</v>
       </c>
-      <c r="Y60">
+      <c r="Y60" s="36">
         <v>133.4100036621094</v>
       </c>
-      <c r="Z60">
+      <c r="Z60" s="36">
         <v>146.91999816894531</v>
       </c>
-      <c r="AA60">
+      <c r="AA60" s="36">
         <v>146.91999816894531</v>
       </c>
-      <c r="AB60">
+      <c r="AB60" s="36">
         <v>174.7200012207031</v>
       </c>
-      <c r="AC60">
+      <c r="AC60" s="36">
         <v>141.6600036621094</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD60" s="36">
+        <v>141.6600036621094</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="33" t="s">
         <v>166</v>
       </c>
@@ -4901,10 +5005,2600 @@
       <c r="AC62" s="33">
         <v>81207</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="33">
+        <v>81207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A63" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63">
+        <f>B59*B60</f>
+        <v>150356015.24155614</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:AC63" si="6">C59*C60</f>
+        <v>224371540.17443848</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="6"/>
+        <v>184323841.16854855</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="6"/>
+        <v>191450441.47613525</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="6"/>
+        <v>197660561.65672302</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="6"/>
+        <v>194126212.14757919</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="6"/>
+        <v>199153758.88232803</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="6"/>
+        <v>212792564.4946861</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="6"/>
+        <v>227717461.84363174</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="6"/>
+        <v>275993508.13498306</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="6"/>
+        <v>263471569.258255</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="6"/>
+        <v>340691074.76856995</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="6"/>
+        <v>217116121.61903384</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="6"/>
+        <v>230795288.01310349</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="6"/>
+        <v>252993836.94758606</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="6"/>
+        <v>242419541.52337646</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="6"/>
+        <v>602077223.5436399</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="6"/>
+        <v>267296892.09141538</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="6"/>
+        <v>1577802172.5116272</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="6"/>
+        <v>1896903340.4767451</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="6"/>
+        <v>1852043336.2507319</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="6"/>
+        <v>3052834912.8082123</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="6"/>
+        <v>2023709362.1934505</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="6"/>
+        <v>2249948905.5511785</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="6"/>
+        <v>2477793868.599411</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="6"/>
+        <v>2427014203.4722748</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="6"/>
+        <v>2865987391.5435786</v>
+      </c>
+      <c r="AC63">
+        <f>AC59*AC60</f>
+        <v>2303703736.5339665</v>
+      </c>
+      <c r="AD63">
+        <f>AD59*AD60</f>
+        <v>2303703736.5339665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>167</v>
+      </c>
+      <c r="B64">
+        <f>B62+B63</f>
+        <v>150416700.24155614</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64:AD64" si="7">C62+C63</f>
+        <v>224444913.17443848</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="7"/>
+        <v>184401629.16854855</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="7"/>
+        <v>191533855.47613525</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="7"/>
+        <v>197743975.65672302</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="7"/>
+        <v>194209141.14757919</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="7"/>
+        <v>199218559.88232803</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="7"/>
+        <v>212863219.4946861</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="7"/>
+        <v>227794067.84363174</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="7"/>
+        <v>276070114.13498306</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="7"/>
+        <v>263529559.258255</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="7"/>
+        <v>340753792.76856995</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="7"/>
+        <v>217164056.61903384</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="7"/>
+        <v>230848511.01310349</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="7"/>
+        <v>253047059.94758606</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="7"/>
+        <v>242483072.52337646</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="7"/>
+        <v>602136527.5436399</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="7"/>
+        <v>267365066.09141538</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="7"/>
+        <v>1577871596.5116272</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="7"/>
+        <v>1896972764.4767451</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="7"/>
+        <v>1852114369.2507319</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="7"/>
+        <v>3052913091.8082123</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="7"/>
+        <v>2023789103.1934505</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="7"/>
+        <v>2250032684.5511785</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="7"/>
+        <v>2477877647.599411</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="7"/>
+        <v>2427094882.4722748</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="7"/>
+        <v>2866072275.5435786</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="7"/>
+        <v>2303784943.5339665</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="7"/>
+        <v>2303784943.5339665</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93756361-4A88-6C4A-BF49-DE9E443BAE55}">
+  <dimension ref="A1:AR32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>17891</v>
+      </c>
+      <c r="C3">
+        <v>11029</v>
+      </c>
+      <c r="D3">
+        <v>8717</v>
+      </c>
+      <c r="E3">
+        <v>39634</v>
+      </c>
+      <c r="F3">
+        <v>48351</v>
+      </c>
+      <c r="G3">
+        <v>20065</v>
+      </c>
+      <c r="H3">
+        <v>13822</v>
+      </c>
+      <c r="I3">
+        <v>11519</v>
+      </c>
+      <c r="J3">
+        <v>48012</v>
+      </c>
+      <c r="K3">
+        <v>59531</v>
+      </c>
+      <c r="L3">
+        <v>19965</v>
+      </c>
+      <c r="M3">
+        <v>11561</v>
+      </c>
+      <c r="N3">
+        <v>10044</v>
+      </c>
+      <c r="O3">
+        <v>45212</v>
+      </c>
+      <c r="P3">
+        <v>55256</v>
+      </c>
+      <c r="Q3">
+        <v>22236</v>
+      </c>
+      <c r="R3">
+        <v>11249</v>
+      </c>
+      <c r="S3">
+        <v>11253</v>
+      </c>
+      <c r="T3">
+        <v>46158</v>
+      </c>
+      <c r="U3">
+        <v>57411</v>
+      </c>
+      <c r="V3">
+        <v>28755</v>
+      </c>
+      <c r="W3">
+        <v>23630</v>
+      </c>
+      <c r="X3">
+        <v>21744</v>
+      </c>
+      <c r="Y3">
+        <v>72936</v>
+      </c>
+      <c r="Z3">
+        <v>94680</v>
+      </c>
+      <c r="AA3">
+        <v>34630</v>
+      </c>
+      <c r="AB3">
+        <v>25010</v>
+      </c>
+      <c r="AC3">
+        <v>19442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2987</v>
+      </c>
+      <c r="C5">
+        <v>2332</v>
+      </c>
+      <c r="D5">
+        <v>2354</v>
+      </c>
+      <c r="E5">
+        <v>2484</v>
+      </c>
+      <c r="F5">
+        <v>10157</v>
+      </c>
+      <c r="G5">
+        <v>2745</v>
+      </c>
+      <c r="H5">
+        <v>2739</v>
+      </c>
+      <c r="I5">
+        <v>2665</v>
+      </c>
+      <c r="J5">
+        <v>2754</v>
+      </c>
+      <c r="K5">
+        <v>10903</v>
+      </c>
+      <c r="L5">
+        <v>3395</v>
+      </c>
+      <c r="M5">
+        <v>3040</v>
+      </c>
+      <c r="N5">
+        <v>2933</v>
+      </c>
+      <c r="O5">
+        <v>3179</v>
+      </c>
+      <c r="P5">
+        <v>12547</v>
+      </c>
+      <c r="Q5">
+        <v>2816</v>
+      </c>
+      <c r="R5">
+        <v>2786</v>
+      </c>
+      <c r="S5">
+        <v>2752</v>
+      </c>
+      <c r="T5">
+        <v>2702</v>
+      </c>
+      <c r="U5">
+        <v>11056</v>
+      </c>
+      <c r="V5">
+        <v>2666</v>
+      </c>
+      <c r="W5">
+        <v>2797</v>
+      </c>
+      <c r="X5">
+        <v>2832</v>
+      </c>
+      <c r="Y5">
+        <v>2989</v>
+      </c>
+      <c r="Z5">
+        <v>11284</v>
+      </c>
+      <c r="AA5">
+        <v>2697</v>
+      </c>
+      <c r="AB5">
+        <v>2737</v>
+      </c>
+      <c r="AC5">
+        <v>2805</v>
+      </c>
+      <c r="AG5">
+        <v>5319</v>
+      </c>
+      <c r="AH5">
+        <v>7673</v>
+      </c>
+      <c r="AI5">
+        <v>5484</v>
+      </c>
+      <c r="AJ5">
+        <v>8149</v>
+      </c>
+      <c r="AK5">
+        <v>6435</v>
+      </c>
+      <c r="AL5">
+        <v>9368</v>
+      </c>
+      <c r="AM5">
+        <v>5602</v>
+      </c>
+      <c r="AN5">
+        <v>8354</v>
+      </c>
+      <c r="AO5">
+        <v>5463</v>
+      </c>
+      <c r="AP5">
+        <v>8295</v>
+      </c>
+      <c r="AQ5">
+        <v>5434</v>
+      </c>
+      <c r="AR5">
+        <v>8239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3510</v>
+      </c>
+      <c r="C6">
+        <v>3368</v>
+      </c>
+      <c r="D6">
+        <v>2874</v>
+      </c>
+      <c r="E6">
+        <v>1839</v>
+      </c>
+      <c r="F6">
+        <v>11591</v>
+      </c>
+      <c r="G6">
+        <v>3551</v>
+      </c>
+      <c r="H6">
+        <v>2789</v>
+      </c>
+      <c r="I6">
+        <v>2479</v>
+      </c>
+      <c r="J6">
+        <v>1598</v>
+      </c>
+      <c r="K6">
+        <v>10417</v>
+      </c>
+      <c r="L6">
+        <v>4916</v>
+      </c>
+      <c r="M6">
+        <v>4581</v>
+      </c>
+      <c r="N6">
+        <v>2298</v>
+      </c>
+      <c r="O6">
+        <v>3468</v>
+      </c>
+      <c r="P6">
+        <v>15263</v>
+      </c>
+      <c r="Q6">
+        <v>4393</v>
+      </c>
+      <c r="R6">
+        <v>3112</v>
+      </c>
+      <c r="S6">
+        <v>905</v>
+      </c>
+      <c r="T6">
+        <v>1091</v>
+      </c>
+      <c r="U6">
+        <v>9501</v>
+      </c>
+      <c r="V6">
+        <v>1787</v>
+      </c>
+      <c r="W6">
+        <v>8489</v>
+      </c>
+      <c r="X6">
+        <v>8260</v>
+      </c>
+      <c r="Y6">
+        <v>6849</v>
+      </c>
+      <c r="Z6">
+        <v>25385</v>
+      </c>
+      <c r="AA6">
+        <v>5235</v>
+      </c>
+      <c r="AB6">
+        <v>4066</v>
+      </c>
+      <c r="AC6">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>497</v>
+      </c>
+      <c r="C7">
+        <v>510</v>
+      </c>
+      <c r="D7">
+        <v>449</v>
+      </c>
+      <c r="E7">
+        <v>636</v>
+      </c>
+      <c r="F7">
+        <v>2092</v>
+      </c>
+      <c r="G7">
+        <v>623</v>
+      </c>
+      <c r="H7">
+        <v>733</v>
+      </c>
+      <c r="I7">
+        <v>764</v>
+      </c>
+      <c r="J7">
+        <v>902</v>
+      </c>
+      <c r="K7">
+        <v>3022</v>
+      </c>
+      <c r="L7">
+        <v>836</v>
+      </c>
+      <c r="M7">
+        <v>926</v>
+      </c>
+      <c r="N7">
+        <v>801</v>
+      </c>
+      <c r="O7">
+        <v>860</v>
+      </c>
+      <c r="P7">
+        <v>3423</v>
+      </c>
+      <c r="Q7">
+        <v>771</v>
+      </c>
+      <c r="R7">
+        <v>918</v>
+      </c>
+      <c r="S7">
+        <v>586</v>
+      </c>
+      <c r="T7">
+        <v>727</v>
+      </c>
+      <c r="U7">
+        <v>3002</v>
+      </c>
+      <c r="V7">
+        <v>619</v>
+      </c>
+      <c r="W7">
+        <v>708</v>
+      </c>
+      <c r="X7">
+        <v>543</v>
+      </c>
+      <c r="Y7">
+        <v>817</v>
+      </c>
+      <c r="Z7">
+        <v>2687</v>
+      </c>
+      <c r="AA7">
+        <v>531</v>
+      </c>
+      <c r="AB7">
+        <v>875</v>
+      </c>
+      <c r="AC7">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <f>SUM(B3:B7)</f>
+        <v>24885</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:AC9" si="0">SUM(C3:C7)</f>
+        <v>17239</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>14394</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>44593</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>72191</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>26984</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>20083</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>17427</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>53266</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>83873</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>29112</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>20108</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>16076</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>52719</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>86489</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>30216</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>18065</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>15496</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>50678</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>80970</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>33827</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>35624</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>33379</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>83591</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>134036</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>43093</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>32688</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>25701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3510</v>
+      </c>
+      <c r="C11">
+        <v>3368</v>
+      </c>
+      <c r="D11">
+        <v>2874</v>
+      </c>
+      <c r="E11">
+        <v>1839</v>
+      </c>
+      <c r="F11">
+        <v>11591</v>
+      </c>
+      <c r="G11">
+        <v>3551</v>
+      </c>
+      <c r="H11">
+        <v>2789</v>
+      </c>
+      <c r="I11">
+        <v>2479</v>
+      </c>
+      <c r="J11">
+        <v>1598</v>
+      </c>
+      <c r="K11">
+        <v>10417</v>
+      </c>
+      <c r="L11">
+        <v>4916</v>
+      </c>
+      <c r="M11">
+        <v>4581</v>
+      </c>
+      <c r="N11">
+        <v>2298</v>
+      </c>
+      <c r="O11">
+        <v>3468</v>
+      </c>
+      <c r="P11">
+        <v>15263</v>
+      </c>
+      <c r="Q11">
+        <v>4393</v>
+      </c>
+      <c r="R11">
+        <v>3112</v>
+      </c>
+      <c r="S11">
+        <v>905</v>
+      </c>
+      <c r="T11">
+        <v>1091</v>
+      </c>
+      <c r="U11">
+        <v>9501</v>
+      </c>
+      <c r="V11">
+        <v>1787</v>
+      </c>
+      <c r="W11">
+        <v>8489</v>
+      </c>
+      <c r="X11">
+        <v>8260</v>
+      </c>
+      <c r="Y11">
+        <v>6849</v>
+      </c>
+      <c r="Z11">
+        <v>25385</v>
+      </c>
+      <c r="AA11">
+        <v>5235</v>
+      </c>
+      <c r="AB11">
+        <v>4066</v>
+      </c>
+      <c r="AC11">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>497</v>
+      </c>
+      <c r="C12">
+        <v>510</v>
+      </c>
+      <c r="D12">
+        <v>449</v>
+      </c>
+      <c r="E12">
+        <v>636</v>
+      </c>
+      <c r="F12">
+        <v>2092</v>
+      </c>
+      <c r="G12">
+        <v>623</v>
+      </c>
+      <c r="H12">
+        <v>733</v>
+      </c>
+      <c r="I12">
+        <v>764</v>
+      </c>
+      <c r="J12">
+        <v>902</v>
+      </c>
+      <c r="K12">
+        <v>3022</v>
+      </c>
+      <c r="L12">
+        <v>836</v>
+      </c>
+      <c r="M12">
+        <v>926</v>
+      </c>
+      <c r="N12">
+        <v>801</v>
+      </c>
+      <c r="O12">
+        <v>860</v>
+      </c>
+      <c r="P12">
+        <v>3423</v>
+      </c>
+      <c r="Q12">
+        <v>771</v>
+      </c>
+      <c r="R12">
+        <v>918</v>
+      </c>
+      <c r="S12">
+        <v>586</v>
+      </c>
+      <c r="T12">
+        <v>727</v>
+      </c>
+      <c r="U12">
+        <v>3002</v>
+      </c>
+      <c r="V12">
+        <v>619</v>
+      </c>
+      <c r="W12">
+        <v>708</v>
+      </c>
+      <c r="X12">
+        <v>543</v>
+      </c>
+      <c r="Y12">
+        <v>817</v>
+      </c>
+      <c r="Z12">
+        <v>2687</v>
+      </c>
+      <c r="AA12">
+        <v>531</v>
+      </c>
+      <c r="AB12">
+        <v>875</v>
+      </c>
+      <c r="AC12">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>5148</v>
+      </c>
+      <c r="C13">
+        <v>-3777</v>
+      </c>
+      <c r="D13">
+        <v>-3380</v>
+      </c>
+      <c r="E13">
+        <v>2403</v>
+      </c>
+      <c r="F13">
+        <v>394</v>
+      </c>
+      <c r="G13">
+        <v>37341</v>
+      </c>
+      <c r="H13">
+        <v>-972</v>
+      </c>
+      <c r="I13">
+        <v>-2321</v>
+      </c>
+      <c r="J13">
+        <v>1113</v>
+      </c>
+      <c r="K13">
+        <v>35161</v>
+      </c>
+      <c r="L13">
+        <v>3028</v>
+      </c>
+      <c r="M13">
+        <v>-4621</v>
+      </c>
+      <c r="N13">
+        <v>-3972</v>
+      </c>
+      <c r="O13">
+        <v>1829</v>
+      </c>
+      <c r="P13">
+        <v>-3736</v>
+      </c>
+      <c r="Q13">
+        <v>10314</v>
+      </c>
+      <c r="R13">
+        <v>-428</v>
+      </c>
+      <c r="S13">
+        <v>-2962</v>
+      </c>
+      <c r="T13">
+        <v>6273</v>
+      </c>
+      <c r="U13">
+        <v>13197</v>
+      </c>
+      <c r="V13">
+        <v>7540</v>
+      </c>
+      <c r="W13">
+        <v>-3273</v>
+      </c>
+      <c r="X13">
+        <v>-3227</v>
+      </c>
+      <c r="Y13">
+        <v>415</v>
+      </c>
+      <c r="Z13">
+        <v>1455</v>
+      </c>
+      <c r="AA13">
+        <v>10984</v>
+      </c>
+      <c r="AB13">
+        <v>-3596</v>
+      </c>
+      <c r="AC13">
+        <v>-3111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>1030</v>
+      </c>
+      <c r="C14">
+        <v>2939</v>
+      </c>
+      <c r="D14">
+        <v>672</v>
+      </c>
+      <c r="E14">
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <v>4696</v>
+      </c>
+      <c r="G14">
+        <v>-31858</v>
+      </c>
+      <c r="H14">
+        <v>-459</v>
+      </c>
+      <c r="I14">
+        <v>2625</v>
+      </c>
+      <c r="J14">
+        <v>1531</v>
+      </c>
+      <c r="K14">
+        <v>-28161</v>
+      </c>
+      <c r="L14">
+        <v>302</v>
+      </c>
+      <c r="M14">
+        <v>1175</v>
+      </c>
+      <c r="N14">
+        <v>2631</v>
+      </c>
+      <c r="O14">
+        <v>1216</v>
+      </c>
+      <c r="P14">
+        <v>5324</v>
+      </c>
+      <c r="Q14">
+        <v>-4850</v>
+      </c>
+      <c r="R14">
+        <v>-296</v>
+      </c>
+      <c r="S14">
+        <v>5228</v>
+      </c>
+      <c r="T14">
+        <v>-1072</v>
+      </c>
+      <c r="U14">
+        <v>-990</v>
+      </c>
+      <c r="V14">
+        <v>-198</v>
+      </c>
+      <c r="W14">
+        <v>827</v>
+      </c>
+      <c r="X14">
+        <v>-255</v>
+      </c>
+      <c r="Y14">
+        <v>-3755</v>
+      </c>
+      <c r="Z14">
+        <v>-3381</v>
+      </c>
+      <c r="AA14">
+        <v>-1345</v>
+      </c>
+      <c r="AB14">
+        <v>4015</v>
+      </c>
+      <c r="AC14">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:AC15" si="1">B9-B11-B12+B13+B14</f>
+        <v>27056</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>12523</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>8363</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>44576</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>63598</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>28293</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>15130</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>14488</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>53410</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>77434</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>26690</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>11155</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>11636</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>51436</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>69391</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>30516</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>13311</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>16271</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>54061</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>80674</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>38763</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>23981</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>21094</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>72585</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>104038</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>46966</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>28166</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>22892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>-3334</v>
+      </c>
+      <c r="C17">
+        <v>-2975</v>
+      </c>
+      <c r="D17">
+        <v>-2277</v>
+      </c>
+      <c r="E17">
+        <v>-3865</v>
+      </c>
+      <c r="F17">
+        <v>-12451</v>
+      </c>
+      <c r="G17">
+        <v>-2810</v>
+      </c>
+      <c r="H17">
+        <v>-4195</v>
+      </c>
+      <c r="I17">
+        <v>-3267</v>
+      </c>
+      <c r="J17">
+        <v>-3041</v>
+      </c>
+      <c r="K17">
+        <v>-13313</v>
+      </c>
+      <c r="L17">
+        <v>-3355</v>
+      </c>
+      <c r="M17">
+        <v>-2363</v>
+      </c>
+      <c r="N17">
+        <v>-2000</v>
+      </c>
+      <c r="O17">
+        <v>-2777</v>
+      </c>
+      <c r="P17">
+        <v>-10495</v>
+      </c>
+      <c r="Q17">
+        <v>-2107</v>
+      </c>
+      <c r="R17">
+        <v>-1853</v>
+      </c>
+      <c r="S17">
+        <v>-1565</v>
+      </c>
+      <c r="T17">
+        <v>-1784</v>
+      </c>
+      <c r="U17">
+        <v>-7309</v>
+      </c>
+      <c r="V17">
+        <v>-3500</v>
+      </c>
+      <c r="W17">
+        <v>-2269</v>
+      </c>
+      <c r="X17">
+        <v>-2093</v>
+      </c>
+      <c r="Y17">
+        <v>-3223</v>
+      </c>
+      <c r="Z17">
+        <v>-11085</v>
+      </c>
+      <c r="AA17">
+        <v>-2803</v>
+      </c>
+      <c r="AB17">
+        <v>-2514</v>
+      </c>
+      <c r="AC17">
+        <v>-2102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>-17</v>
+      </c>
+      <c r="C18">
+        <v>-50</v>
+      </c>
+      <c r="D18">
+        <v>-181</v>
+      </c>
+      <c r="E18">
+        <v>-81</v>
+      </c>
+      <c r="F18">
+        <v>-329</v>
+      </c>
+      <c r="G18">
+        <v>-173</v>
+      </c>
+      <c r="H18">
+        <v>-132</v>
+      </c>
+      <c r="I18">
+        <v>-126</v>
+      </c>
+      <c r="J18">
+        <v>-290</v>
+      </c>
+      <c r="K18">
+        <v>-721</v>
+      </c>
+      <c r="L18">
+        <v>-167</v>
+      </c>
+      <c r="M18">
+        <v>-124</v>
+      </c>
+      <c r="N18">
+        <v>-320</v>
+      </c>
+      <c r="O18">
+        <v>-13</v>
+      </c>
+      <c r="P18">
+        <v>-624</v>
+      </c>
+      <c r="Q18">
+        <v>-958</v>
+      </c>
+      <c r="R18">
+        <v>-176</v>
+      </c>
+      <c r="S18">
+        <v>-339</v>
+      </c>
+      <c r="T18">
+        <v>-51</v>
+      </c>
+      <c r="U18">
+        <v>-1524</v>
+      </c>
+      <c r="V18">
+        <v>-9</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>-4</v>
+      </c>
+      <c r="Y18">
+        <v>-20</v>
+      </c>
+      <c r="Z18">
+        <v>-33</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>-167</v>
+      </c>
+      <c r="AC18">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>-15771</v>
+      </c>
+      <c r="C19">
+        <v>-11177</v>
+      </c>
+      <c r="D19">
+        <v>-722</v>
+      </c>
+      <c r="E19">
+        <v>-5996</v>
+      </c>
+      <c r="F19">
+        <v>-33666</v>
+      </c>
+      <c r="G19">
+        <v>-10607</v>
+      </c>
+      <c r="H19">
+        <v>33037</v>
+      </c>
+      <c r="I19">
+        <v>7340</v>
+      </c>
+      <c r="J19">
+        <v>330</v>
+      </c>
+      <c r="K19">
+        <v>30100</v>
+      </c>
+      <c r="L19">
+        <v>9366</v>
+      </c>
+      <c r="M19">
+        <v>15835</v>
+      </c>
+      <c r="N19">
+        <v>29822</v>
+      </c>
+      <c r="O19">
+        <v>1992</v>
+      </c>
+      <c r="P19">
+        <v>57015</v>
+      </c>
+      <c r="Q19">
+        <v>-10603</v>
+      </c>
+      <c r="R19">
+        <v>11042</v>
+      </c>
+      <c r="S19">
+        <v>-3261</v>
+      </c>
+      <c r="T19">
+        <v>7366</v>
+      </c>
+      <c r="U19">
+        <v>4544</v>
+      </c>
+      <c r="V19">
+        <v>-5075</v>
+      </c>
+      <c r="W19">
+        <v>-8099</v>
+      </c>
+      <c r="X19">
+        <v>5669</v>
+      </c>
+      <c r="Y19">
+        <v>4078</v>
+      </c>
+      <c r="Z19">
+        <v>-3427</v>
+      </c>
+      <c r="AA19">
+        <v>-13303</v>
+      </c>
+      <c r="AB19">
+        <v>-6584</v>
+      </c>
+      <c r="AC19">
+        <v>6338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <f>SUM(B17:B19)</f>
+        <v>-19122</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:R20" si="2">SUM(C17:C19)</f>
+        <v>-14202</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>-3180</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>-9942</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>-46446</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>-13590</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>28710</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>3947</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>-3001</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>16066</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>5844</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>13348</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>27502</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>-798</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>45896</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>-13668</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>9013</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ref="S20:AC20" si="3">SUM(S17:S19)</f>
+        <v>-5165</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>5531</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="3"/>
+        <v>-4289</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="3"/>
+        <v>-8584</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="3"/>
+        <v>-10368</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="3"/>
+        <v>3572</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="3"/>
+        <v>835</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>-14545</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="3"/>
+        <v>-16106</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="3"/>
+        <v>-9265</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="3"/>
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>-3130</v>
+      </c>
+      <c r="C22">
+        <v>-3004</v>
+      </c>
+      <c r="D22">
+        <v>-3365</v>
+      </c>
+      <c r="E22">
+        <v>-3270</v>
+      </c>
+      <c r="F22">
+        <v>-12769</v>
+      </c>
+      <c r="G22">
+        <v>-3339</v>
+      </c>
+      <c r="H22">
+        <v>-3190</v>
+      </c>
+      <c r="I22">
+        <v>-3653</v>
+      </c>
+      <c r="J22">
+        <v>-3530</v>
+      </c>
+      <c r="K22">
+        <v>-13712</v>
+      </c>
+      <c r="L22">
+        <v>-3568</v>
+      </c>
+      <c r="M22">
+        <v>-3443</v>
+      </c>
+      <c r="N22">
+        <v>-3629</v>
+      </c>
+      <c r="O22">
+        <v>-3479</v>
+      </c>
+      <c r="P22">
+        <v>-14119</v>
+      </c>
+      <c r="Q22">
+        <v>-3539</v>
+      </c>
+      <c r="R22">
+        <v>-3375</v>
+      </c>
+      <c r="S22">
+        <v>-3656</v>
+      </c>
+      <c r="T22">
+        <v>-3511</v>
+      </c>
+      <c r="U22">
+        <v>-14081</v>
+      </c>
+      <c r="V22">
+        <v>-3613</v>
+      </c>
+      <c r="W22">
+        <v>-3447</v>
+      </c>
+      <c r="X22">
+        <v>-3767</v>
+      </c>
+      <c r="Y22">
+        <v>-3640</v>
+      </c>
+      <c r="Z22">
+        <v>-14467</v>
+      </c>
+      <c r="AA22">
+        <v>-3732</v>
+      </c>
+      <c r="AB22">
+        <v>-3595</v>
+      </c>
+      <c r="AC22">
+        <v>-3811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>-11302</v>
+      </c>
+      <c r="C23">
+        <v>-7000</v>
+      </c>
+      <c r="D23">
+        <v>-7641</v>
+      </c>
+      <c r="E23">
+        <v>-7649</v>
+      </c>
+      <c r="F23">
+        <v>-33592</v>
+      </c>
+      <c r="G23">
+        <v>-11133</v>
+      </c>
+      <c r="H23">
+        <v>-22581</v>
+      </c>
+      <c r="I23">
+        <v>-21859</v>
+      </c>
+      <c r="J23">
+        <v>-19023</v>
+      </c>
+      <c r="K23">
+        <v>-74596</v>
+      </c>
+      <c r="L23">
+        <v>-10114</v>
+      </c>
+      <c r="M23">
+        <v>-23421</v>
+      </c>
+      <c r="N23">
+        <v>-18153</v>
+      </c>
+      <c r="O23">
+        <v>-17245</v>
+      </c>
+      <c r="P23">
+        <v>-68933</v>
+      </c>
+      <c r="Q23">
+        <v>-22083</v>
+      </c>
+      <c r="R23">
+        <v>-18333</v>
+      </c>
+      <c r="S23">
+        <v>-17559</v>
+      </c>
+      <c r="T23">
+        <v>-17137</v>
+      </c>
+      <c r="U23">
+        <v>-75112</v>
+      </c>
+      <c r="V23">
+        <v>-27636</v>
+      </c>
+      <c r="W23">
+        <v>-18286</v>
+      </c>
+      <c r="X23">
+        <v>-25595</v>
+      </c>
+      <c r="Y23">
+        <v>-19905</v>
+      </c>
+      <c r="Z23">
+        <v>-91422</v>
+      </c>
+      <c r="AA23">
+        <v>-23366</v>
+      </c>
+      <c r="AB23">
+        <v>-22961</v>
+      </c>
+      <c r="AC23">
+        <v>-24562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>10975</v>
+      </c>
+      <c r="D24">
+        <v>7250</v>
+      </c>
+      <c r="E24">
+        <v>6937</v>
+      </c>
+      <c r="F24">
+        <v>25162</v>
+      </c>
+      <c r="G24">
+        <v>6969</v>
+      </c>
+      <c r="H24">
+        <v>-500</v>
+      </c>
+      <c r="I24">
+        <v>-6000</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>469</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>-2500</v>
+      </c>
+      <c r="N24">
+        <v>-3000</v>
+      </c>
+      <c r="O24">
+        <v>3658</v>
+      </c>
+      <c r="P24">
+        <v>-1842</v>
+      </c>
+      <c r="Q24">
+        <v>1210</v>
+      </c>
+      <c r="R24">
+        <v>-4250</v>
+      </c>
+      <c r="S24">
+        <v>1046</v>
+      </c>
+      <c r="T24">
+        <v>5456</v>
+      </c>
+      <c r="U24">
+        <v>3462</v>
+      </c>
+      <c r="V24">
+        <v>-1000</v>
+      </c>
+      <c r="W24">
+        <v>10423</v>
+      </c>
+      <c r="X24">
+        <v>-3000</v>
+      </c>
+      <c r="Y24">
+        <v>5220</v>
+      </c>
+      <c r="Z24">
+        <v>11643</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>-3750</v>
+      </c>
+      <c r="AC24">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>2385</v>
+      </c>
+      <c r="C25">
+        <v>-506</v>
+      </c>
+      <c r="D25">
+        <v>1987</v>
+      </c>
+      <c r="E25">
+        <v>-14</v>
+      </c>
+      <c r="F25">
+        <v>3852</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <v>-11</v>
+      </c>
+      <c r="J25">
+        <v>-27</v>
+      </c>
+      <c r="K25">
+        <v>-37</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>-93</v>
+      </c>
+      <c r="N25">
+        <v>-2022</v>
+      </c>
+      <c r="O25">
+        <v>-3973</v>
+      </c>
+      <c r="P25">
+        <v>-6082</v>
+      </c>
+      <c r="Q25">
+        <v>-995</v>
+      </c>
+      <c r="R25">
+        <v>5018</v>
+      </c>
+      <c r="S25">
+        <v>1053</v>
+      </c>
+      <c r="T25">
+        <v>-6165</v>
+      </c>
+      <c r="U25">
+        <v>-1089</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>-16</v>
+      </c>
+      <c r="X25">
+        <v>2966</v>
+      </c>
+      <c r="Y25">
+        <v>-2057</v>
+      </c>
+      <c r="Z25">
+        <v>893</v>
+      </c>
+      <c r="AA25">
+        <v>-1061</v>
+      </c>
+      <c r="AB25">
+        <v>1955</v>
+      </c>
+      <c r="AC25">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>-12047</v>
+      </c>
+      <c r="C26">
+        <v>465</v>
+      </c>
+      <c r="D26">
+        <v>-1769</v>
+      </c>
+      <c r="E26">
+        <v>-3996</v>
+      </c>
+      <c r="F26">
+        <v>-17347</v>
+      </c>
+      <c r="G26">
+        <v>-7501</v>
+      </c>
+      <c r="H26">
+        <v>-26272</v>
+      </c>
+      <c r="I26">
+        <v>-31523</v>
+      </c>
+      <c r="J26">
+        <v>-22580</v>
+      </c>
+      <c r="K26">
+        <v>-87876</v>
+      </c>
+      <c r="L26">
+        <v>-13676</v>
+      </c>
+      <c r="M26">
+        <v>-29457</v>
+      </c>
+      <c r="N26">
+        <v>-26804</v>
+      </c>
+      <c r="O26">
+        <v>-21039</v>
+      </c>
+      <c r="P26">
+        <v>-90976</v>
+      </c>
+      <c r="Q26">
+        <v>-25407</v>
+      </c>
+      <c r="R26">
+        <v>-20940</v>
+      </c>
+      <c r="S26">
+        <v>-19116</v>
+      </c>
+      <c r="T26">
+        <v>-21357</v>
+      </c>
+      <c r="U26">
+        <v>-86820</v>
+      </c>
+      <c r="V26">
+        <v>-32249</v>
+      </c>
+      <c r="W26">
+        <v>-11326</v>
+      </c>
+      <c r="X26">
+        <v>-29396</v>
+      </c>
+      <c r="Y26">
+        <v>-20382</v>
+      </c>
+      <c r="Z26">
+        <v>-93353</v>
+      </c>
+      <c r="AA26">
+        <v>-28159</v>
+      </c>
+      <c r="AB26">
+        <v>-28351</v>
+      </c>
+      <c r="AC26">
+        <v>-27445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <f>B15+B20+B26</f>
+        <v>-4113</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:AC28" si="4">C15+C20+C26</f>
+        <v>-1214</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>3414</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>30638</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>-195</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>7202</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>17568</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>-13088</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>27829</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>5624</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>18858</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>-4954</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>12334</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>29599</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>24311</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>-8559</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="4"/>
+        <v>1384</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>-8010</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="4"/>
+        <v>38235</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="4"/>
+        <v>-10435</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="4"/>
+        <v>-2070</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="4"/>
+        <v>2287</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="4"/>
+        <v>-4730</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="4"/>
+        <v>53038</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="4"/>
+        <v>-3860</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="4"/>
+        <v>2701</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="4"/>
+        <v>-9450</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="4"/>
+        <v>-319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>20484</v>
+      </c>
+      <c r="C30">
+        <v>16371</v>
+      </c>
+      <c r="D30">
+        <v>15157</v>
+      </c>
+      <c r="E30">
+        <v>18571</v>
+      </c>
+      <c r="F30">
+        <v>20484</v>
+      </c>
+      <c r="G30">
+        <v>20289</v>
+      </c>
+      <c r="H30">
+        <v>27491</v>
+      </c>
+      <c r="I30">
+        <v>45059</v>
+      </c>
+      <c r="J30">
+        <v>31971</v>
+      </c>
+      <c r="K30">
+        <v>20289</v>
+      </c>
+      <c r="L30">
+        <v>25913</v>
+      </c>
+      <c r="M30">
+        <v>44771</v>
+      </c>
+      <c r="N30">
+        <v>39817</v>
+      </c>
+      <c r="O30">
+        <v>52151</v>
+      </c>
+      <c r="P30">
+        <v>25913</v>
+      </c>
+      <c r="Q30">
+        <v>50224</v>
+      </c>
+      <c r="R30">
+        <v>41665</v>
+      </c>
+      <c r="S30">
+        <v>43049</v>
+      </c>
+      <c r="T30">
+        <v>35039</v>
+      </c>
+      <c r="U30">
+        <v>50224</v>
+      </c>
+      <c r="V30">
+        <v>39789</v>
+      </c>
+      <c r="W30">
+        <v>37719</v>
+      </c>
+      <c r="X30">
+        <v>40006</v>
+      </c>
+      <c r="Y30">
+        <v>35276</v>
+      </c>
+      <c r="Z30">
+        <v>39789</v>
+      </c>
+      <c r="AA30">
+        <v>35929</v>
+      </c>
+      <c r="AB30">
+        <v>38630</v>
+      </c>
+      <c r="AC30">
+        <v>29180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>16371</v>
+      </c>
+      <c r="C31">
+        <v>15157</v>
+      </c>
+      <c r="D31">
+        <v>18571</v>
+      </c>
+      <c r="E31">
+        <v>20289</v>
+      </c>
+      <c r="F31">
+        <v>20289</v>
+      </c>
+      <c r="G31">
+        <v>27491</v>
+      </c>
+      <c r="H31">
+        <v>45059</v>
+      </c>
+      <c r="I31">
+        <v>31971</v>
+      </c>
+      <c r="J31">
+        <v>25913</v>
+      </c>
+      <c r="K31">
+        <v>25913</v>
+      </c>
+      <c r="L31">
+        <v>44771</v>
+      </c>
+      <c r="M31">
+        <v>39817</v>
+      </c>
+      <c r="N31">
+        <v>52151</v>
+      </c>
+      <c r="O31">
+        <v>50224</v>
+      </c>
+      <c r="P31">
+        <v>50224</v>
+      </c>
+      <c r="Q31">
+        <v>41665</v>
+      </c>
+      <c r="R31">
+        <v>43049</v>
+      </c>
+      <c r="S31">
+        <v>35039</v>
+      </c>
+      <c r="T31">
+        <v>39789</v>
+      </c>
+      <c r="U31">
+        <v>39789</v>
+      </c>
+      <c r="V31">
+        <v>37719</v>
+      </c>
+      <c r="W31">
+        <v>40006</v>
+      </c>
+      <c r="X31">
+        <v>35276</v>
+      </c>
+      <c r="Y31">
+        <v>35929</v>
+      </c>
+      <c r="Z31">
+        <v>35929</v>
+      </c>
+      <c r="AA31">
+        <v>38630</v>
+      </c>
+      <c r="AB31">
+        <v>29180</v>
+      </c>
+      <c r="AC31">
+        <v>28861</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32">
+        <f>B31-B30</f>
+        <v>-4113</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:P32" si="5">C31-C30</f>
+        <v>-1214</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>3414</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>1718</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>-195</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>7202</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>17568</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>-13088</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>-6058</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>5624</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>18858</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>-4954</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>12334</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>-1927</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>24311</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:AC32" si="6">Q31-Q30</f>
+        <v>-8559</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>1384</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="6"/>
+        <v>-8010</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="6"/>
+        <v>4750</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="6"/>
+        <v>-10435</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="6"/>
+        <v>-2070</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="6"/>
+        <v>2287</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="6"/>
+        <v>-4730</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="6"/>
+        <v>653</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="6"/>
+        <v>-3860</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="6"/>
+        <v>2701</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="6"/>
+        <v>-9450</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="6"/>
+        <v>-319</v>
       </c>
     </row>
   </sheetData>
@@ -4913,6 +7607,2831 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F389431C-2308-4A4A-9C0A-92828FB02DE7}">
+  <dimension ref="A1:Y66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5">
+        <v>141319</v>
+      </c>
+      <c r="C2" s="5">
+        <v>166699</v>
+      </c>
+      <c r="D2" s="5">
+        <v>142381</v>
+      </c>
+      <c r="E2" s="5">
+        <v>137781</v>
+      </c>
+      <c r="F2" s="5">
+        <v>191973</v>
+      </c>
+      <c r="G2">
+        <v>315266</v>
+      </c>
+      <c r="K2" s="5">
+        <v>51982</v>
+      </c>
+      <c r="L2" s="5">
+        <v>31051</v>
+      </c>
+      <c r="M2" s="5">
+        <v>25986</v>
+      </c>
+      <c r="N2" s="5">
+        <v>116395</v>
+      </c>
+      <c r="O2" s="5">
+        <v>55957</v>
+      </c>
+      <c r="P2" s="5">
+        <v>28962</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>26418</v>
+      </c>
+      <c r="R2" s="5">
+        <v>111363</v>
+      </c>
+      <c r="S2" s="5">
+        <v>65597</v>
+      </c>
+      <c r="T2" s="5">
+        <v>47938</v>
+      </c>
+      <c r="U2" s="5">
+        <v>39570</v>
+      </c>
+      <c r="V2" s="5">
+        <v>152403</v>
+      </c>
+      <c r="W2" s="5">
+        <v>71628</v>
+      </c>
+      <c r="X2" s="5">
+        <v>50570</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>40665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5">
+        <v>25850</v>
+      </c>
+      <c r="C3" s="5">
+        <v>25484</v>
+      </c>
+      <c r="D3" s="5">
+        <v>25740</v>
+      </c>
+      <c r="E3" s="5">
+        <v>28622</v>
+      </c>
+      <c r="F3" s="5">
+        <v>35190</v>
+      </c>
+      <c r="G3">
+        <v>55624</v>
+      </c>
+      <c r="K3" s="5">
+        <v>7416</v>
+      </c>
+      <c r="L3" s="5">
+        <v>5513</v>
+      </c>
+      <c r="M3" s="5">
+        <v>5820</v>
+      </c>
+      <c r="N3" s="5">
+        <v>19920</v>
+      </c>
+      <c r="O3" s="5">
+        <v>7160</v>
+      </c>
+      <c r="P3" s="5">
+        <v>5351</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>7079</v>
+      </c>
+      <c r="R3" s="5">
+        <v>21543</v>
+      </c>
+      <c r="S3" s="5">
+        <v>8675</v>
+      </c>
+      <c r="T3" s="5">
+        <v>9102</v>
+      </c>
+      <c r="U3" s="5">
+        <v>8235</v>
+      </c>
+      <c r="V3" s="5">
+        <v>26955</v>
+      </c>
+      <c r="W3" s="5">
+        <v>10852</v>
+      </c>
+      <c r="X3" s="5">
+        <v>10435</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>7382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="5">
+        <v>19222</v>
+      </c>
+      <c r="C4" s="5">
+        <v>18805</v>
+      </c>
+      <c r="D4" s="5">
+        <v>21280</v>
+      </c>
+      <c r="E4" s="5">
+        <v>23724</v>
+      </c>
+      <c r="F4" s="5">
+        <v>31862</v>
+      </c>
+      <c r="G4">
+        <v>46612</v>
+      </c>
+      <c r="K4" s="5">
+        <v>6729</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4872</v>
+      </c>
+      <c r="M4" s="5">
+        <v>5023</v>
+      </c>
+      <c r="N4" s="5">
+        <v>16257</v>
+      </c>
+      <c r="O4" s="5">
+        <v>5977</v>
+      </c>
+      <c r="P4" s="5">
+        <v>4368</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>6582</v>
+      </c>
+      <c r="R4" s="5">
+        <v>17142</v>
+      </c>
+      <c r="S4" s="5">
+        <v>8435</v>
+      </c>
+      <c r="T4" s="5">
+        <v>7807</v>
+      </c>
+      <c r="U4" s="5">
+        <v>7368</v>
+      </c>
+      <c r="V4" s="5">
+        <v>24494</v>
+      </c>
+      <c r="W4" s="5">
+        <v>7248</v>
+      </c>
+      <c r="X4" s="5">
+        <v>7646</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>7224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5">
+        <v>12863</v>
+      </c>
+      <c r="C5" s="5">
+        <v>17417</v>
+      </c>
+      <c r="D5" s="5">
+        <v>24482</v>
+      </c>
+      <c r="E5" s="5">
+        <v>30620</v>
+      </c>
+      <c r="F5" s="5">
+        <v>38367</v>
+      </c>
+      <c r="G5">
+        <v>61183</v>
+      </c>
+      <c r="K5" s="5">
+        <v>7308</v>
+      </c>
+      <c r="L5" s="5">
+        <v>5129</v>
+      </c>
+      <c r="M5" s="5">
+        <v>5525</v>
+      </c>
+      <c r="N5" s="5">
+        <v>18957</v>
+      </c>
+      <c r="O5" s="5">
+        <v>10010</v>
+      </c>
+      <c r="P5" s="5">
+        <v>6284</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>6450</v>
+      </c>
+      <c r="R5" s="5">
+        <v>24170</v>
+      </c>
+      <c r="S5" s="5">
+        <v>12971</v>
+      </c>
+      <c r="T5" s="5">
+        <v>7836</v>
+      </c>
+      <c r="U5" s="5">
+        <v>8775</v>
+      </c>
+      <c r="V5" s="5">
+        <v>29592</v>
+      </c>
+      <c r="W5" s="5">
+        <v>14701</v>
+      </c>
+      <c r="X5" s="5">
+        <v>8806</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>8084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="5">
+        <v>29980</v>
+      </c>
+      <c r="C6" s="5">
+        <v>37190</v>
+      </c>
+      <c r="D6" s="5">
+        <v>46291</v>
+      </c>
+      <c r="E6" s="5">
+        <v>53768</v>
+      </c>
+      <c r="F6" s="5">
+        <v>68425</v>
+      </c>
+      <c r="G6">
+        <v>109880</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10875</v>
+      </c>
+      <c r="L6" s="5">
+        <v>11450</v>
+      </c>
+      <c r="M6" s="5">
+        <v>11455</v>
+      </c>
+      <c r="N6" s="5">
+        <v>34836</v>
+      </c>
+      <c r="O6" s="5">
+        <v>12715</v>
+      </c>
+      <c r="P6" s="5">
+        <v>13348</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>13156</v>
+      </c>
+      <c r="R6" s="5">
+        <v>40612</v>
+      </c>
+      <c r="S6" s="5">
+        <v>15761</v>
+      </c>
+      <c r="T6" s="5">
+        <v>16901</v>
+      </c>
+      <c r="U6" s="5">
+        <v>17486</v>
+      </c>
+      <c r="V6" s="5">
+        <v>50939</v>
+      </c>
+      <c r="W6" s="5">
+        <v>19516</v>
+      </c>
+      <c r="X6" s="5">
+        <v>19821</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>19604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="14">
+        <v>229234</v>
+      </c>
+      <c r="C7" s="14">
+        <v>265595</v>
+      </c>
+      <c r="D7" s="14">
+        <v>260174</v>
+      </c>
+      <c r="E7" s="14">
+        <v>274515</v>
+      </c>
+      <c r="F7" s="14">
+        <v>365817</v>
+      </c>
+      <c r="G7" s="10">
+        <v>588565</v>
+      </c>
+      <c r="K7" s="14">
+        <v>84310</v>
+      </c>
+      <c r="L7" s="14">
+        <v>58015</v>
+      </c>
+      <c r="M7" s="14">
+        <v>53809</v>
+      </c>
+      <c r="N7" s="14">
+        <v>206365</v>
+      </c>
+      <c r="O7" s="14">
+        <v>91819</v>
+      </c>
+      <c r="P7" s="14">
+        <v>58313</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>59685</v>
+      </c>
+      <c r="R7" s="14">
+        <v>214830</v>
+      </c>
+      <c r="S7" s="14">
+        <v>111439</v>
+      </c>
+      <c r="T7" s="14">
+        <v>89584</v>
+      </c>
+      <c r="U7" s="14">
+        <v>81434</v>
+      </c>
+      <c r="V7" s="14">
+        <v>284383</v>
+      </c>
+      <c r="W7" s="14">
+        <v>123945</v>
+      </c>
+      <c r="X7" s="14">
+        <v>97278</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>82959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>141048</v>
+      </c>
+      <c r="C9">
+        <v>163756</v>
+      </c>
+      <c r="D9">
+        <v>161782</v>
+      </c>
+      <c r="E9">
+        <v>169559</v>
+      </c>
+      <c r="F9">
+        <v>212981</v>
+      </c>
+      <c r="G9">
+        <v>338297</v>
+      </c>
+      <c r="K9">
+        <v>52279</v>
+      </c>
+      <c r="L9">
+        <v>36194</v>
+      </c>
+      <c r="M9">
+        <v>33582</v>
+      </c>
+      <c r="N9">
+        <v>128200</v>
+      </c>
+      <c r="O9">
+        <v>56602</v>
+      </c>
+      <c r="P9">
+        <v>35943</v>
+      </c>
+      <c r="Q9">
+        <v>37005</v>
+      </c>
+      <c r="R9">
+        <v>132554</v>
+      </c>
+      <c r="S9">
+        <v>67111</v>
+      </c>
+      <c r="T9">
+        <v>51505</v>
+      </c>
+      <c r="U9">
+        <v>46179</v>
+      </c>
+      <c r="V9">
+        <v>166802</v>
+      </c>
+      <c r="W9">
+        <v>69702</v>
+      </c>
+      <c r="X9">
+        <v>54719</v>
+      </c>
+      <c r="Y9">
+        <v>47074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="10">
+        <v>88186</v>
+      </c>
+      <c r="C10" s="10">
+        <v>101839</v>
+      </c>
+      <c r="D10" s="10">
+        <v>98392</v>
+      </c>
+      <c r="E10" s="10">
+        <v>104956</v>
+      </c>
+      <c r="F10" s="10">
+        <v>152836</v>
+      </c>
+      <c r="G10" s="10">
+        <v>250268</v>
+      </c>
+      <c r="K10" s="10">
+        <v>32031</v>
+      </c>
+      <c r="L10" s="10">
+        <v>21821</v>
+      </c>
+      <c r="M10" s="10">
+        <v>20227</v>
+      </c>
+      <c r="N10" s="10">
+        <v>78165</v>
+      </c>
+      <c r="O10" s="10">
+        <v>35217</v>
+      </c>
+      <c r="P10" s="10">
+        <v>22370</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>22680</v>
+      </c>
+      <c r="R10" s="10">
+        <v>82276</v>
+      </c>
+      <c r="S10" s="10">
+        <v>44328</v>
+      </c>
+      <c r="T10" s="10">
+        <v>38079</v>
+      </c>
+      <c r="U10" s="10">
+        <v>35255</v>
+      </c>
+      <c r="V10" s="10">
+        <v>117581</v>
+      </c>
+      <c r="W10" s="10">
+        <v>54243</v>
+      </c>
+      <c r="X10" s="10">
+        <v>42559</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>35885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11">
+        <v>19430</v>
+      </c>
+      <c r="C11">
+        <v>22043</v>
+      </c>
+      <c r="D11">
+        <v>23722</v>
+      </c>
+      <c r="E11">
+        <v>28415</v>
+      </c>
+      <c r="F11">
+        <v>32861</v>
+      </c>
+      <c r="G11">
+        <v>59592</v>
+      </c>
+      <c r="K11">
+        <v>5850</v>
+      </c>
+      <c r="L11">
+        <v>5744</v>
+      </c>
+      <c r="M11">
+        <v>6117</v>
+      </c>
+      <c r="N11">
+        <v>24040</v>
+      </c>
+      <c r="O11">
+        <v>7181</v>
+      </c>
+      <c r="P11">
+        <v>7013</v>
+      </c>
+      <c r="Q11">
+        <v>6883</v>
+      </c>
+      <c r="R11">
+        <v>27134</v>
+      </c>
+      <c r="S11">
+        <v>8173</v>
+      </c>
+      <c r="T11">
+        <v>8287</v>
+      </c>
+      <c r="U11">
+        <v>8540</v>
+      </c>
+      <c r="V11">
+        <v>29784</v>
+      </c>
+      <c r="W11">
+        <v>9811</v>
+      </c>
+      <c r="X11">
+        <v>10003</v>
+      </c>
+      <c r="Y11">
+        <v>9994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="10">
+        <v>107616</v>
+      </c>
+      <c r="C12" s="10">
+        <v>123882</v>
+      </c>
+      <c r="D12" s="10">
+        <v>122114</v>
+      </c>
+      <c r="E12" s="10">
+        <v>133371</v>
+      </c>
+      <c r="F12" s="10">
+        <v>185697</v>
+      </c>
+      <c r="G12" s="10">
+        <v>309860</v>
+      </c>
+      <c r="K12" s="10">
+        <v>37881</v>
+      </c>
+      <c r="L12" s="10">
+        <v>27565</v>
+      </c>
+      <c r="M12" s="10">
+        <v>26344</v>
+      </c>
+      <c r="N12" s="10">
+        <v>102205</v>
+      </c>
+      <c r="O12" s="10">
+        <v>42398</v>
+      </c>
+      <c r="P12" s="10">
+        <v>29383</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>29563</v>
+      </c>
+      <c r="R12" s="10">
+        <v>109410</v>
+      </c>
+      <c r="S12" s="10">
+        <v>52501</v>
+      </c>
+      <c r="T12" s="10">
+        <v>46366</v>
+      </c>
+      <c r="U12" s="10">
+        <v>43795</v>
+      </c>
+      <c r="V12" s="10">
+        <v>147365</v>
+      </c>
+      <c r="W12" s="10">
+        <v>64054</v>
+      </c>
+      <c r="X12" s="10">
+        <v>52562</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16">
+        <v>229234</v>
+      </c>
+      <c r="C16">
+        <v>265595</v>
+      </c>
+      <c r="D16">
+        <v>260174</v>
+      </c>
+      <c r="E16">
+        <v>274515</v>
+      </c>
+      <c r="F16">
+        <v>365817</v>
+      </c>
+      <c r="G16">
+        <v>588565</v>
+      </c>
+      <c r="K16">
+        <v>84310</v>
+      </c>
+      <c r="L16">
+        <v>58015</v>
+      </c>
+      <c r="M16">
+        <v>53809</v>
+      </c>
+      <c r="N16">
+        <v>206365</v>
+      </c>
+      <c r="O16">
+        <v>91819</v>
+      </c>
+      <c r="P16">
+        <v>58313</v>
+      </c>
+      <c r="Q16">
+        <v>59685</v>
+      </c>
+      <c r="R16">
+        <v>214830</v>
+      </c>
+      <c r="S16">
+        <v>111439</v>
+      </c>
+      <c r="T16">
+        <v>89584</v>
+      </c>
+      <c r="U16">
+        <v>81434</v>
+      </c>
+      <c r="V16">
+        <v>284383</v>
+      </c>
+      <c r="W16">
+        <v>123945</v>
+      </c>
+      <c r="X16">
+        <v>97278</v>
+      </c>
+      <c r="Y16">
+        <v>82959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <v>141048</v>
+      </c>
+      <c r="C17">
+        <v>163756</v>
+      </c>
+      <c r="D17">
+        <v>161782</v>
+      </c>
+      <c r="E17">
+        <v>169559</v>
+      </c>
+      <c r="F17">
+        <v>212981</v>
+      </c>
+      <c r="G17">
+        <v>338297</v>
+      </c>
+      <c r="K17">
+        <v>52279</v>
+      </c>
+      <c r="L17">
+        <v>36194</v>
+      </c>
+      <c r="M17">
+        <v>33582</v>
+      </c>
+      <c r="N17">
+        <v>128200</v>
+      </c>
+      <c r="O17">
+        <v>56602</v>
+      </c>
+      <c r="P17">
+        <v>35943</v>
+      </c>
+      <c r="Q17">
+        <v>37005</v>
+      </c>
+      <c r="R17">
+        <v>132554</v>
+      </c>
+      <c r="S17">
+        <v>67111</v>
+      </c>
+      <c r="T17">
+        <v>51505</v>
+      </c>
+      <c r="U17">
+        <v>46179</v>
+      </c>
+      <c r="V17">
+        <v>166802</v>
+      </c>
+      <c r="W17">
+        <v>69702</v>
+      </c>
+      <c r="X17">
+        <v>54719</v>
+      </c>
+      <c r="Y17">
+        <v>47074</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="10">
+        <v>88186</v>
+      </c>
+      <c r="C18" s="10">
+        <v>101839</v>
+      </c>
+      <c r="D18" s="10">
+        <v>98392</v>
+      </c>
+      <c r="E18" s="10">
+        <v>104956</v>
+      </c>
+      <c r="F18" s="10">
+        <v>152836</v>
+      </c>
+      <c r="G18" s="10">
+        <v>250268</v>
+      </c>
+      <c r="K18" s="10">
+        <v>32031</v>
+      </c>
+      <c r="L18" s="10">
+        <v>21821</v>
+      </c>
+      <c r="M18" s="10">
+        <v>20227</v>
+      </c>
+      <c r="N18" s="10">
+        <v>78165</v>
+      </c>
+      <c r="O18" s="10">
+        <v>35217</v>
+      </c>
+      <c r="P18" s="10">
+        <v>22370</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>22680</v>
+      </c>
+      <c r="R18" s="10">
+        <v>82276</v>
+      </c>
+      <c r="S18" s="10">
+        <v>44328</v>
+      </c>
+      <c r="T18" s="10">
+        <v>38079</v>
+      </c>
+      <c r="U18" s="10">
+        <v>35255</v>
+      </c>
+      <c r="V18" s="10">
+        <v>117581</v>
+      </c>
+      <c r="W18" s="10">
+        <v>54243</v>
+      </c>
+      <c r="X18" s="10">
+        <v>42559</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>35885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19">
+        <v>26842</v>
+      </c>
+      <c r="C19">
+        <v>30941</v>
+      </c>
+      <c r="D19">
+        <v>34462</v>
+      </c>
+      <c r="E19">
+        <v>38668</v>
+      </c>
+      <c r="F19">
+        <v>43887</v>
+      </c>
+      <c r="G19">
+        <v>70902</v>
+      </c>
+      <c r="K19">
+        <v>8685</v>
+      </c>
+      <c r="L19">
+        <v>8406</v>
+      </c>
+      <c r="M19">
+        <v>8683</v>
+      </c>
+      <c r="N19">
+        <v>25779</v>
+      </c>
+      <c r="O19">
+        <v>9648</v>
+      </c>
+      <c r="P19">
+        <v>9517</v>
+      </c>
+      <c r="Q19">
+        <v>9589</v>
+      </c>
+      <c r="R19">
+        <v>29079</v>
+      </c>
+      <c r="S19">
+        <v>10794</v>
+      </c>
+      <c r="T19">
+        <v>10576</v>
+      </c>
+      <c r="U19">
+        <v>11129</v>
+      </c>
+      <c r="V19">
+        <v>32758</v>
+      </c>
+      <c r="W19">
+        <v>12755</v>
+      </c>
+      <c r="X19">
+        <v>12580</v>
+      </c>
+      <c r="Y19">
+        <v>12809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="10">
+        <v>61344</v>
+      </c>
+      <c r="C20" s="10">
+        <v>70898</v>
+      </c>
+      <c r="D20" s="10">
+        <v>63930</v>
+      </c>
+      <c r="E20" s="10">
+        <v>66288</v>
+      </c>
+      <c r="F20" s="10">
+        <v>108949</v>
+      </c>
+      <c r="G20" s="10">
+        <v>179366</v>
+      </c>
+      <c r="K20" s="10">
+        <v>23346</v>
+      </c>
+      <c r="L20" s="10">
+        <v>13415</v>
+      </c>
+      <c r="M20" s="10">
+        <v>11544</v>
+      </c>
+      <c r="N20" s="10">
+        <v>52386</v>
+      </c>
+      <c r="O20" s="10">
+        <v>25569</v>
+      </c>
+      <c r="P20" s="10">
+        <v>12853</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>13091</v>
+      </c>
+      <c r="R20" s="10">
+        <v>53197</v>
+      </c>
+      <c r="S20" s="10">
+        <v>33534</v>
+      </c>
+      <c r="T20" s="10">
+        <v>27503</v>
+      </c>
+      <c r="U20" s="10">
+        <v>24126</v>
+      </c>
+      <c r="V20" s="10">
+        <v>84823</v>
+      </c>
+      <c r="W20" s="10">
+        <v>41488</v>
+      </c>
+      <c r="X20" s="10">
+        <v>29979</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>23076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21">
+        <v>10157</v>
+      </c>
+      <c r="C21">
+        <v>10903</v>
+      </c>
+      <c r="D21">
+        <v>12547</v>
+      </c>
+      <c r="E21">
+        <v>11056</v>
+      </c>
+      <c r="F21">
+        <v>11284</v>
+      </c>
+      <c r="G21">
+        <v>11228</v>
+      </c>
+      <c r="K21">
+        <v>3395</v>
+      </c>
+      <c r="L21">
+        <v>3040</v>
+      </c>
+      <c r="M21">
+        <v>2933</v>
+      </c>
+      <c r="N21">
+        <v>3179</v>
+      </c>
+      <c r="O21">
+        <v>2816</v>
+      </c>
+      <c r="P21">
+        <v>2786</v>
+      </c>
+      <c r="Q21">
+        <v>2752</v>
+      </c>
+      <c r="R21">
+        <v>2702</v>
+      </c>
+      <c r="S21">
+        <v>2666</v>
+      </c>
+      <c r="T21">
+        <v>2797</v>
+      </c>
+      <c r="U21">
+        <v>2832</v>
+      </c>
+      <c r="V21">
+        <v>2989</v>
+      </c>
+      <c r="W21">
+        <v>2697</v>
+      </c>
+      <c r="X21">
+        <v>2737</v>
+      </c>
+      <c r="Y21">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="10">
+        <v>71501</v>
+      </c>
+      <c r="C22" s="10">
+        <v>81801</v>
+      </c>
+      <c r="D22" s="10">
+        <v>76477</v>
+      </c>
+      <c r="E22" s="10">
+        <v>77344</v>
+      </c>
+      <c r="F22" s="10">
+        <v>120233</v>
+      </c>
+      <c r="G22" s="10">
+        <v>190594</v>
+      </c>
+      <c r="K22" s="10">
+        <v>26741</v>
+      </c>
+      <c r="L22" s="10">
+        <v>16455</v>
+      </c>
+      <c r="M22" s="10">
+        <v>14477</v>
+      </c>
+      <c r="N22" s="10">
+        <v>55565</v>
+      </c>
+      <c r="O22" s="10">
+        <v>28385</v>
+      </c>
+      <c r="P22" s="10">
+        <v>15639</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>15843</v>
+      </c>
+      <c r="R22" s="10">
+        <v>55899</v>
+      </c>
+      <c r="S22" s="10">
+        <v>36200</v>
+      </c>
+      <c r="T22" s="10">
+        <v>30300</v>
+      </c>
+      <c r="U22" s="10">
+        <v>26958</v>
+      </c>
+      <c r="V22" s="10">
+        <v>87812</v>
+      </c>
+      <c r="W22" s="10">
+        <v>44185</v>
+      </c>
+      <c r="X22" s="10">
+        <v>32716</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>25881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23">
+        <v>2745</v>
+      </c>
+      <c r="C23">
+        <v>2005</v>
+      </c>
+      <c r="D23">
+        <v>1807</v>
+      </c>
+      <c r="E23">
+        <v>803</v>
+      </c>
+      <c r="F23">
+        <v>258</v>
+      </c>
+      <c r="G23">
+        <v>-82</v>
+      </c>
+      <c r="K23">
+        <v>560</v>
+      </c>
+      <c r="L23">
+        <v>378</v>
+      </c>
+      <c r="M23">
+        <v>367</v>
+      </c>
+      <c r="N23">
+        <v>1440</v>
+      </c>
+      <c r="O23">
+        <v>349</v>
+      </c>
+      <c r="P23">
+        <v>282</v>
+      </c>
+      <c r="Q23">
+        <v>46</v>
+      </c>
+      <c r="R23">
+        <v>757</v>
+      </c>
+      <c r="S23">
+        <v>45</v>
+      </c>
+      <c r="T23">
+        <v>508</v>
+      </c>
+      <c r="U23">
+        <v>243</v>
+      </c>
+      <c r="V23">
+        <v>15</v>
+      </c>
+      <c r="W23">
+        <v>-247</v>
+      </c>
+      <c r="X23">
+        <v>160</v>
+      </c>
+      <c r="Y23">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="10">
+        <v>74246</v>
+      </c>
+      <c r="C24" s="10">
+        <v>83806</v>
+      </c>
+      <c r="D24" s="10">
+        <v>78284</v>
+      </c>
+      <c r="E24" s="10">
+        <v>78147</v>
+      </c>
+      <c r="F24" s="10">
+        <v>120491</v>
+      </c>
+      <c r="G24" s="10">
+        <v>138127</v>
+      </c>
+      <c r="K24" s="10">
+        <v>27301</v>
+      </c>
+      <c r="L24" s="10">
+        <v>16833</v>
+      </c>
+      <c r="M24" s="10">
+        <v>14844</v>
+      </c>
+      <c r="N24" s="10">
+        <v>25479</v>
+      </c>
+      <c r="O24" s="10">
+        <v>28734</v>
+      </c>
+      <c r="P24" s="10">
+        <v>18477</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>18498</v>
+      </c>
+      <c r="R24" s="10">
+        <v>18006</v>
+      </c>
+      <c r="S24" s="10">
+        <v>36245</v>
+      </c>
+      <c r="T24" s="10">
+        <v>30808</v>
+      </c>
+      <c r="U24" s="10">
+        <v>27201</v>
+      </c>
+      <c r="V24" s="10">
+        <v>35442</v>
+      </c>
+      <c r="W24" s="10">
+        <v>43938</v>
+      </c>
+      <c r="X24" s="10">
+        <v>32876</v>
+      </c>
+      <c r="Y24" s="10">
+        <v>25871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25">
+        <v>394</v>
+      </c>
+      <c r="C25">
+        <v>35161</v>
+      </c>
+      <c r="D25">
+        <v>-3736</v>
+      </c>
+      <c r="E25">
+        <v>13197</v>
+      </c>
+      <c r="F25">
+        <v>1455</v>
+      </c>
+      <c r="G25">
+        <v>4692</v>
+      </c>
+      <c r="K25">
+        <v>3028</v>
+      </c>
+      <c r="L25">
+        <v>-4621</v>
+      </c>
+      <c r="M25">
+        <v>-3972</v>
+      </c>
+      <c r="N25">
+        <v>1829</v>
+      </c>
+      <c r="O25">
+        <v>10314</v>
+      </c>
+      <c r="P25">
+        <v>-428</v>
+      </c>
+      <c r="Q25">
+        <v>-2962</v>
+      </c>
+      <c r="R25">
+        <v>6273</v>
+      </c>
+      <c r="S25">
+        <v>7540</v>
+      </c>
+      <c r="T25">
+        <v>-3273</v>
+      </c>
+      <c r="U25">
+        <v>-3227</v>
+      </c>
+      <c r="V25">
+        <v>415</v>
+      </c>
+      <c r="W25">
+        <v>10984</v>
+      </c>
+      <c r="X25">
+        <v>-3596</v>
+      </c>
+      <c r="Y25">
+        <v>-3111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="13">
+        <v>-1270</v>
+      </c>
+      <c r="C26" s="13">
+        <v>4429</v>
+      </c>
+      <c r="D26" s="13">
+        <v>5664</v>
+      </c>
+      <c r="E26" s="13">
+        <v>-775</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1393</v>
+      </c>
+      <c r="G26" s="9">
+        <v>3952</v>
+      </c>
+      <c r="K26" s="13">
+        <v>249</v>
+      </c>
+      <c r="L26" s="13">
+        <v>1352</v>
+      </c>
+      <c r="M26" s="13">
+        <v>2545</v>
+      </c>
+      <c r="N26" s="13">
+        <v>1518</v>
+      </c>
+      <c r="O26" s="13">
+        <v>-4501</v>
+      </c>
+      <c r="P26" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>4395</v>
+      </c>
+      <c r="R26" s="13">
+        <v>-675</v>
+      </c>
+      <c r="S26" s="13">
+        <v>-140</v>
+      </c>
+      <c r="T26" s="13">
+        <v>976</v>
+      </c>
+      <c r="U26" s="13">
+        <v>275</v>
+      </c>
+      <c r="V26" s="13">
+        <v>282</v>
+      </c>
+      <c r="W26" s="13">
+        <v>-2027</v>
+      </c>
+      <c r="X26" s="13">
+        <v>3609</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="9">
+        <v>-12451</v>
+      </c>
+      <c r="C27" s="9">
+        <v>-13313</v>
+      </c>
+      <c r="D27" s="9">
+        <v>-10495</v>
+      </c>
+      <c r="E27" s="9">
+        <v>-7309</v>
+      </c>
+      <c r="F27" s="9">
+        <v>-11085</v>
+      </c>
+      <c r="G27" s="9">
+        <v>-10642</v>
+      </c>
+      <c r="K27" s="9">
+        <v>-3355</v>
+      </c>
+      <c r="L27" s="9">
+        <v>-2363</v>
+      </c>
+      <c r="M27" s="9">
+        <v>-2000</v>
+      </c>
+      <c r="N27" s="9">
+        <v>-2777</v>
+      </c>
+      <c r="O27" s="9">
+        <v>-2107</v>
+      </c>
+      <c r="P27" s="9">
+        <v>-1853</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>-1565</v>
+      </c>
+      <c r="R27" s="9">
+        <v>-1784</v>
+      </c>
+      <c r="S27" s="9">
+        <v>-3500</v>
+      </c>
+      <c r="T27" s="9">
+        <v>-2269</v>
+      </c>
+      <c r="U27" s="9">
+        <v>-2093</v>
+      </c>
+      <c r="V27" s="9">
+        <v>-3223</v>
+      </c>
+      <c r="W27" s="9">
+        <v>-2803</v>
+      </c>
+      <c r="X27" s="9">
+        <v>-2514</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>-2102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28">
+        <v>-329</v>
+      </c>
+      <c r="C28">
+        <v>-721</v>
+      </c>
+      <c r="D28">
+        <v>-624</v>
+      </c>
+      <c r="E28">
+        <v>-1524</v>
+      </c>
+      <c r="F28">
+        <v>-33</v>
+      </c>
+      <c r="G28">
+        <v>-189</v>
+      </c>
+      <c r="K28">
+        <v>-167</v>
+      </c>
+      <c r="L28">
+        <v>-124</v>
+      </c>
+      <c r="M28">
+        <v>-320</v>
+      </c>
+      <c r="N28">
+        <v>-13</v>
+      </c>
+      <c r="O28">
+        <v>-958</v>
+      </c>
+      <c r="P28">
+        <v>-176</v>
+      </c>
+      <c r="Q28">
+        <v>-339</v>
+      </c>
+      <c r="R28">
+        <v>-51</v>
+      </c>
+      <c r="S28">
+        <v>-9</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>-4</v>
+      </c>
+      <c r="V28">
+        <v>-20</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>-167</v>
+      </c>
+      <c r="Y28">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29">
+        <v>-33147</v>
+      </c>
+      <c r="C29">
+        <v>32363</v>
+      </c>
+      <c r="D29">
+        <v>57460</v>
+      </c>
+      <c r="E29">
+        <v>5453</v>
+      </c>
+      <c r="F29">
+        <v>-3075</v>
+      </c>
+      <c r="G29">
+        <v>-8014</v>
+      </c>
+      <c r="K29">
+        <v>9849</v>
+      </c>
+      <c r="L29">
+        <v>15812</v>
+      </c>
+      <c r="M29">
+        <v>28736</v>
+      </c>
+      <c r="N29">
+        <v>3063</v>
+      </c>
+      <c r="O29">
+        <v>-10396</v>
+      </c>
+      <c r="P29">
+        <v>11407</v>
+      </c>
+      <c r="Q29">
+        <v>-2992</v>
+      </c>
+      <c r="R29">
+        <v>7434</v>
+      </c>
+      <c r="S29">
+        <v>-5279</v>
+      </c>
+      <c r="T29">
+        <v>-7895</v>
+      </c>
+      <c r="U29">
+        <v>5747</v>
+      </c>
+      <c r="V29">
+        <v>4352</v>
+      </c>
+      <c r="W29">
+        <v>-12929</v>
+      </c>
+      <c r="X29">
+        <v>-6390</v>
+      </c>
+      <c r="Y29">
+        <v>6953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="9">
+        <v>-519</v>
+      </c>
+      <c r="C30" s="9">
+        <v>-2263</v>
+      </c>
+      <c r="D30" s="9">
+        <v>-445</v>
+      </c>
+      <c r="E30" s="9">
+        <v>-909</v>
+      </c>
+      <c r="F30" s="9">
+        <v>-352</v>
+      </c>
+      <c r="G30" s="9">
+        <v>-1457</v>
+      </c>
+      <c r="K30" s="9">
+        <v>-483</v>
+      </c>
+      <c r="L30" s="9">
+        <v>23</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1086</v>
+      </c>
+      <c r="N30" s="9">
+        <v>-1071</v>
+      </c>
+      <c r="O30" s="9">
+        <v>-207</v>
+      </c>
+      <c r="P30" s="9">
+        <v>-365</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>-269</v>
+      </c>
+      <c r="R30" s="9">
+        <v>-68</v>
+      </c>
+      <c r="S30" s="9">
+        <v>204</v>
+      </c>
+      <c r="T30" s="9">
+        <v>-204</v>
+      </c>
+      <c r="U30" s="9">
+        <v>-78</v>
+      </c>
+      <c r="V30" s="9">
+        <v>-274</v>
+      </c>
+      <c r="W30" s="9">
+        <v>-374</v>
+      </c>
+      <c r="X30" s="9">
+        <v>-194</v>
+      </c>
+      <c r="Y30" s="9">
+        <v>-615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31">
+        <v>-9772</v>
+      </c>
+      <c r="C31">
+        <v>-45962</v>
+      </c>
+      <c r="D31">
+        <v>-10821</v>
+      </c>
+      <c r="E31">
+        <v>-9895</v>
+      </c>
+      <c r="F31">
+        <v>-19301</v>
+      </c>
+      <c r="G31">
+        <v>-28547</v>
+      </c>
+      <c r="K31">
+        <v>-3888</v>
+      </c>
+      <c r="L31">
+        <v>-2409</v>
+      </c>
+      <c r="M31">
+        <v>-1781</v>
+      </c>
+      <c r="N31">
+        <v>-8916</v>
+      </c>
+      <c r="O31">
+        <v>-4031</v>
+      </c>
+      <c r="P31">
+        <v>-2188</v>
+      </c>
+      <c r="Q31">
+        <v>-1051</v>
+      </c>
+      <c r="R31">
+        <v>-8193</v>
+      </c>
+      <c r="S31">
+        <v>-4882</v>
+      </c>
+      <c r="T31">
+        <v>-4530</v>
+      </c>
+      <c r="U31">
+        <v>-3155</v>
+      </c>
+      <c r="V31">
+        <v>-15939</v>
+      </c>
+      <c r="W31">
+        <v>-5929</v>
+      </c>
+      <c r="X31">
+        <v>-4723</v>
+      </c>
+      <c r="Y31">
+        <v>-1956</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="10">
+        <v>17152</v>
+      </c>
+      <c r="C32" s="10">
+        <v>93500</v>
+      </c>
+      <c r="D32" s="10">
+        <v>115287</v>
+      </c>
+      <c r="E32" s="10">
+        <v>76385</v>
+      </c>
+      <c r="F32" s="10">
+        <v>89493</v>
+      </c>
+      <c r="G32" s="10">
+        <v>97922</v>
+      </c>
+      <c r="K32" s="10">
+        <v>32534</v>
+      </c>
+      <c r="L32" s="10">
+        <v>24503</v>
+      </c>
+      <c r="M32" s="10">
+        <v>39138</v>
+      </c>
+      <c r="N32" s="10">
+        <v>19112</v>
+      </c>
+      <c r="O32" s="10">
+        <v>16848</v>
+      </c>
+      <c r="P32" s="10">
+        <v>24880</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>13715</v>
+      </c>
+      <c r="R32" s="10">
+        <v>20942</v>
+      </c>
+      <c r="S32" s="10">
+        <v>30179</v>
+      </c>
+      <c r="T32" s="10">
+        <v>13613</v>
+      </c>
+      <c r="U32" s="10">
+        <v>24666</v>
+      </c>
+      <c r="V32" s="10">
+        <v>21035</v>
+      </c>
+      <c r="W32" s="10">
+        <v>30860</v>
+      </c>
+      <c r="X32" s="10">
+        <v>18901</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>27126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33">
+        <v>-12769</v>
+      </c>
+      <c r="C33">
+        <v>-13712</v>
+      </c>
+      <c r="D33">
+        <v>-14119</v>
+      </c>
+      <c r="E33">
+        <v>-14081</v>
+      </c>
+      <c r="F33">
+        <v>-14467</v>
+      </c>
+      <c r="G33">
+        <v>-14778</v>
+      </c>
+      <c r="K33">
+        <v>-3568</v>
+      </c>
+      <c r="L33">
+        <v>-3443</v>
+      </c>
+      <c r="M33">
+        <v>-3629</v>
+      </c>
+      <c r="N33">
+        <v>-3479</v>
+      </c>
+      <c r="O33">
+        <v>-3539</v>
+      </c>
+      <c r="P33">
+        <v>-3375</v>
+      </c>
+      <c r="Q33">
+        <v>-3656</v>
+      </c>
+      <c r="R33">
+        <v>-3511</v>
+      </c>
+      <c r="S33">
+        <v>-3613</v>
+      </c>
+      <c r="T33">
+        <v>-3447</v>
+      </c>
+      <c r="U33">
+        <v>-3767</v>
+      </c>
+      <c r="V33">
+        <v>-3640</v>
+      </c>
+      <c r="W33">
+        <v>-3732</v>
+      </c>
+      <c r="X33">
+        <v>-3595</v>
+      </c>
+      <c r="Y33">
+        <v>-3811</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34">
+        <v>-33592</v>
+      </c>
+      <c r="C34">
+        <v>-74596</v>
+      </c>
+      <c r="D34">
+        <v>-68933</v>
+      </c>
+      <c r="E34">
+        <v>-75112</v>
+      </c>
+      <c r="F34">
+        <v>-91422</v>
+      </c>
+      <c r="G34">
+        <v>-90794</v>
+      </c>
+      <c r="K34">
+        <v>-10114</v>
+      </c>
+      <c r="L34">
+        <v>-23421</v>
+      </c>
+      <c r="M34">
+        <v>-18153</v>
+      </c>
+      <c r="N34">
+        <v>-17245</v>
+      </c>
+      <c r="O34">
+        <v>-22083</v>
+      </c>
+      <c r="P34">
+        <v>-18333</v>
+      </c>
+      <c r="Q34">
+        <v>-17559</v>
+      </c>
+      <c r="R34">
+        <v>-17137</v>
+      </c>
+      <c r="S34">
+        <v>-27636</v>
+      </c>
+      <c r="T34">
+        <v>-18286</v>
+      </c>
+      <c r="U34">
+        <v>-25595</v>
+      </c>
+      <c r="V34">
+        <v>-19905</v>
+      </c>
+      <c r="W34">
+        <v>-23366</v>
+      </c>
+      <c r="X34">
+        <v>-22961</v>
+      </c>
+      <c r="Y34">
+        <v>-24562</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35">
+        <v>29014</v>
+      </c>
+      <c r="C35">
+        <v>432</v>
+      </c>
+      <c r="D35">
+        <v>-7819</v>
+      </c>
+      <c r="E35">
+        <v>2499</v>
+      </c>
+      <c r="F35">
+        <v>12665</v>
+      </c>
+      <c r="G35">
+        <v>1440</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>-2506</v>
+      </c>
+      <c r="M35">
+        <v>-5026</v>
+      </c>
+      <c r="N35">
+        <v>-293</v>
+      </c>
+      <c r="O35">
+        <v>231</v>
+      </c>
+      <c r="P35">
+        <v>-1753</v>
+      </c>
+      <c r="Q35">
+        <v>-441</v>
+      </c>
+      <c r="R35">
+        <v>4462</v>
+      </c>
+      <c r="S35">
+        <v>-978</v>
+      </c>
+      <c r="T35">
+        <v>10423</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>3220</v>
+      </c>
+      <c r="W35">
+        <v>-1000</v>
+      </c>
+      <c r="X35">
+        <v>-1751</v>
+      </c>
+      <c r="Y35">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="19">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19">
+        <v>-105</v>
+      </c>
+      <c r="E36" s="19">
+        <v>-126</v>
+      </c>
+      <c r="F36" s="19">
+        <v>-129</v>
+      </c>
+      <c r="G36" s="19">
+        <v>-205</v>
+      </c>
+      <c r="K36" s="19">
+        <v>0</v>
+      </c>
+      <c r="L36" s="19">
+        <v>-87</v>
+      </c>
+      <c r="M36" s="19">
+        <v>4</v>
+      </c>
+      <c r="N36" s="19">
+        <v>-22</v>
+      </c>
+      <c r="O36" s="19">
+        <v>-16</v>
+      </c>
+      <c r="P36" s="19">
+        <v>-35</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>-69</v>
+      </c>
+      <c r="R36" s="19">
+        <v>-6</v>
+      </c>
+      <c r="S36" s="19">
+        <v>-22</v>
+      </c>
+      <c r="T36" s="19">
+        <v>-16</v>
+      </c>
+      <c r="U36" s="19">
+        <v>-34</v>
+      </c>
+      <c r="V36" s="19">
+        <v>-57</v>
+      </c>
+      <c r="W36" s="19">
+        <v>-61</v>
+      </c>
+      <c r="X36" s="19">
+        <v>-44</v>
+      </c>
+      <c r="Y36" s="19">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="10">
+        <v>-195</v>
+      </c>
+      <c r="C37" s="10">
+        <v>5624</v>
+      </c>
+      <c r="D37" s="10">
+        <v>24311</v>
+      </c>
+      <c r="E37" s="10">
+        <v>-10435</v>
+      </c>
+      <c r="F37" s="10">
+        <v>-3860</v>
+      </c>
+      <c r="G37" s="10">
+        <v>-6415</v>
+      </c>
+      <c r="K37" s="10">
+        <v>18858</v>
+      </c>
+      <c r="L37" s="10">
+        <v>-4954</v>
+      </c>
+      <c r="M37" s="10">
+        <v>12334</v>
+      </c>
+      <c r="N37" s="10">
+        <v>-1927</v>
+      </c>
+      <c r="O37" s="10">
+        <v>-8559</v>
+      </c>
+      <c r="P37" s="10">
+        <v>1384</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>-8010</v>
+      </c>
+      <c r="R37" s="10">
+        <v>4750</v>
+      </c>
+      <c r="S37" s="10">
+        <v>-2070</v>
+      </c>
+      <c r="T37" s="10">
+        <v>2287</v>
+      </c>
+      <c r="U37" s="10">
+        <v>-4730</v>
+      </c>
+      <c r="V37" s="10">
+        <v>653</v>
+      </c>
+      <c r="W37" s="10">
+        <v>2701</v>
+      </c>
+      <c r="X37" s="10">
+        <v>-9450</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>-319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43">
+        <v>20289</v>
+      </c>
+      <c r="C43">
+        <v>25913</v>
+      </c>
+      <c r="D43">
+        <v>48844</v>
+      </c>
+      <c r="E43">
+        <v>38016</v>
+      </c>
+      <c r="F43">
+        <v>34940</v>
+      </c>
+      <c r="G43">
+        <v>127659</v>
+      </c>
+      <c r="K43">
+        <v>44771</v>
+      </c>
+      <c r="L43">
+        <v>37988</v>
+      </c>
+      <c r="M43">
+        <v>50530</v>
+      </c>
+      <c r="N43">
+        <v>48844</v>
+      </c>
+      <c r="O43">
+        <v>39771</v>
+      </c>
+      <c r="P43">
+        <v>40174</v>
+      </c>
+      <c r="Q43">
+        <v>33383</v>
+      </c>
+      <c r="R43">
+        <v>38016</v>
+      </c>
+      <c r="S43">
+        <v>36010</v>
+      </c>
+      <c r="T43">
+        <v>38466</v>
+      </c>
+      <c r="U43">
+        <v>34050</v>
+      </c>
+      <c r="V43">
+        <v>34940</v>
+      </c>
+      <c r="W43">
+        <v>37119</v>
+      </c>
+      <c r="X43">
+        <v>28098</v>
+      </c>
+      <c r="Y43">
+        <v>27502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44">
+        <v>248606</v>
+      </c>
+      <c r="C44">
+        <v>211187</v>
+      </c>
+      <c r="D44">
+        <v>157054</v>
+      </c>
+      <c r="E44">
+        <v>153814</v>
+      </c>
+      <c r="F44">
+        <v>155576</v>
+      </c>
+      <c r="G44">
+        <v>637491</v>
+      </c>
+      <c r="K44">
+        <v>200264</v>
+      </c>
+      <c r="L44">
+        <v>187423</v>
+      </c>
+      <c r="M44">
+        <v>160080</v>
+      </c>
+      <c r="N44">
+        <v>157054</v>
+      </c>
+      <c r="O44">
+        <v>167290</v>
+      </c>
+      <c r="P44">
+        <v>152670</v>
+      </c>
+      <c r="Q44">
+        <v>160234</v>
+      </c>
+      <c r="R44">
+        <v>153814</v>
+      </c>
+      <c r="S44">
+        <v>159561</v>
+      </c>
+      <c r="T44">
+        <v>165907</v>
+      </c>
+      <c r="U44">
+        <v>159594</v>
+      </c>
+      <c r="V44">
+        <v>155576</v>
+      </c>
+      <c r="W44">
+        <v>165477</v>
+      </c>
+      <c r="X44">
+        <v>164632</v>
+      </c>
+      <c r="Y44">
+        <v>151806</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="20"/>
+    </row>
+    <row r="47" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+    </row>
+    <row r="49" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+    </row>
+    <row r="50" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="20"/>
+    </row>
+    <row r="51" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+    </row>
+    <row r="53" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="K54" s="20"/>
+    </row>
+    <row r="55" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+    </row>
+    <row r="56" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+    </row>
+    <row r="57" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59">
+        <v>5251692</v>
+      </c>
+      <c r="C59">
+        <v>5000109</v>
+      </c>
+      <c r="D59">
+        <v>4648913</v>
+      </c>
+      <c r="E59">
+        <v>17528214</v>
+      </c>
+      <c r="F59">
+        <v>16864919</v>
+      </c>
+      <c r="G59">
+        <v>16262203</v>
+      </c>
+      <c r="K59">
+        <v>4773252</v>
+      </c>
+      <c r="L59">
+        <v>4700646</v>
+      </c>
+      <c r="M59">
+        <v>4601380</v>
+      </c>
+      <c r="N59">
+        <v>4648913</v>
+      </c>
+      <c r="O59">
+        <v>4454604</v>
+      </c>
+      <c r="P59">
+        <v>4404691</v>
+      </c>
+      <c r="Q59">
+        <v>4354788</v>
+      </c>
+      <c r="R59">
+        <v>17528214</v>
+      </c>
+      <c r="S59">
+        <v>17113688</v>
+      </c>
+      <c r="T59">
+        <v>16929157</v>
+      </c>
+      <c r="U59">
+        <v>16781735</v>
+      </c>
+      <c r="V59">
+        <v>16864919</v>
+      </c>
+      <c r="W59">
+        <v>16519291</v>
+      </c>
+      <c r="X59">
+        <v>16403316</v>
+      </c>
+      <c r="Y59">
+        <v>16262203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="36">
+        <v>37.637500762939453</v>
+      </c>
+      <c r="C60" s="36">
+        <v>55.197498321533203</v>
+      </c>
+      <c r="D60" s="36">
+        <v>54.419998168945312</v>
+      </c>
+      <c r="E60" s="36">
+        <v>108.2200012207031</v>
+      </c>
+      <c r="F60" s="36">
+        <v>146.91999816894531</v>
+      </c>
+      <c r="G60" s="36">
+        <v>141.6600036621094</v>
+      </c>
+      <c r="K60" s="36">
+        <v>55.197498321533203</v>
+      </c>
+      <c r="L60" s="36">
+        <v>72.477500915527344</v>
+      </c>
+      <c r="M60" s="36">
+        <v>47.185001373291023</v>
+      </c>
+      <c r="N60" s="36">
+        <v>49.645000457763672</v>
+      </c>
+      <c r="O60" s="36">
+        <v>54.419998168945312</v>
+      </c>
+      <c r="P60" s="36">
+        <v>136.69000244140619</v>
+      </c>
+      <c r="Q60" s="36">
+        <v>61.380001068115227</v>
+      </c>
+      <c r="R60" s="36">
+        <v>90.014999389648438</v>
+      </c>
+      <c r="S60" s="36">
+        <v>108.2200012207031</v>
+      </c>
+      <c r="T60" s="36">
+        <v>180.33000183105469</v>
+      </c>
+      <c r="U60" s="36">
+        <v>120.5899963378906</v>
+      </c>
+      <c r="V60" s="36">
+        <v>133.4100036621094</v>
+      </c>
+      <c r="W60" s="36">
+        <v>146.91999816894531</v>
+      </c>
+      <c r="X60" s="36">
+        <v>174.7200012207031</v>
+      </c>
+      <c r="Y60" s="36">
+        <v>141.6600036621094</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="33">
+        <v>83414</v>
+      </c>
+      <c r="C62" s="33">
+        <v>76606</v>
+      </c>
+      <c r="D62" s="33">
+        <v>53223</v>
+      </c>
+      <c r="E62" s="33">
+        <v>69424</v>
+      </c>
+      <c r="F62" s="33">
+        <v>83779</v>
+      </c>
+      <c r="G62" s="33">
+        <v>81207</v>
+      </c>
+      <c r="K62" s="33">
+        <v>57990</v>
+      </c>
+      <c r="L62" s="33">
+        <v>62718</v>
+      </c>
+      <c r="M62" s="33">
+        <v>47935</v>
+      </c>
+      <c r="N62" s="33">
+        <v>53223</v>
+      </c>
+      <c r="O62" s="33">
+        <v>63531</v>
+      </c>
+      <c r="P62" s="33">
+        <v>59304</v>
+      </c>
+      <c r="Q62" s="33">
+        <v>68174</v>
+      </c>
+      <c r="R62" s="33">
+        <v>69424</v>
+      </c>
+      <c r="S62" s="33">
+        <v>71033</v>
+      </c>
+      <c r="T62" s="33">
+        <v>78179</v>
+      </c>
+      <c r="U62" s="33">
+        <v>79741</v>
+      </c>
+      <c r="V62" s="33">
+        <v>83779</v>
+      </c>
+      <c r="W62" s="33">
+        <v>80679</v>
+      </c>
+      <c r="X62" s="33">
+        <v>84884</v>
+      </c>
+      <c r="Y62" s="33">
+        <v>81207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A63" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63">
+        <v>197660561.65672302</v>
+      </c>
+      <c r="C63">
+        <v>275993508.13498306</v>
+      </c>
+      <c r="D63">
+        <v>252993836.94758606</v>
+      </c>
+      <c r="E63">
+        <v>1896903340.4767451</v>
+      </c>
+      <c r="F63">
+        <v>2477793868.599411</v>
+      </c>
+      <c r="G63">
+        <v>2303703736.5339665</v>
+      </c>
+      <c r="K63">
+        <v>263471569.258255</v>
+      </c>
+      <c r="L63">
+        <v>340691074.76856995</v>
+      </c>
+      <c r="M63">
+        <v>217116121.61903384</v>
+      </c>
+      <c r="N63">
+        <v>230795288.01310349</v>
+      </c>
+      <c r="O63">
+        <v>242419541.52337646</v>
+      </c>
+      <c r="P63">
+        <v>602077223.5436399</v>
+      </c>
+      <c r="Q63">
+        <v>267296892.09141538</v>
+      </c>
+      <c r="R63">
+        <v>1577802172.5116272</v>
+      </c>
+      <c r="S63">
+        <v>1852043336.2507319</v>
+      </c>
+      <c r="T63">
+        <v>3052834912.8082123</v>
+      </c>
+      <c r="U63">
+        <v>2023709362.1934505</v>
+      </c>
+      <c r="V63">
+        <v>2249948905.5511785</v>
+      </c>
+      <c r="W63">
+        <v>2427014203.4722748</v>
+      </c>
+      <c r="X63">
+        <v>2865987391.5435786</v>
+      </c>
+      <c r="Y63">
+        <v>2303703736.5339665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64">
+        <v>197743975.65672302</v>
+      </c>
+      <c r="C64">
+        <v>276070114.13498306</v>
+      </c>
+      <c r="D64">
+        <v>253047059.94758606</v>
+      </c>
+      <c r="E64">
+        <v>1896972764.4767451</v>
+      </c>
+      <c r="F64">
+        <v>2477877647.599411</v>
+      </c>
+      <c r="G64">
+        <v>2303784943.5339665</v>
+      </c>
+      <c r="K64">
+        <v>263529559.258255</v>
+      </c>
+      <c r="L64">
+        <v>340753792.76856995</v>
+      </c>
+      <c r="M64">
+        <v>217164056.61903384</v>
+      </c>
+      <c r="N64">
+        <v>230848511.01310349</v>
+      </c>
+      <c r="O64">
+        <v>242483072.52337646</v>
+      </c>
+      <c r="P64">
+        <v>602136527.5436399</v>
+      </c>
+      <c r="Q64">
+        <v>267365066.09141538</v>
+      </c>
+      <c r="R64">
+        <v>1577871596.5116272</v>
+      </c>
+      <c r="S64">
+        <v>1852114369.2507319</v>
+      </c>
+      <c r="T64">
+        <v>3052913091.8082123</v>
+      </c>
+      <c r="U64">
+        <v>2023789103.1934505</v>
+      </c>
+      <c r="V64">
+        <v>2250032684.5511785</v>
+      </c>
+      <c r="W64">
+        <v>2427094882.4722748</v>
+      </c>
+      <c r="X64">
+        <v>2866072275.5435786</v>
+      </c>
+      <c r="Y64">
+        <v>2303784943.5339665</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3696067A-8293-874C-96EA-CCC9A8A93C09}">
   <dimension ref="A2:AC24"/>
   <sheetViews>
@@ -5567,7 +11086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377EDF1F-1F18-9640-B01B-EAA5494E4D27}">
   <dimension ref="A3:AC15"/>
   <sheetViews>
@@ -6386,7 +11905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AFA04D-6188-7B4F-B13E-BAA68BF03D45}">
   <dimension ref="A1:AC21"/>
   <sheetViews>
@@ -8064,7 +13583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69B4165-121E-654F-8D43-3A620B4D69B3}">
   <dimension ref="A3:AR28"/>
   <sheetViews>
@@ -9526,7 +15045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1181C3F2-4096-B043-BB23-1F0DFF9CC014}">
   <dimension ref="A1:AR26"/>
   <sheetViews>
@@ -11031,15 +16550,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3601F0E0-8B0E-B34A-817A-FDCD2FF6117E}">
   <dimension ref="A1:AR34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33:XFD33"/>
+      <selection pane="bottomRight" activeCell="AL30" sqref="AL30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12181,7 +17700,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -12270,7 +17789,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -12359,7 +17878,7 @@
         <v>-367</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -12448,7 +17967,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="20" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>121</v>
       </c>
@@ -12565,7 +18084,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -12596,7 +18115,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -12712,44 +18231,8 @@
         <f t="shared" si="3"/>
         <v>645</v>
       </c>
-      <c r="AG22">
-        <v>39579</v>
-      </c>
-      <c r="AH22">
-        <v>47942</v>
-      </c>
-      <c r="AI22">
-        <v>43423</v>
-      </c>
-      <c r="AJ22">
-        <v>57911</v>
-      </c>
-      <c r="AK22">
-        <v>37845</v>
-      </c>
-      <c r="AL22">
-        <v>49481</v>
-      </c>
-      <c r="AM22">
-        <v>43827</v>
-      </c>
-      <c r="AN22">
-        <v>60098</v>
-      </c>
-      <c r="AO22">
-        <v>62744</v>
-      </c>
-      <c r="AP22">
-        <v>83838</v>
-      </c>
-      <c r="AQ22">
-        <v>75132</v>
-      </c>
-      <c r="AR22">
-        <v>98024</v>
-      </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -12780,7 +18263,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -12869,7 +18352,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="26" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>113</v>
       </c>
@@ -12958,7 +18441,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="27" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>107</v>
       </c>
@@ -13075,7 +18558,7 @@
         <v>-1956</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -13163,44 +18646,8 @@
       <c r="AC29">
         <v>2950</v>
       </c>
-      <c r="AG29">
-        <v>6878</v>
-      </c>
-      <c r="AH29">
-        <v>9752</v>
-      </c>
-      <c r="AI29">
-        <v>6340</v>
-      </c>
-      <c r="AJ29">
-        <v>8819</v>
-      </c>
-      <c r="AK29">
-        <v>9497</v>
-      </c>
-      <c r="AL29">
-        <v>11795</v>
-      </c>
-      <c r="AM29">
-        <v>7505</v>
-      </c>
-      <c r="AN29">
-        <v>8410</v>
-      </c>
-      <c r="AO29">
-        <v>10276</v>
-      </c>
-      <c r="AP29">
-        <v>18536</v>
-      </c>
-      <c r="AQ29">
-        <v>9301</v>
-      </c>
-      <c r="AR29">
-        <v>12251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -13287,42 +18734,6 @@
       </c>
       <c r="AC30">
         <v>504</v>
-      </c>
-      <c r="AG30">
-        <v>1007</v>
-      </c>
-      <c r="AH30">
-        <v>1456</v>
-      </c>
-      <c r="AI30">
-        <v>1356</v>
-      </c>
-      <c r="AJ30">
-        <v>2120</v>
-      </c>
-      <c r="AK30">
-        <v>1762</v>
-      </c>
-      <c r="AL30">
-        <v>2563</v>
-      </c>
-      <c r="AM30">
-        <v>1689</v>
-      </c>
-      <c r="AN30">
-        <v>2275</v>
-      </c>
-      <c r="AO30">
-        <v>1327</v>
-      </c>
-      <c r="AP30">
-        <v>1870</v>
-      </c>
-      <c r="AQ30">
-        <v>1406</v>
-      </c>
-      <c r="AR30">
-        <v>1910</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.2">
@@ -13445,7 +18856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A872202-092E-E748-BB37-BEEAB026E317}">
   <dimension ref="A1:AR30"/>
   <sheetViews>
@@ -16091,2349 +21502,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93756361-4A88-6C4A-BF49-DE9E443BAE55}">
-  <dimension ref="A1:AR32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>17891</v>
-      </c>
-      <c r="C3">
-        <v>11029</v>
-      </c>
-      <c r="D3">
-        <v>8717</v>
-      </c>
-      <c r="E3">
-        <v>39634</v>
-      </c>
-      <c r="F3">
-        <v>48351</v>
-      </c>
-      <c r="G3">
-        <v>20065</v>
-      </c>
-      <c r="H3">
-        <v>13822</v>
-      </c>
-      <c r="I3">
-        <v>11519</v>
-      </c>
-      <c r="J3">
-        <v>48012</v>
-      </c>
-      <c r="K3">
-        <v>59531</v>
-      </c>
-      <c r="L3">
-        <v>19965</v>
-      </c>
-      <c r="M3">
-        <v>11561</v>
-      </c>
-      <c r="N3">
-        <v>10044</v>
-      </c>
-      <c r="O3">
-        <v>45212</v>
-      </c>
-      <c r="P3">
-        <v>55256</v>
-      </c>
-      <c r="Q3">
-        <v>22236</v>
-      </c>
-      <c r="R3">
-        <v>11249</v>
-      </c>
-      <c r="S3">
-        <v>11253</v>
-      </c>
-      <c r="T3">
-        <v>46158</v>
-      </c>
-      <c r="U3">
-        <v>57411</v>
-      </c>
-      <c r="V3">
-        <v>28755</v>
-      </c>
-      <c r="W3">
-        <v>23630</v>
-      </c>
-      <c r="X3">
-        <v>21744</v>
-      </c>
-      <c r="Y3">
-        <v>72936</v>
-      </c>
-      <c r="Z3">
-        <v>94680</v>
-      </c>
-      <c r="AA3">
-        <v>34630</v>
-      </c>
-      <c r="AB3">
-        <v>25010</v>
-      </c>
-      <c r="AC3">
-        <v>19442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2987</v>
-      </c>
-      <c r="C5">
-        <v>2332</v>
-      </c>
-      <c r="D5">
-        <v>2354</v>
-      </c>
-      <c r="E5">
-        <v>2484</v>
-      </c>
-      <c r="F5">
-        <v>10157</v>
-      </c>
-      <c r="G5">
-        <v>2745</v>
-      </c>
-      <c r="H5">
-        <v>2739</v>
-      </c>
-      <c r="I5">
-        <v>2665</v>
-      </c>
-      <c r="J5">
-        <v>2754</v>
-      </c>
-      <c r="K5">
-        <v>10903</v>
-      </c>
-      <c r="L5">
-        <v>3395</v>
-      </c>
-      <c r="M5">
-        <v>3040</v>
-      </c>
-      <c r="N5">
-        <v>2933</v>
-      </c>
-      <c r="O5">
-        <v>3179</v>
-      </c>
-      <c r="P5">
-        <v>12547</v>
-      </c>
-      <c r="Q5">
-        <v>2816</v>
-      </c>
-      <c r="R5">
-        <v>2786</v>
-      </c>
-      <c r="S5">
-        <v>2752</v>
-      </c>
-      <c r="T5">
-        <v>2702</v>
-      </c>
-      <c r="U5">
-        <v>11056</v>
-      </c>
-      <c r="V5">
-        <v>2666</v>
-      </c>
-      <c r="W5">
-        <v>2797</v>
-      </c>
-      <c r="X5">
-        <v>2832</v>
-      </c>
-      <c r="Y5">
-        <v>2989</v>
-      </c>
-      <c r="Z5">
-        <v>11284</v>
-      </c>
-      <c r="AA5">
-        <v>2697</v>
-      </c>
-      <c r="AB5">
-        <v>2737</v>
-      </c>
-      <c r="AC5">
-        <v>2805</v>
-      </c>
-      <c r="AG5">
-        <v>5319</v>
-      </c>
-      <c r="AH5">
-        <v>7673</v>
-      </c>
-      <c r="AI5">
-        <v>5484</v>
-      </c>
-      <c r="AJ5">
-        <v>8149</v>
-      </c>
-      <c r="AK5">
-        <v>6435</v>
-      </c>
-      <c r="AL5">
-        <v>9368</v>
-      </c>
-      <c r="AM5">
-        <v>5602</v>
-      </c>
-      <c r="AN5">
-        <v>8354</v>
-      </c>
-      <c r="AO5">
-        <v>5463</v>
-      </c>
-      <c r="AP5">
-        <v>8295</v>
-      </c>
-      <c r="AQ5">
-        <v>5434</v>
-      </c>
-      <c r="AR5">
-        <v>8239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>3510</v>
-      </c>
-      <c r="C6">
-        <v>3368</v>
-      </c>
-      <c r="D6">
-        <v>2874</v>
-      </c>
-      <c r="E6">
-        <v>1839</v>
-      </c>
-      <c r="F6">
-        <v>11591</v>
-      </c>
-      <c r="G6">
-        <v>3551</v>
-      </c>
-      <c r="H6">
-        <v>2789</v>
-      </c>
-      <c r="I6">
-        <v>2479</v>
-      </c>
-      <c r="J6">
-        <v>1598</v>
-      </c>
-      <c r="K6">
-        <v>10417</v>
-      </c>
-      <c r="L6">
-        <v>4916</v>
-      </c>
-      <c r="M6">
-        <v>4581</v>
-      </c>
-      <c r="N6">
-        <v>2298</v>
-      </c>
-      <c r="O6">
-        <v>3468</v>
-      </c>
-      <c r="P6">
-        <v>15263</v>
-      </c>
-      <c r="Q6">
-        <v>4393</v>
-      </c>
-      <c r="R6">
-        <v>3112</v>
-      </c>
-      <c r="S6">
-        <v>905</v>
-      </c>
-      <c r="T6">
-        <v>1091</v>
-      </c>
-      <c r="U6">
-        <v>9501</v>
-      </c>
-      <c r="V6">
-        <v>1787</v>
-      </c>
-      <c r="W6">
-        <v>8489</v>
-      </c>
-      <c r="X6">
-        <v>8260</v>
-      </c>
-      <c r="Y6">
-        <v>6849</v>
-      </c>
-      <c r="Z6">
-        <v>25385</v>
-      </c>
-      <c r="AA6">
-        <v>5235</v>
-      </c>
-      <c r="AB6">
-        <v>4066</v>
-      </c>
-      <c r="AC6">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>497</v>
-      </c>
-      <c r="C7">
-        <v>510</v>
-      </c>
-      <c r="D7">
-        <v>449</v>
-      </c>
-      <c r="E7">
-        <v>636</v>
-      </c>
-      <c r="F7">
-        <v>2092</v>
-      </c>
-      <c r="G7">
-        <v>623</v>
-      </c>
-      <c r="H7">
-        <v>733</v>
-      </c>
-      <c r="I7">
-        <v>764</v>
-      </c>
-      <c r="J7">
-        <v>902</v>
-      </c>
-      <c r="K7">
-        <v>3022</v>
-      </c>
-      <c r="L7">
-        <v>836</v>
-      </c>
-      <c r="M7">
-        <v>926</v>
-      </c>
-      <c r="N7">
-        <v>801</v>
-      </c>
-      <c r="O7">
-        <v>860</v>
-      </c>
-      <c r="P7">
-        <v>3423</v>
-      </c>
-      <c r="Q7">
-        <v>771</v>
-      </c>
-      <c r="R7">
-        <v>918</v>
-      </c>
-      <c r="S7">
-        <v>586</v>
-      </c>
-      <c r="T7">
-        <v>727</v>
-      </c>
-      <c r="U7">
-        <v>3002</v>
-      </c>
-      <c r="V7">
-        <v>619</v>
-      </c>
-      <c r="W7">
-        <v>708</v>
-      </c>
-      <c r="X7">
-        <v>543</v>
-      </c>
-      <c r="Y7">
-        <v>817</v>
-      </c>
-      <c r="Z7">
-        <v>2687</v>
-      </c>
-      <c r="AA7">
-        <v>531</v>
-      </c>
-      <c r="AB7">
-        <v>875</v>
-      </c>
-      <c r="AC7">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <f>SUM(B3:B7)</f>
-        <v>24885</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:AC9" si="0">SUM(C3:C7)</f>
-        <v>17239</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>14394</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>44593</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>72191</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>26984</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>20083</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>17427</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>53266</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>83873</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>29112</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>20108</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>16076</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>52719</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>86489</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>30216</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>18065</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>15496</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>50678</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>80970</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
-        <v>33827</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="0"/>
-        <v>35624</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="0"/>
-        <v>33379</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>83591</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="0"/>
-        <v>134036</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="0"/>
-        <v>43093</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="0"/>
-        <v>32688</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="0"/>
-        <v>25701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>3510</v>
-      </c>
-      <c r="C11">
-        <v>3368</v>
-      </c>
-      <c r="D11">
-        <v>2874</v>
-      </c>
-      <c r="E11">
-        <v>1839</v>
-      </c>
-      <c r="F11">
-        <v>11591</v>
-      </c>
-      <c r="G11">
-        <v>3551</v>
-      </c>
-      <c r="H11">
-        <v>2789</v>
-      </c>
-      <c r="I11">
-        <v>2479</v>
-      </c>
-      <c r="J11">
-        <v>1598</v>
-      </c>
-      <c r="K11">
-        <v>10417</v>
-      </c>
-      <c r="L11">
-        <v>4916</v>
-      </c>
-      <c r="M11">
-        <v>4581</v>
-      </c>
-      <c r="N11">
-        <v>2298</v>
-      </c>
-      <c r="O11">
-        <v>3468</v>
-      </c>
-      <c r="P11">
-        <v>15263</v>
-      </c>
-      <c r="Q11">
-        <v>4393</v>
-      </c>
-      <c r="R11">
-        <v>3112</v>
-      </c>
-      <c r="S11">
-        <v>905</v>
-      </c>
-      <c r="T11">
-        <v>1091</v>
-      </c>
-      <c r="U11">
-        <v>9501</v>
-      </c>
-      <c r="V11">
-        <v>1787</v>
-      </c>
-      <c r="W11">
-        <v>8489</v>
-      </c>
-      <c r="X11">
-        <v>8260</v>
-      </c>
-      <c r="Y11">
-        <v>6849</v>
-      </c>
-      <c r="Z11">
-        <v>25385</v>
-      </c>
-      <c r="AA11">
-        <v>5235</v>
-      </c>
-      <c r="AB11">
-        <v>4066</v>
-      </c>
-      <c r="AC11">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>497</v>
-      </c>
-      <c r="C12">
-        <v>510</v>
-      </c>
-      <c r="D12">
-        <v>449</v>
-      </c>
-      <c r="E12">
-        <v>636</v>
-      </c>
-      <c r="F12">
-        <v>2092</v>
-      </c>
-      <c r="G12">
-        <v>623</v>
-      </c>
-      <c r="H12">
-        <v>733</v>
-      </c>
-      <c r="I12">
-        <v>764</v>
-      </c>
-      <c r="J12">
-        <v>902</v>
-      </c>
-      <c r="K12">
-        <v>3022</v>
-      </c>
-      <c r="L12">
-        <v>836</v>
-      </c>
-      <c r="M12">
-        <v>926</v>
-      </c>
-      <c r="N12">
-        <v>801</v>
-      </c>
-      <c r="O12">
-        <v>860</v>
-      </c>
-      <c r="P12">
-        <v>3423</v>
-      </c>
-      <c r="Q12">
-        <v>771</v>
-      </c>
-      <c r="R12">
-        <v>918</v>
-      </c>
-      <c r="S12">
-        <v>586</v>
-      </c>
-      <c r="T12">
-        <v>727</v>
-      </c>
-      <c r="U12">
-        <v>3002</v>
-      </c>
-      <c r="V12">
-        <v>619</v>
-      </c>
-      <c r="W12">
-        <v>708</v>
-      </c>
-      <c r="X12">
-        <v>543</v>
-      </c>
-      <c r="Y12">
-        <v>817</v>
-      </c>
-      <c r="Z12">
-        <v>2687</v>
-      </c>
-      <c r="AA12">
-        <v>531</v>
-      </c>
-      <c r="AB12">
-        <v>875</v>
-      </c>
-      <c r="AC12">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>5148</v>
-      </c>
-      <c r="C13">
-        <v>-3777</v>
-      </c>
-      <c r="D13">
-        <v>-3380</v>
-      </c>
-      <c r="E13">
-        <v>2403</v>
-      </c>
-      <c r="F13">
-        <v>394</v>
-      </c>
-      <c r="G13">
-        <v>37341</v>
-      </c>
-      <c r="H13">
-        <v>-972</v>
-      </c>
-      <c r="I13">
-        <v>-2321</v>
-      </c>
-      <c r="J13">
-        <v>1113</v>
-      </c>
-      <c r="K13">
-        <v>35161</v>
-      </c>
-      <c r="L13">
-        <v>3028</v>
-      </c>
-      <c r="M13">
-        <v>-4621</v>
-      </c>
-      <c r="N13">
-        <v>-3972</v>
-      </c>
-      <c r="O13">
-        <v>1829</v>
-      </c>
-      <c r="P13">
-        <v>-3736</v>
-      </c>
-      <c r="Q13">
-        <v>10314</v>
-      </c>
-      <c r="R13">
-        <v>-428</v>
-      </c>
-      <c r="S13">
-        <v>-2962</v>
-      </c>
-      <c r="T13">
-        <v>6273</v>
-      </c>
-      <c r="U13">
-        <v>13197</v>
-      </c>
-      <c r="V13">
-        <v>7540</v>
-      </c>
-      <c r="W13">
-        <v>-3273</v>
-      </c>
-      <c r="X13">
-        <v>-3227</v>
-      </c>
-      <c r="Y13">
-        <v>415</v>
-      </c>
-      <c r="Z13">
-        <v>1455</v>
-      </c>
-      <c r="AA13">
-        <v>10984</v>
-      </c>
-      <c r="AB13">
-        <v>-3596</v>
-      </c>
-      <c r="AC13">
-        <v>-3111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>1030</v>
-      </c>
-      <c r="C14">
-        <v>2939</v>
-      </c>
-      <c r="D14">
-        <v>672</v>
-      </c>
-      <c r="E14">
-        <v>55</v>
-      </c>
-      <c r="F14">
-        <v>4696</v>
-      </c>
-      <c r="G14">
-        <v>-31858</v>
-      </c>
-      <c r="H14">
-        <v>-459</v>
-      </c>
-      <c r="I14">
-        <v>2625</v>
-      </c>
-      <c r="J14">
-        <v>1531</v>
-      </c>
-      <c r="K14">
-        <v>-28161</v>
-      </c>
-      <c r="L14">
-        <v>302</v>
-      </c>
-      <c r="M14">
-        <v>1175</v>
-      </c>
-      <c r="N14">
-        <v>2631</v>
-      </c>
-      <c r="O14">
-        <v>1216</v>
-      </c>
-      <c r="P14">
-        <v>5324</v>
-      </c>
-      <c r="Q14">
-        <v>-4850</v>
-      </c>
-      <c r="R14">
-        <v>-296</v>
-      </c>
-      <c r="S14">
-        <v>5228</v>
-      </c>
-      <c r="T14">
-        <v>-1072</v>
-      </c>
-      <c r="U14">
-        <v>-990</v>
-      </c>
-      <c r="V14">
-        <v>-198</v>
-      </c>
-      <c r="W14">
-        <v>827</v>
-      </c>
-      <c r="X14">
-        <v>-255</v>
-      </c>
-      <c r="Y14">
-        <v>-3755</v>
-      </c>
-      <c r="Z14">
-        <v>-3381</v>
-      </c>
-      <c r="AA14">
-        <v>-1345</v>
-      </c>
-      <c r="AB14">
-        <v>4015</v>
-      </c>
-      <c r="AC14">
-        <v>3756</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ref="B15:AC15" si="1">B9-B11-B12+B13+B14</f>
-        <v>27056</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>12523</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>8363</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>44576</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>63598</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>28293</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>15130</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>14488</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>53410</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>77434</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>26690</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>11155</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
-        <v>11636</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>51436</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="1"/>
-        <v>69391</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>30516</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="1"/>
-        <v>13311</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="1"/>
-        <v>16271</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="1"/>
-        <v>54061</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="1"/>
-        <v>80674</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="1"/>
-        <v>38763</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="1"/>
-        <v>23981</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="1"/>
-        <v>21094</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="1"/>
-        <v>72585</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="1"/>
-        <v>104038</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="1"/>
-        <v>46966</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="1"/>
-        <v>28166</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="1"/>
-        <v>22892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17">
-        <v>-3334</v>
-      </c>
-      <c r="C17">
-        <v>-2975</v>
-      </c>
-      <c r="D17">
-        <v>-2277</v>
-      </c>
-      <c r="E17">
-        <v>-3865</v>
-      </c>
-      <c r="F17">
-        <v>-12451</v>
-      </c>
-      <c r="G17">
-        <v>-2810</v>
-      </c>
-      <c r="H17">
-        <v>-4195</v>
-      </c>
-      <c r="I17">
-        <v>-3267</v>
-      </c>
-      <c r="J17">
-        <v>-3041</v>
-      </c>
-      <c r="K17">
-        <v>-13313</v>
-      </c>
-      <c r="L17">
-        <v>-3355</v>
-      </c>
-      <c r="M17">
-        <v>-2363</v>
-      </c>
-      <c r="N17">
-        <v>-2000</v>
-      </c>
-      <c r="O17">
-        <v>-2777</v>
-      </c>
-      <c r="P17">
-        <v>-10495</v>
-      </c>
-      <c r="Q17">
-        <v>-2107</v>
-      </c>
-      <c r="R17">
-        <v>-1853</v>
-      </c>
-      <c r="S17">
-        <v>-1565</v>
-      </c>
-      <c r="T17">
-        <v>-1784</v>
-      </c>
-      <c r="U17">
-        <v>-7309</v>
-      </c>
-      <c r="V17">
-        <v>-3500</v>
-      </c>
-      <c r="W17">
-        <v>-2269</v>
-      </c>
-      <c r="X17">
-        <v>-2093</v>
-      </c>
-      <c r="Y17">
-        <v>-3223</v>
-      </c>
-      <c r="Z17">
-        <v>-11085</v>
-      </c>
-      <c r="AA17">
-        <v>-2803</v>
-      </c>
-      <c r="AB17">
-        <v>-2514</v>
-      </c>
-      <c r="AC17">
-        <v>-2102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18">
-        <v>-17</v>
-      </c>
-      <c r="C18">
-        <v>-50</v>
-      </c>
-      <c r="D18">
-        <v>-181</v>
-      </c>
-      <c r="E18">
-        <v>-81</v>
-      </c>
-      <c r="F18">
-        <v>-329</v>
-      </c>
-      <c r="G18">
-        <v>-173</v>
-      </c>
-      <c r="H18">
-        <v>-132</v>
-      </c>
-      <c r="I18">
-        <v>-126</v>
-      </c>
-      <c r="J18">
-        <v>-290</v>
-      </c>
-      <c r="K18">
-        <v>-721</v>
-      </c>
-      <c r="L18">
-        <v>-167</v>
-      </c>
-      <c r="M18">
-        <v>-124</v>
-      </c>
-      <c r="N18">
-        <v>-320</v>
-      </c>
-      <c r="O18">
-        <v>-13</v>
-      </c>
-      <c r="P18">
-        <v>-624</v>
-      </c>
-      <c r="Q18">
-        <v>-958</v>
-      </c>
-      <c r="R18">
-        <v>-176</v>
-      </c>
-      <c r="S18">
-        <v>-339</v>
-      </c>
-      <c r="T18">
-        <v>-51</v>
-      </c>
-      <c r="U18">
-        <v>-1524</v>
-      </c>
-      <c r="V18">
-        <v>-9</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>-4</v>
-      </c>
-      <c r="Y18">
-        <v>-20</v>
-      </c>
-      <c r="Z18">
-        <v>-33</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>-167</v>
-      </c>
-      <c r="AC18">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>-15771</v>
-      </c>
-      <c r="C19">
-        <v>-11177</v>
-      </c>
-      <c r="D19">
-        <v>-722</v>
-      </c>
-      <c r="E19">
-        <v>-5996</v>
-      </c>
-      <c r="F19">
-        <v>-33666</v>
-      </c>
-      <c r="G19">
-        <v>-10607</v>
-      </c>
-      <c r="H19">
-        <v>33037</v>
-      </c>
-      <c r="I19">
-        <v>7340</v>
-      </c>
-      <c r="J19">
-        <v>330</v>
-      </c>
-      <c r="K19">
-        <v>30100</v>
-      </c>
-      <c r="L19">
-        <v>9366</v>
-      </c>
-      <c r="M19">
-        <v>15835</v>
-      </c>
-      <c r="N19">
-        <v>29822</v>
-      </c>
-      <c r="O19">
-        <v>1992</v>
-      </c>
-      <c r="P19">
-        <v>57015</v>
-      </c>
-      <c r="Q19">
-        <v>-10603</v>
-      </c>
-      <c r="R19">
-        <v>11042</v>
-      </c>
-      <c r="S19">
-        <v>-3261</v>
-      </c>
-      <c r="T19">
-        <v>7366</v>
-      </c>
-      <c r="U19">
-        <v>4544</v>
-      </c>
-      <c r="V19">
-        <v>-5075</v>
-      </c>
-      <c r="W19">
-        <v>-8099</v>
-      </c>
-      <c r="X19">
-        <v>5669</v>
-      </c>
-      <c r="Y19">
-        <v>4078</v>
-      </c>
-      <c r="Z19">
-        <v>-3427</v>
-      </c>
-      <c r="AA19">
-        <v>-13303</v>
-      </c>
-      <c r="AB19">
-        <v>-6584</v>
-      </c>
-      <c r="AC19">
-        <v>6338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20">
-        <f>SUM(B17:B19)</f>
-        <v>-19122</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ref="C20:R20" si="2">SUM(C17:C19)</f>
-        <v>-14202</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>-3180</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>-9942</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
-        <v>-46446</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>-13590</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>28710</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
-        <v>3947</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>-3001</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>16066</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="2"/>
-        <v>5844</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
-        <v>13348</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="2"/>
-        <v>27502</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="2"/>
-        <v>-798</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="2"/>
-        <v>45896</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="2"/>
-        <v>-13668</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="2"/>
-        <v>9013</v>
-      </c>
-      <c r="S20">
-        <f t="shared" ref="S20:AC20" si="3">SUM(S17:S19)</f>
-        <v>-5165</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="3"/>
-        <v>5531</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="3"/>
-        <v>-4289</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="3"/>
-        <v>-8584</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="3"/>
-        <v>-10368</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="3"/>
-        <v>3572</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="3"/>
-        <v>835</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="3"/>
-        <v>-14545</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="3"/>
-        <v>-16106</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="3"/>
-        <v>-9265</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="3"/>
-        <v>4234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22">
-        <v>-3130</v>
-      </c>
-      <c r="C22">
-        <v>-3004</v>
-      </c>
-      <c r="D22">
-        <v>-3365</v>
-      </c>
-      <c r="E22">
-        <v>-3270</v>
-      </c>
-      <c r="F22">
-        <v>-12769</v>
-      </c>
-      <c r="G22">
-        <v>-3339</v>
-      </c>
-      <c r="H22">
-        <v>-3190</v>
-      </c>
-      <c r="I22">
-        <v>-3653</v>
-      </c>
-      <c r="J22">
-        <v>-3530</v>
-      </c>
-      <c r="K22">
-        <v>-13712</v>
-      </c>
-      <c r="L22">
-        <v>-3568</v>
-      </c>
-      <c r="M22">
-        <v>-3443</v>
-      </c>
-      <c r="N22">
-        <v>-3629</v>
-      </c>
-      <c r="O22">
-        <v>-3479</v>
-      </c>
-      <c r="P22">
-        <v>-14119</v>
-      </c>
-      <c r="Q22">
-        <v>-3539</v>
-      </c>
-      <c r="R22">
-        <v>-3375</v>
-      </c>
-      <c r="S22">
-        <v>-3656</v>
-      </c>
-      <c r="T22">
-        <v>-3511</v>
-      </c>
-      <c r="U22">
-        <v>-14081</v>
-      </c>
-      <c r="V22">
-        <v>-3613</v>
-      </c>
-      <c r="W22">
-        <v>-3447</v>
-      </c>
-      <c r="X22">
-        <v>-3767</v>
-      </c>
-      <c r="Y22">
-        <v>-3640</v>
-      </c>
-      <c r="Z22">
-        <v>-14467</v>
-      </c>
-      <c r="AA22">
-        <v>-3732</v>
-      </c>
-      <c r="AB22">
-        <v>-3595</v>
-      </c>
-      <c r="AC22">
-        <v>-3811</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23">
-        <v>-11302</v>
-      </c>
-      <c r="C23">
-        <v>-7000</v>
-      </c>
-      <c r="D23">
-        <v>-7641</v>
-      </c>
-      <c r="E23">
-        <v>-7649</v>
-      </c>
-      <c r="F23">
-        <v>-33592</v>
-      </c>
-      <c r="G23">
-        <v>-11133</v>
-      </c>
-      <c r="H23">
-        <v>-22581</v>
-      </c>
-      <c r="I23">
-        <v>-21859</v>
-      </c>
-      <c r="J23">
-        <v>-19023</v>
-      </c>
-      <c r="K23">
-        <v>-74596</v>
-      </c>
-      <c r="L23">
-        <v>-10114</v>
-      </c>
-      <c r="M23">
-        <v>-23421</v>
-      </c>
-      <c r="N23">
-        <v>-18153</v>
-      </c>
-      <c r="O23">
-        <v>-17245</v>
-      </c>
-      <c r="P23">
-        <v>-68933</v>
-      </c>
-      <c r="Q23">
-        <v>-22083</v>
-      </c>
-      <c r="R23">
-        <v>-18333</v>
-      </c>
-      <c r="S23">
-        <v>-17559</v>
-      </c>
-      <c r="T23">
-        <v>-17137</v>
-      </c>
-      <c r="U23">
-        <v>-75112</v>
-      </c>
-      <c r="V23">
-        <v>-27636</v>
-      </c>
-      <c r="W23">
-        <v>-18286</v>
-      </c>
-      <c r="X23">
-        <v>-25595</v>
-      </c>
-      <c r="Y23">
-        <v>-19905</v>
-      </c>
-      <c r="Z23">
-        <v>-91422</v>
-      </c>
-      <c r="AA23">
-        <v>-23366</v>
-      </c>
-      <c r="AB23">
-        <v>-22961</v>
-      </c>
-      <c r="AC23">
-        <v>-24562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>10975</v>
-      </c>
-      <c r="D24">
-        <v>7250</v>
-      </c>
-      <c r="E24">
-        <v>6937</v>
-      </c>
-      <c r="F24">
-        <v>25162</v>
-      </c>
-      <c r="G24">
-        <v>6969</v>
-      </c>
-      <c r="H24">
-        <v>-500</v>
-      </c>
-      <c r="I24">
-        <v>-6000</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>469</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>-2500</v>
-      </c>
-      <c r="N24">
-        <v>-3000</v>
-      </c>
-      <c r="O24">
-        <v>3658</v>
-      </c>
-      <c r="P24">
-        <v>-1842</v>
-      </c>
-      <c r="Q24">
-        <v>1210</v>
-      </c>
-      <c r="R24">
-        <v>-4250</v>
-      </c>
-      <c r="S24">
-        <v>1046</v>
-      </c>
-      <c r="T24">
-        <v>5456</v>
-      </c>
-      <c r="U24">
-        <v>3462</v>
-      </c>
-      <c r="V24">
-        <v>-1000</v>
-      </c>
-      <c r="W24">
-        <v>10423</v>
-      </c>
-      <c r="X24">
-        <v>-3000</v>
-      </c>
-      <c r="Y24">
-        <v>5220</v>
-      </c>
-      <c r="Z24">
-        <v>11643</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>-3750</v>
-      </c>
-      <c r="AC24">
-        <v>-3000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25">
-        <v>2385</v>
-      </c>
-      <c r="C25">
-        <v>-506</v>
-      </c>
-      <c r="D25">
-        <v>1987</v>
-      </c>
-      <c r="E25">
-        <v>-14</v>
-      </c>
-      <c r="F25">
-        <v>3852</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>-1</v>
-      </c>
-      <c r="I25">
-        <v>-11</v>
-      </c>
-      <c r="J25">
-        <v>-27</v>
-      </c>
-      <c r="K25">
-        <v>-37</v>
-      </c>
-      <c r="L25">
-        <v>6</v>
-      </c>
-      <c r="M25">
-        <v>-93</v>
-      </c>
-      <c r="N25">
-        <v>-2022</v>
-      </c>
-      <c r="O25">
-        <v>-3973</v>
-      </c>
-      <c r="P25">
-        <v>-6082</v>
-      </c>
-      <c r="Q25">
-        <v>-995</v>
-      </c>
-      <c r="R25">
-        <v>5018</v>
-      </c>
-      <c r="S25">
-        <v>1053</v>
-      </c>
-      <c r="T25">
-        <v>-6165</v>
-      </c>
-      <c r="U25">
-        <v>-1089</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>-16</v>
-      </c>
-      <c r="X25">
-        <v>2966</v>
-      </c>
-      <c r="Y25">
-        <v>-2057</v>
-      </c>
-      <c r="Z25">
-        <v>893</v>
-      </c>
-      <c r="AA25">
-        <v>-1061</v>
-      </c>
-      <c r="AB25">
-        <v>1955</v>
-      </c>
-      <c r="AC25">
-        <v>3928</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26">
-        <v>-12047</v>
-      </c>
-      <c r="C26">
-        <v>465</v>
-      </c>
-      <c r="D26">
-        <v>-1769</v>
-      </c>
-      <c r="E26">
-        <v>-3996</v>
-      </c>
-      <c r="F26">
-        <v>-17347</v>
-      </c>
-      <c r="G26">
-        <v>-7501</v>
-      </c>
-      <c r="H26">
-        <v>-26272</v>
-      </c>
-      <c r="I26">
-        <v>-31523</v>
-      </c>
-      <c r="J26">
-        <v>-22580</v>
-      </c>
-      <c r="K26">
-        <v>-87876</v>
-      </c>
-      <c r="L26">
-        <v>-13676</v>
-      </c>
-      <c r="M26">
-        <v>-29457</v>
-      </c>
-      <c r="N26">
-        <v>-26804</v>
-      </c>
-      <c r="O26">
-        <v>-21039</v>
-      </c>
-      <c r="P26">
-        <v>-90976</v>
-      </c>
-      <c r="Q26">
-        <v>-25407</v>
-      </c>
-      <c r="R26">
-        <v>-20940</v>
-      </c>
-      <c r="S26">
-        <v>-19116</v>
-      </c>
-      <c r="T26">
-        <v>-21357</v>
-      </c>
-      <c r="U26">
-        <v>-86820</v>
-      </c>
-      <c r="V26">
-        <v>-32249</v>
-      </c>
-      <c r="W26">
-        <v>-11326</v>
-      </c>
-      <c r="X26">
-        <v>-29396</v>
-      </c>
-      <c r="Y26">
-        <v>-20382</v>
-      </c>
-      <c r="Z26">
-        <v>-93353</v>
-      </c>
-      <c r="AA26">
-        <v>-28159</v>
-      </c>
-      <c r="AB26">
-        <v>-28351</v>
-      </c>
-      <c r="AC26">
-        <v>-27445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28">
-        <f>B15+B20+B26</f>
-        <v>-4113</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:AC28" si="4">C15+C20+C26</f>
-        <v>-1214</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="4"/>
-        <v>3414</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="4"/>
-        <v>30638</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="4"/>
-        <v>-195</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>7202</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="4"/>
-        <v>17568</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="4"/>
-        <v>-13088</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="4"/>
-        <v>27829</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="4"/>
-        <v>5624</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="4"/>
-        <v>18858</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="4"/>
-        <v>-4954</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="4"/>
-        <v>12334</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="4"/>
-        <v>29599</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="4"/>
-        <v>24311</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="4"/>
-        <v>-8559</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="4"/>
-        <v>1384</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="4"/>
-        <v>-8010</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="4"/>
-        <v>38235</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="4"/>
-        <v>-10435</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="4"/>
-        <v>-2070</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="4"/>
-        <v>2287</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="4"/>
-        <v>-4730</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="4"/>
-        <v>53038</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="4"/>
-        <v>-3860</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="4"/>
-        <v>2701</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="4"/>
-        <v>-9450</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="4"/>
-        <v>-319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30">
-        <v>20484</v>
-      </c>
-      <c r="C30">
-        <v>16371</v>
-      </c>
-      <c r="D30">
-        <v>15157</v>
-      </c>
-      <c r="E30">
-        <v>18571</v>
-      </c>
-      <c r="F30">
-        <v>20484</v>
-      </c>
-      <c r="G30">
-        <v>20289</v>
-      </c>
-      <c r="H30">
-        <v>27491</v>
-      </c>
-      <c r="I30">
-        <v>45059</v>
-      </c>
-      <c r="J30">
-        <v>31971</v>
-      </c>
-      <c r="K30">
-        <v>20289</v>
-      </c>
-      <c r="L30">
-        <v>25913</v>
-      </c>
-      <c r="M30">
-        <v>44771</v>
-      </c>
-      <c r="N30">
-        <v>39817</v>
-      </c>
-      <c r="O30">
-        <v>52151</v>
-      </c>
-      <c r="P30">
-        <v>25913</v>
-      </c>
-      <c r="Q30">
-        <v>50224</v>
-      </c>
-      <c r="R30">
-        <v>41665</v>
-      </c>
-      <c r="S30">
-        <v>43049</v>
-      </c>
-      <c r="T30">
-        <v>35039</v>
-      </c>
-      <c r="U30">
-        <v>50224</v>
-      </c>
-      <c r="V30">
-        <v>39789</v>
-      </c>
-      <c r="W30">
-        <v>37719</v>
-      </c>
-      <c r="X30">
-        <v>40006</v>
-      </c>
-      <c r="Y30">
-        <v>35276</v>
-      </c>
-      <c r="Z30">
-        <v>39789</v>
-      </c>
-      <c r="AA30">
-        <v>35929</v>
-      </c>
-      <c r="AB30">
-        <v>38630</v>
-      </c>
-      <c r="AC30">
-        <v>29180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31">
-        <v>16371</v>
-      </c>
-      <c r="C31">
-        <v>15157</v>
-      </c>
-      <c r="D31">
-        <v>18571</v>
-      </c>
-      <c r="E31">
-        <v>20289</v>
-      </c>
-      <c r="F31">
-        <v>20289</v>
-      </c>
-      <c r="G31">
-        <v>27491</v>
-      </c>
-      <c r="H31">
-        <v>45059</v>
-      </c>
-      <c r="I31">
-        <v>31971</v>
-      </c>
-      <c r="J31">
-        <v>25913</v>
-      </c>
-      <c r="K31">
-        <v>25913</v>
-      </c>
-      <c r="L31">
-        <v>44771</v>
-      </c>
-      <c r="M31">
-        <v>39817</v>
-      </c>
-      <c r="N31">
-        <v>52151</v>
-      </c>
-      <c r="O31">
-        <v>50224</v>
-      </c>
-      <c r="P31">
-        <v>50224</v>
-      </c>
-      <c r="Q31">
-        <v>41665</v>
-      </c>
-      <c r="R31">
-        <v>43049</v>
-      </c>
-      <c r="S31">
-        <v>35039</v>
-      </c>
-      <c r="T31">
-        <v>39789</v>
-      </c>
-      <c r="U31">
-        <v>39789</v>
-      </c>
-      <c r="V31">
-        <v>37719</v>
-      </c>
-      <c r="W31">
-        <v>40006</v>
-      </c>
-      <c r="X31">
-        <v>35276</v>
-      </c>
-      <c r="Y31">
-        <v>35929</v>
-      </c>
-      <c r="Z31">
-        <v>35929</v>
-      </c>
-      <c r="AA31">
-        <v>38630</v>
-      </c>
-      <c r="AB31">
-        <v>29180</v>
-      </c>
-      <c r="AC31">
-        <v>28861</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32">
-        <f>B31-B30</f>
-        <v>-4113</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ref="C32:P32" si="5">C31-C30</f>
-        <v>-1214</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="5"/>
-        <v>3414</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="5"/>
-        <v>1718</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="5"/>
-        <v>-195</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="5"/>
-        <v>7202</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="5"/>
-        <v>17568</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="5"/>
-        <v>-13088</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="5"/>
-        <v>-6058</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="5"/>
-        <v>5624</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
-        <v>18858</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="5"/>
-        <v>-4954</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="5"/>
-        <v>12334</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="5"/>
-        <v>-1927</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="5"/>
-        <v>24311</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" ref="Q32:AC32" si="6">Q31-Q30</f>
-        <v>-8559</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="6"/>
-        <v>1384</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="6"/>
-        <v>-8010</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="6"/>
-        <v>4750</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="6"/>
-        <v>-10435</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="6"/>
-        <v>-2070</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="6"/>
-        <v>2287</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="6"/>
-        <v>-4730</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="6"/>
-        <v>653</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="6"/>
-        <v>-3860</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="6"/>
-        <v>2701</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="6"/>
-        <v>-9450</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="6"/>
-        <v>-319</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/output/Financial Statement AAPL/Analysis Work.xlsx
+++ b/output/Financial Statement AAPL/Analysis Work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements /output/Financial Statement AAPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D2AFF9-14E5-5A4F-9964-EF9BB993282D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D5C88-8CC4-674D-8814-DF815A7BC0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="26900" windowHeight="15800" xr2:uid="{123E7126-618F-554B-9C59-0DEE9560D86E}"/>
   </bookViews>
